--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="399">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -865,6 +865,9 @@
     <t>['25', '27', '71', '79']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['25', '61']</t>
   </si>
   <si>
@@ -1569,7 +1572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP310"/>
+  <dimension ref="A1:BP312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1909,7 +1912,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2446,7 +2449,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2652,7 +2655,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2858,7 +2861,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -3064,7 +3067,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3270,7 +3273,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3682,7 +3685,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3969,7 +3972,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR12">
         <v>1.07</v>
@@ -4094,7 +4097,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4790,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ16">
         <v>1.2</v>
@@ -5948,7 +5951,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6360,7 +6363,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6438,7 +6441,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ24">
         <v>2.25</v>
@@ -6647,7 +6650,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR25">
         <v>0.96</v>
@@ -7184,7 +7187,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -8292,7 +8295,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ33">
         <v>1.25</v>
@@ -9038,7 +9041,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -9244,7 +9247,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -10068,7 +10071,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10274,7 +10277,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10352,7 +10355,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ43">
         <v>0.88</v>
@@ -10561,7 +10564,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10686,7 +10689,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -11098,7 +11101,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11304,7 +11307,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11591,7 +11594,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR49">
         <v>1.74</v>
@@ -11794,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ50">
         <v>0.73</v>
@@ -12209,7 +12212,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12334,7 +12337,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12952,7 +12955,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13982,7 +13985,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14266,7 +14269,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ62">
         <v>1.73</v>
@@ -14394,7 +14397,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14806,7 +14809,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15012,7 +15015,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15505,7 +15508,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR68">
         <v>1.97</v>
@@ -15630,7 +15633,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15708,7 +15711,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ69">
         <v>1.88</v>
@@ -15836,7 +15839,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16248,7 +16251,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16738,7 +16741,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16947,7 +16950,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR75">
         <v>1.11</v>
@@ -17072,7 +17075,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -18102,7 +18105,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18389,7 +18392,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ82">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18592,7 +18595,7 @@
         <v>2.25</v>
       </c>
       <c r="AP83">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ83">
         <v>1.33</v>
@@ -19132,7 +19135,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19544,7 +19547,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19750,7 +19753,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -20162,7 +20165,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20368,7 +20371,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20780,7 +20783,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21192,7 +21195,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21891,7 +21894,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
         <v>1.66</v>
@@ -22222,7 +22225,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22428,7 +22431,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22506,7 +22509,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ102">
         <v>1.06</v>
@@ -22634,7 +22637,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22918,7 +22921,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ104">
         <v>0.88</v>
@@ -23252,7 +23255,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23745,7 +23748,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ108">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR108">
         <v>1.27</v>
@@ -24076,7 +24079,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24900,7 +24903,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -25518,7 +25521,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25724,7 +25727,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -26011,7 +26014,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ119">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -26136,7 +26139,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26214,7 +26217,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ120">
         <v>0.9399999999999999</v>
@@ -26960,7 +26963,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -28196,7 +28199,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28608,7 +28611,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -29020,7 +29023,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29226,7 +29229,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29638,7 +29641,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -30131,7 +30134,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ139">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR139">
         <v>1.33</v>
@@ -30256,7 +30259,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q140">
         <v>1.5</v>
@@ -30746,7 +30749,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ142">
         <v>0.87</v>
@@ -30874,7 +30877,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31080,7 +31083,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31367,7 +31370,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ145">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR145">
         <v>1.86</v>
@@ -31492,7 +31495,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31570,7 +31573,7 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ146">
         <v>1.6</v>
@@ -32110,7 +32113,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -32316,7 +32319,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32934,7 +32937,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33346,7 +33349,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33552,7 +33555,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33964,7 +33967,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34170,7 +34173,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34663,7 +34666,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ161">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR161">
         <v>1.1</v>
@@ -34866,7 +34869,7 @@
         <v>0.86</v>
       </c>
       <c r="AP162">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ162">
         <v>0.73</v>
@@ -35406,7 +35409,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35484,7 +35487,7 @@
         <v>1.88</v>
       </c>
       <c r="AP165">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ165">
         <v>1.81</v>
@@ -35693,7 +35696,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ166">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR166">
         <v>1.77</v>
@@ -35818,7 +35821,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q167">
         <v>4.33</v>
@@ -36230,7 +36233,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36642,7 +36645,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36720,10 +36723,10 @@
         <v>0.25</v>
       </c>
       <c r="AP171">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ171">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR171">
         <v>1.12</v>
@@ -37878,7 +37881,7 @@
         <v>215</v>
       </c>
       <c r="P177" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q177">
         <v>2.4</v>
@@ -38084,7 +38087,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38290,7 +38293,7 @@
         <v>217</v>
       </c>
       <c r="P179" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q179">
         <v>1.8</v>
@@ -38496,7 +38499,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q180">
         <v>4.33</v>
@@ -39114,7 +39117,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -39398,7 +39401,7 @@
         <v>0.5</v>
       </c>
       <c r="AP184">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ184">
         <v>0.87</v>
@@ -39526,7 +39529,7 @@
         <v>104</v>
       </c>
       <c r="P185" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -40016,7 +40019,7 @@
         <v>0.89</v>
       </c>
       <c r="AP187">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ187">
         <v>0.67</v>
@@ -40225,7 +40228,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ188">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR188">
         <v>1.34</v>
@@ -40350,7 +40353,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40431,7 +40434,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ189">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR189">
         <v>1.34</v>
@@ -41046,7 +41049,7 @@
         <v>0.33</v>
       </c>
       <c r="AP192">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ192">
         <v>0.19</v>
@@ -41174,7 +41177,7 @@
         <v>128</v>
       </c>
       <c r="P193" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41586,7 +41589,7 @@
         <v>187</v>
       </c>
       <c r="P195" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q195">
         <v>2.38</v>
@@ -41998,7 +42001,7 @@
         <v>228</v>
       </c>
       <c r="P197" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42204,7 +42207,7 @@
         <v>229</v>
       </c>
       <c r="P198" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q198">
         <v>1.44</v>
@@ -43234,7 +43237,7 @@
         <v>104</v>
       </c>
       <c r="P203" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43646,7 +43649,7 @@
         <v>190</v>
       </c>
       <c r="P205" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q205">
         <v>2.38</v>
@@ -43852,7 +43855,7 @@
         <v>104</v>
       </c>
       <c r="P206" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -44136,7 +44139,7 @@
         <v>1.2</v>
       </c>
       <c r="AP207">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ207">
         <v>0.8100000000000001</v>
@@ -44264,7 +44267,7 @@
         <v>104</v>
       </c>
       <c r="P208" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -44345,7 +44348,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ208">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR208">
         <v>1.41</v>
@@ -44757,7 +44760,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ210">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR210">
         <v>2.02</v>
@@ -45088,7 +45091,7 @@
         <v>104</v>
       </c>
       <c r="P212" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q212">
         <v>3.75</v>
@@ -45990,7 +45993,7 @@
         <v>2</v>
       </c>
       <c r="AP216">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ216">
         <v>1.81</v>
@@ -46736,7 +46739,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47226,7 +47229,7 @@
         <v>0.27</v>
       </c>
       <c r="AP222">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ222">
         <v>0.19</v>
@@ -47354,7 +47357,7 @@
         <v>240</v>
       </c>
       <c r="P223" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47766,7 +47769,7 @@
         <v>158</v>
       </c>
       <c r="P225" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q225">
         <v>4.5</v>
@@ -48259,7 +48262,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ227">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR227">
         <v>1.1</v>
@@ -48796,7 +48799,7 @@
         <v>145</v>
       </c>
       <c r="P230" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -49208,7 +49211,7 @@
         <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49289,7 +49292,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ232">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR232">
         <v>1.36</v>
@@ -49414,7 +49417,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49620,7 +49623,7 @@
         <v>221</v>
       </c>
       <c r="P234" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -50113,7 +50116,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ236">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR236">
         <v>1.64</v>
@@ -50238,7 +50241,7 @@
         <v>247</v>
       </c>
       <c r="P237" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50316,7 +50319,7 @@
         <v>1.73</v>
       </c>
       <c r="AP237">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ237">
         <v>1.6</v>
@@ -50444,7 +50447,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -51474,7 +51477,7 @@
         <v>104</v>
       </c>
       <c r="P243" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q243">
         <v>2.6</v>
@@ -51758,7 +51761,7 @@
         <v>1.75</v>
       </c>
       <c r="AP244">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ244">
         <v>1.88</v>
@@ -51886,7 +51889,7 @@
         <v>104</v>
       </c>
       <c r="P245" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q245">
         <v>4.75</v>
@@ -52092,7 +52095,7 @@
         <v>104</v>
       </c>
       <c r="P246" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q246">
         <v>7.5</v>
@@ -52298,7 +52301,7 @@
         <v>250</v>
       </c>
       <c r="P247" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q247">
         <v>1.62</v>
@@ -52710,7 +52713,7 @@
         <v>178</v>
       </c>
       <c r="P249" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -53122,7 +53125,7 @@
         <v>253</v>
       </c>
       <c r="P251" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53328,7 +53331,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q252">
         <v>3.75</v>
@@ -53534,7 +53537,7 @@
         <v>255</v>
       </c>
       <c r="P253" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53818,7 +53821,7 @@
         <v>1.08</v>
       </c>
       <c r="AP254">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ254">
         <v>1.06</v>
@@ -53946,7 +53949,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q255">
         <v>4.33</v>
@@ -54439,7 +54442,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ257">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR257">
         <v>0.96</v>
@@ -54976,7 +54979,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55057,7 +55060,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ260">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR260">
         <v>1.48</v>
@@ -55594,7 +55597,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q263">
         <v>1.95</v>
@@ -55800,7 +55803,7 @@
         <v>263</v>
       </c>
       <c r="P264" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q264">
         <v>5</v>
@@ -56212,7 +56215,7 @@
         <v>221</v>
       </c>
       <c r="P266" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -56624,7 +56627,7 @@
         <v>104</v>
       </c>
       <c r="P268" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q268">
         <v>2.88</v>
@@ -56908,7 +56911,7 @@
         <v>0.92</v>
       </c>
       <c r="AP269">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ269">
         <v>0.8100000000000001</v>
@@ -57036,7 +57039,7 @@
         <v>265</v>
       </c>
       <c r="P270" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q270">
         <v>3.75</v>
@@ -57654,7 +57657,7 @@
         <v>138</v>
       </c>
       <c r="P273" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q273">
         <v>3.6</v>
@@ -57941,7 +57944,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ274">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR274">
         <v>1.4</v>
@@ -58066,7 +58069,7 @@
         <v>268</v>
       </c>
       <c r="P275" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58478,7 +58481,7 @@
         <v>269</v>
       </c>
       <c r="P277" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -58556,7 +58559,7 @@
         <v>1.08</v>
       </c>
       <c r="AP277">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ277">
         <v>1.2</v>
@@ -58684,7 +58687,7 @@
         <v>110</v>
       </c>
       <c r="P278" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q278">
         <v>3.2</v>
@@ -58765,7 +58768,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ278">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR278">
         <v>1.48</v>
@@ -58890,7 +58893,7 @@
         <v>270</v>
       </c>
       <c r="P279" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q279">
         <v>3.4</v>
@@ -59586,7 +59589,7 @@
         <v>1.69</v>
       </c>
       <c r="AP282">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ282">
         <v>1.73</v>
@@ -59714,7 +59717,7 @@
         <v>104</v>
       </c>
       <c r="P283" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q283">
         <v>3.1</v>
@@ -59920,7 +59923,7 @@
         <v>273</v>
       </c>
       <c r="P284" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q284">
         <v>1.5</v>
@@ -60126,7 +60129,7 @@
         <v>274</v>
       </c>
       <c r="P285" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -61156,7 +61159,7 @@
         <v>253</v>
       </c>
       <c r="P290" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q290">
         <v>2.1</v>
@@ -61362,7 +61365,7 @@
         <v>104</v>
       </c>
       <c r="P291" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q291">
         <v>2.4</v>
@@ -61440,7 +61443,7 @@
         <v>0.38</v>
       </c>
       <c r="AP291">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ291">
         <v>0.73</v>
@@ -61774,7 +61777,7 @@
         <v>157</v>
       </c>
       <c r="P293" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q293">
         <v>1.73</v>
@@ -61855,7 +61858,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ293">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR293">
         <v>2.06</v>
@@ -61980,7 +61983,7 @@
         <v>277</v>
       </c>
       <c r="P294" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q294">
         <v>3.25</v>
@@ -62392,7 +62395,7 @@
         <v>166</v>
       </c>
       <c r="P296" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -62598,7 +62601,7 @@
         <v>138</v>
       </c>
       <c r="P297" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -62804,7 +62807,7 @@
         <v>104</v>
       </c>
       <c r="P298" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q298">
         <v>5.5</v>
@@ -62885,7 +62888,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ298">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR298">
         <v>1.09</v>
@@ -63628,7 +63631,7 @@
         <v>104</v>
       </c>
       <c r="P302" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q302">
         <v>2.5</v>
@@ -63834,7 +63837,7 @@
         <v>141</v>
       </c>
       <c r="P303" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q303">
         <v>2.35</v>
@@ -64040,7 +64043,7 @@
         <v>104</v>
       </c>
       <c r="P304" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q304">
         <v>2.25</v>
@@ -64246,7 +64249,7 @@
         <v>104</v>
       </c>
       <c r="P305" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64452,7 +64455,7 @@
         <v>279</v>
       </c>
       <c r="P306" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q306">
         <v>3.1</v>
@@ -64864,7 +64867,7 @@
         <v>280</v>
       </c>
       <c r="P308" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q308">
         <v>2.88</v>
@@ -65276,7 +65279,7 @@
         <v>282</v>
       </c>
       <c r="P310" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q310">
         <v>1.5</v>
@@ -65433,6 +65436,418 @@
       </c>
       <c r="BP310">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:68">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>7469590</v>
+      </c>
+      <c r="C311" t="s">
+        <v>68</v>
+      </c>
+      <c r="D311" t="s">
+        <v>69</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45765.66666666666</v>
+      </c>
+      <c r="F311">
+        <v>32</v>
+      </c>
+      <c r="G311" t="s">
+        <v>82</v>
+      </c>
+      <c r="H311" t="s">
+        <v>83</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>1</v>
+      </c>
+      <c r="L311">
+        <v>1</v>
+      </c>
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>1</v>
+      </c>
+      <c r="O311" t="s">
+        <v>283</v>
+      </c>
+      <c r="P311" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q311">
+        <v>3.6</v>
+      </c>
+      <c r="R311">
+        <v>1.83</v>
+      </c>
+      <c r="S311">
+        <v>4</v>
+      </c>
+      <c r="T311">
+        <v>1.67</v>
+      </c>
+      <c r="U311">
+        <v>2.1</v>
+      </c>
+      <c r="V311">
+        <v>4.33</v>
+      </c>
+      <c r="W311">
+        <v>1.2</v>
+      </c>
+      <c r="X311">
+        <v>15</v>
+      </c>
+      <c r="Y311">
+        <v>1.03</v>
+      </c>
+      <c r="Z311">
+        <v>2.8</v>
+      </c>
+      <c r="AA311">
+        <v>2.63</v>
+      </c>
+      <c r="AB311">
+        <v>3</v>
+      </c>
+      <c r="AC311">
+        <v>1.15</v>
+      </c>
+      <c r="AD311">
+        <v>5.25</v>
+      </c>
+      <c r="AE311">
+        <v>1.61</v>
+      </c>
+      <c r="AF311">
+        <v>2.15</v>
+      </c>
+      <c r="AG311">
+        <v>3</v>
+      </c>
+      <c r="AH311">
+        <v>1.4</v>
+      </c>
+      <c r="AI311">
+        <v>2.25</v>
+      </c>
+      <c r="AJ311">
+        <v>1.57</v>
+      </c>
+      <c r="AK311">
+        <v>1.36</v>
+      </c>
+      <c r="AL311">
+        <v>1.42</v>
+      </c>
+      <c r="AM311">
+        <v>1.46</v>
+      </c>
+      <c r="AN311">
+        <v>1.6</v>
+      </c>
+      <c r="AO311">
+        <v>1.33</v>
+      </c>
+      <c r="AP311">
+        <v>1.69</v>
+      </c>
+      <c r="AQ311">
+        <v>1.25</v>
+      </c>
+      <c r="AR311">
+        <v>1.14</v>
+      </c>
+      <c r="AS311">
+        <v>1.16</v>
+      </c>
+      <c r="AT311">
+        <v>2.3</v>
+      </c>
+      <c r="AU311">
+        <v>4</v>
+      </c>
+      <c r="AV311">
+        <v>5</v>
+      </c>
+      <c r="AW311">
+        <v>6</v>
+      </c>
+      <c r="AX311">
+        <v>5</v>
+      </c>
+      <c r="AY311">
+        <v>12</v>
+      </c>
+      <c r="AZ311">
+        <v>13</v>
+      </c>
+      <c r="BA311">
+        <v>6</v>
+      </c>
+      <c r="BB311">
+        <v>8</v>
+      </c>
+      <c r="BC311">
+        <v>14</v>
+      </c>
+      <c r="BD311">
+        <v>1.91</v>
+      </c>
+      <c r="BE311">
+        <v>6.25</v>
+      </c>
+      <c r="BF311">
+        <v>2.1</v>
+      </c>
+      <c r="BG311">
+        <v>1.5</v>
+      </c>
+      <c r="BH311">
+        <v>2.38</v>
+      </c>
+      <c r="BI311">
+        <v>1.86</v>
+      </c>
+      <c r="BJ311">
+        <v>1.83</v>
+      </c>
+      <c r="BK311">
+        <v>2.38</v>
+      </c>
+      <c r="BL311">
+        <v>1.5</v>
+      </c>
+      <c r="BM311">
+        <v>3.15</v>
+      </c>
+      <c r="BN311">
+        <v>1.3</v>
+      </c>
+      <c r="BO311">
+        <v>4.1</v>
+      </c>
+      <c r="BP311">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="312" spans="1:68">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>7465302</v>
+      </c>
+      <c r="C312" t="s">
+        <v>68</v>
+      </c>
+      <c r="D312" t="s">
+        <v>69</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45766.375</v>
+      </c>
+      <c r="F312">
+        <v>32</v>
+      </c>
+      <c r="G312" t="s">
+        <v>88</v>
+      </c>
+      <c r="H312" t="s">
+        <v>75</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>1</v>
+      </c>
+      <c r="L312">
+        <v>1</v>
+      </c>
+      <c r="M312">
+        <v>1</v>
+      </c>
+      <c r="N312">
+        <v>2</v>
+      </c>
+      <c r="O312" t="s">
+        <v>110</v>
+      </c>
+      <c r="P312" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q312">
+        <v>3</v>
+      </c>
+      <c r="R312">
+        <v>1.95</v>
+      </c>
+      <c r="S312">
+        <v>4</v>
+      </c>
+      <c r="T312">
+        <v>1.53</v>
+      </c>
+      <c r="U312">
+        <v>2.38</v>
+      </c>
+      <c r="V312">
+        <v>3.5</v>
+      </c>
+      <c r="W312">
+        <v>1.29</v>
+      </c>
+      <c r="X312">
+        <v>11</v>
+      </c>
+      <c r="Y312">
+        <v>1.05</v>
+      </c>
+      <c r="Z312">
+        <v>2.3</v>
+      </c>
+      <c r="AA312">
+        <v>3</v>
+      </c>
+      <c r="AB312">
+        <v>3.4</v>
+      </c>
+      <c r="AC312">
+        <v>1.1</v>
+      </c>
+      <c r="AD312">
+        <v>6.5</v>
+      </c>
+      <c r="AE312">
+        <v>1.48</v>
+      </c>
+      <c r="AF312">
+        <v>2.62</v>
+      </c>
+      <c r="AG312">
+        <v>2.38</v>
+      </c>
+      <c r="AH312">
+        <v>1.57</v>
+      </c>
+      <c r="AI312">
+        <v>2</v>
+      </c>
+      <c r="AJ312">
+        <v>1.75</v>
+      </c>
+      <c r="AK312">
+        <v>1.34</v>
+      </c>
+      <c r="AL312">
+        <v>1.35</v>
+      </c>
+      <c r="AM312">
+        <v>1.57</v>
+      </c>
+      <c r="AN312">
+        <v>1.33</v>
+      </c>
+      <c r="AO312">
+        <v>0.67</v>
+      </c>
+      <c r="AP312">
+        <v>1.31</v>
+      </c>
+      <c r="AQ312">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR312">
+        <v>1.71</v>
+      </c>
+      <c r="AS312">
+        <v>1.04</v>
+      </c>
+      <c r="AT312">
+        <v>2.75</v>
+      </c>
+      <c r="AU312">
+        <v>5</v>
+      </c>
+      <c r="AV312">
+        <v>4</v>
+      </c>
+      <c r="AW312">
+        <v>7</v>
+      </c>
+      <c r="AX312">
+        <v>7</v>
+      </c>
+      <c r="AY312">
+        <v>12</v>
+      </c>
+      <c r="AZ312">
+        <v>12</v>
+      </c>
+      <c r="BA312">
+        <v>5</v>
+      </c>
+      <c r="BB312">
+        <v>2</v>
+      </c>
+      <c r="BC312">
+        <v>7</v>
+      </c>
+      <c r="BD312">
+        <v>1.74</v>
+      </c>
+      <c r="BE312">
+        <v>6.4</v>
+      </c>
+      <c r="BF312">
+        <v>2.33</v>
+      </c>
+      <c r="BG312">
+        <v>1.33</v>
+      </c>
+      <c r="BH312">
+        <v>2.95</v>
+      </c>
+      <c r="BI312">
+        <v>1.57</v>
+      </c>
+      <c r="BJ312">
+        <v>2.23</v>
+      </c>
+      <c r="BK312">
+        <v>1.94</v>
+      </c>
+      <c r="BL312">
+        <v>1.76</v>
+      </c>
+      <c r="BM312">
+        <v>2.43</v>
+      </c>
+      <c r="BN312">
+        <v>1.47</v>
+      </c>
+      <c r="BO312">
+        <v>3.15</v>
+      </c>
+      <c r="BP312">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="406">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1230,6 +1230,9 @@
   <si>
     <t>['19', '49']</t>
   </si>
+  <si>
+    <t>['6', '39', '42']</t>
+  </si>
 </sst>
 </file>
 
@@ -1590,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP319"/>
+  <dimension ref="A1:BP320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5638,7 +5641,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ20">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -7489,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ29">
         <v>0.88</v>
@@ -9758,7 +9761,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR40">
         <v>2.11</v>
@@ -11197,7 +11200,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ47">
         <v>2.25</v>
@@ -15317,7 +15320,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ67">
         <v>1.25</v>
@@ -15938,7 +15941,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ70">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR70">
         <v>1.36</v>
@@ -19643,7 +19646,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ88">
         <v>1.5</v>
@@ -20058,7 +20061,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -20882,7 +20885,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ94">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR94">
         <v>1.49</v>
@@ -21085,7 +21088,7 @@
         <v>1.25</v>
       </c>
       <c r="AP95">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ95">
         <v>1.19</v>
@@ -24999,7 +25002,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ114">
         <v>0.6899999999999999</v>
@@ -25826,7 +25829,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ118">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -28298,7 +28301,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ130">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR130">
         <v>1.31</v>
@@ -28913,7 +28916,7 @@
         <v>0.17</v>
       </c>
       <c r="AP133">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ133">
         <v>0.73</v>
@@ -31800,7 +31803,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ147">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR147">
         <v>1.56</v>
@@ -33445,7 +33448,7 @@
         <v>1.71</v>
       </c>
       <c r="AP155">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ155">
         <v>1.81</v>
@@ -36332,7 +36335,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ169">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR169">
         <v>1.46</v>
@@ -37153,7 +37156,7 @@
         <v>0.38</v>
       </c>
       <c r="AP173">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ173">
         <v>0.19</v>
@@ -39834,7 +39837,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ186">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR186">
         <v>1.03</v>
@@ -41273,7 +41276,7 @@
         <v>0.67</v>
       </c>
       <c r="AP193">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ193">
         <v>1.06</v>
@@ -43336,7 +43339,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ203">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR203">
         <v>1.2</v>
@@ -47041,7 +47044,7 @@
         <v>1</v>
       </c>
       <c r="AP221">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ221">
         <v>0.9399999999999999</v>
@@ -47456,7 +47459,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ223">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR223">
         <v>1.34</v>
@@ -49307,7 +49310,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ232">
         <v>1.25</v>
@@ -52812,7 +52815,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ249">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR249">
         <v>1.32</v>
@@ -53633,7 +53636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP253">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ253">
         <v>0.8100000000000001</v>
@@ -57959,7 +57962,7 @@
         <v>0.46</v>
       </c>
       <c r="AP274">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ274">
         <v>0.6899999999999999</v>
@@ -58168,7 +58171,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ275">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR275">
         <v>0.95</v>
@@ -61667,7 +61670,7 @@
         <v>0.73</v>
       </c>
       <c r="AP292">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ292">
         <v>0.88</v>
@@ -62288,7 +62291,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ295">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR295">
         <v>2.15</v>
@@ -67308,6 +67311,212 @@
       </c>
       <c r="BP319">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="320" spans="1:68">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>7465305</v>
+      </c>
+      <c r="C320" t="s">
+        <v>68</v>
+      </c>
+      <c r="D320" t="s">
+        <v>69</v>
+      </c>
+      <c r="E320" s="2">
+        <v>45768.66666666666</v>
+      </c>
+      <c r="F320">
+        <v>32</v>
+      </c>
+      <c r="G320" t="s">
+        <v>89</v>
+      </c>
+      <c r="H320" t="s">
+        <v>71</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>3</v>
+      </c>
+      <c r="K320">
+        <v>3</v>
+      </c>
+      <c r="L320">
+        <v>1</v>
+      </c>
+      <c r="M320">
+        <v>3</v>
+      </c>
+      <c r="N320">
+        <v>4</v>
+      </c>
+      <c r="O320" t="s">
+        <v>149</v>
+      </c>
+      <c r="P320" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q320">
+        <v>3.5</v>
+      </c>
+      <c r="R320">
+        <v>2.1</v>
+      </c>
+      <c r="S320">
+        <v>3.2</v>
+      </c>
+      <c r="T320">
+        <v>1.44</v>
+      </c>
+      <c r="U320">
+        <v>2.63</v>
+      </c>
+      <c r="V320">
+        <v>3</v>
+      </c>
+      <c r="W320">
+        <v>1.36</v>
+      </c>
+      <c r="X320">
+        <v>9</v>
+      </c>
+      <c r="Y320">
+        <v>1.07</v>
+      </c>
+      <c r="Z320">
+        <v>2.88</v>
+      </c>
+      <c r="AA320">
+        <v>3.3</v>
+      </c>
+      <c r="AB320">
+        <v>2.45</v>
+      </c>
+      <c r="AC320">
+        <v>1.06</v>
+      </c>
+      <c r="AD320">
+        <v>8.5</v>
+      </c>
+      <c r="AE320">
+        <v>1.33</v>
+      </c>
+      <c r="AF320">
+        <v>3.3</v>
+      </c>
+      <c r="AG320">
+        <v>2</v>
+      </c>
+      <c r="AH320">
+        <v>1.8</v>
+      </c>
+      <c r="AI320">
+        <v>1.75</v>
+      </c>
+      <c r="AJ320">
+        <v>2</v>
+      </c>
+      <c r="AK320">
+        <v>1.53</v>
+      </c>
+      <c r="AL320">
+        <v>1.25</v>
+      </c>
+      <c r="AM320">
+        <v>1.42</v>
+      </c>
+      <c r="AN320">
+        <v>1.4</v>
+      </c>
+      <c r="AO320">
+        <v>1.27</v>
+      </c>
+      <c r="AP320">
+        <v>1.31</v>
+      </c>
+      <c r="AQ320">
+        <v>1.38</v>
+      </c>
+      <c r="AR320">
+        <v>1.45</v>
+      </c>
+      <c r="AS320">
+        <v>1.31</v>
+      </c>
+      <c r="AT320">
+        <v>2.76</v>
+      </c>
+      <c r="AU320">
+        <v>6</v>
+      </c>
+      <c r="AV320">
+        <v>10</v>
+      </c>
+      <c r="AW320">
+        <v>6</v>
+      </c>
+      <c r="AX320">
+        <v>8</v>
+      </c>
+      <c r="AY320">
+        <v>15</v>
+      </c>
+      <c r="AZ320">
+        <v>19</v>
+      </c>
+      <c r="BA320">
+        <v>8</v>
+      </c>
+      <c r="BB320">
+        <v>9</v>
+      </c>
+      <c r="BC320">
+        <v>17</v>
+      </c>
+      <c r="BD320">
+        <v>1.98</v>
+      </c>
+      <c r="BE320">
+        <v>8.4</v>
+      </c>
+      <c r="BF320">
+        <v>2.16</v>
+      </c>
+      <c r="BG320">
+        <v>1.26</v>
+      </c>
+      <c r="BH320">
+        <v>3.22</v>
+      </c>
+      <c r="BI320">
+        <v>1.51</v>
+      </c>
+      <c r="BJ320">
+        <v>2.32</v>
+      </c>
+      <c r="BK320">
+        <v>2</v>
+      </c>
+      <c r="BL320">
+        <v>1.73</v>
+      </c>
+      <c r="BM320">
+        <v>2.45</v>
+      </c>
+      <c r="BN320">
+        <v>1.46</v>
+      </c>
+      <c r="BO320">
+        <v>3.28</v>
+      </c>
+      <c r="BP320">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="406">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -880,6 +880,9 @@
     <t>['12']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['25', '61']</t>
   </si>
   <si>
@@ -1154,9 +1157,6 @@
   </si>
   <si>
     <t>['75']</t>
-  </si>
-  <si>
-    <t>['46']</t>
   </si>
   <si>
     <t>['7', '63']</t>
@@ -1593,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP320"/>
+  <dimension ref="A1:BP322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2470,7 +2470,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2676,7 +2676,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2882,7 +2882,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ7">
         <v>2.25</v>
@@ -3088,7 +3088,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3294,7 +3294,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3581,7 +3581,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ10">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -4118,7 +4118,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4405,7 +4405,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>1.83</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -5972,7 +5972,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6384,7 +6384,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -7083,7 +7083,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ27">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
         <v>1.31</v>
@@ -7208,7 +7208,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ31">
         <v>0.19</v>
@@ -8522,7 +8522,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ34">
         <v>1.88</v>
@@ -8731,7 +8731,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -9062,7 +9062,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -9268,7 +9268,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -10092,7 +10092,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10298,7 +10298,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10710,7 +10710,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -11122,7 +11122,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11328,7 +11328,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -12358,7 +12358,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12976,7 +12976,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13260,7 +13260,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ57">
         <v>0.8100000000000001</v>
@@ -13469,7 +13469,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ58">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR58">
         <v>2.01</v>
@@ -14006,7 +14006,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14418,7 +14418,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14499,7 +14499,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -14702,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ64">
         <v>0.88</v>
@@ -14830,7 +14830,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15036,7 +15036,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15526,7 +15526,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ68">
         <v>1.25</v>
@@ -15654,7 +15654,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15860,7 +15860,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16272,7 +16272,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16353,7 +16353,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -17096,7 +17096,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17795,7 +17795,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ79">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -18126,7 +18126,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18619,7 +18619,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ83">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
         <v>1.07</v>
@@ -19156,7 +19156,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19568,7 +19568,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19774,7 +19774,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -20186,7 +20186,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20392,7 +20392,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20679,7 +20679,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ93">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR93">
         <v>1.22</v>
@@ -20804,7 +20804,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21216,7 +21216,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -22118,7 +22118,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ100">
         <v>1.06</v>
@@ -22246,7 +22246,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22324,7 +22324,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ101">
         <v>0.9399999999999999</v>
@@ -22452,7 +22452,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22658,7 +22658,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23276,7 +23276,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -24100,7 +24100,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24593,7 +24593,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ112">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
         <v>1.08</v>
@@ -24924,7 +24924,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -25414,10 +25414,10 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ116">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
         <v>1.93</v>
@@ -25542,7 +25542,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25748,7 +25748,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -26160,7 +26160,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26984,7 +26984,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -28220,7 +28220,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28298,7 +28298,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ130">
         <v>1.38</v>
@@ -28632,7 +28632,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28713,7 +28713,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ132">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -28919,7 +28919,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ133">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -29044,7 +29044,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29250,7 +29250,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29662,7 +29662,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -30358,7 +30358,7 @@
         <v>0.86</v>
       </c>
       <c r="AP140">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ140">
         <v>0.9399999999999999</v>
@@ -30898,7 +30898,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31104,7 +31104,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31516,7 +31516,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -32134,7 +32134,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -32340,7 +32340,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32627,7 +32627,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ151">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR151">
         <v>1.39</v>
@@ -32958,7 +32958,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33242,7 +33242,7 @@
         <v>1.14</v>
       </c>
       <c r="AP154">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ154">
         <v>1.25</v>
@@ -33370,7 +33370,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33576,7 +33576,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33988,7 +33988,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34194,7 +34194,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34481,7 +34481,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ160">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR160">
         <v>1.3</v>
@@ -35430,7 +35430,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35842,7 +35842,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q167">
         <v>4.33</v>
@@ -36254,7 +36254,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36538,7 +36538,7 @@
         <v>0.63</v>
       </c>
       <c r="AP170">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ170">
         <v>0.6899999999999999</v>
@@ -36666,7 +36666,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -37365,7 +37365,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ174">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR174">
         <v>1.33</v>
@@ -37902,7 +37902,7 @@
         <v>215</v>
       </c>
       <c r="P177" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q177">
         <v>2.4</v>
@@ -37980,7 +37980,7 @@
         <v>1.88</v>
       </c>
       <c r="AP177">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ177">
         <v>1.63</v>
@@ -38108,7 +38108,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38186,7 +38186,7 @@
         <v>0.44</v>
       </c>
       <c r="AP178">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ178">
         <v>0.88</v>
@@ -38314,7 +38314,7 @@
         <v>217</v>
       </c>
       <c r="P179" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q179">
         <v>1.8</v>
@@ -38520,7 +38520,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q180">
         <v>4.33</v>
@@ -38807,7 +38807,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ181">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR181">
         <v>1.34</v>
@@ -39138,7 +39138,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -39216,7 +39216,7 @@
         <v>1.78</v>
       </c>
       <c r="AP183">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ183">
         <v>1.81</v>
@@ -39550,7 +39550,7 @@
         <v>104</v>
       </c>
       <c r="P185" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -40374,7 +40374,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -41198,7 +41198,7 @@
         <v>128</v>
       </c>
       <c r="P193" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41610,7 +41610,7 @@
         <v>187</v>
       </c>
       <c r="P195" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q195">
         <v>2.38</v>
@@ -42022,7 +42022,7 @@
         <v>228</v>
       </c>
       <c r="P197" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42228,7 +42228,7 @@
         <v>229</v>
       </c>
       <c r="P198" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q198">
         <v>1.44</v>
@@ -42718,7 +42718,7 @@
         <v>1.56</v>
       </c>
       <c r="AP200">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ200">
         <v>1.19</v>
@@ -42927,7 +42927,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ201">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR201">
         <v>1.52</v>
@@ -43258,7 +43258,7 @@
         <v>104</v>
       </c>
       <c r="P203" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43670,7 +43670,7 @@
         <v>190</v>
       </c>
       <c r="P205" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q205">
         <v>2.38</v>
@@ -43751,7 +43751,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ205">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR205">
         <v>1.35</v>
@@ -43876,7 +43876,7 @@
         <v>104</v>
       </c>
       <c r="P206" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -44288,7 +44288,7 @@
         <v>104</v>
       </c>
       <c r="P208" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -44778,7 +44778,7 @@
         <v>0.4</v>
       </c>
       <c r="AP210">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ210">
         <v>0.6899999999999999</v>
@@ -45112,7 +45112,7 @@
         <v>104</v>
       </c>
       <c r="P212" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q212">
         <v>3.75</v>
@@ -45811,7 +45811,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ215">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR215">
         <v>1.74</v>
@@ -46220,7 +46220,7 @@
         <v>0.73</v>
       </c>
       <c r="AP217">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ217">
         <v>0.88</v>
@@ -46426,7 +46426,7 @@
         <v>0.5</v>
       </c>
       <c r="AP218">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ218">
         <v>0.8100000000000001</v>
@@ -46760,7 +46760,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47378,7 +47378,7 @@
         <v>240</v>
       </c>
       <c r="P223" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47790,7 +47790,7 @@
         <v>158</v>
       </c>
       <c r="P225" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q225">
         <v>4.5</v>
@@ -48486,7 +48486,7 @@
         <v>0.91</v>
       </c>
       <c r="AP228">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ228">
         <v>0.6899999999999999</v>
@@ -48695,7 +48695,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ229">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR229">
         <v>1.42</v>
@@ -48820,7 +48820,7 @@
         <v>145</v>
       </c>
       <c r="P230" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -49232,7 +49232,7 @@
         <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49438,7 +49438,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49644,7 +49644,7 @@
         <v>221</v>
       </c>
       <c r="P234" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -50262,7 +50262,7 @@
         <v>247</v>
       </c>
       <c r="P237" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50468,7 +50468,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -51164,7 +51164,7 @@
         <v>1.42</v>
       </c>
       <c r="AP241">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ241">
         <v>1.25</v>
@@ -51498,7 +51498,7 @@
         <v>104</v>
       </c>
       <c r="P243" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q243">
         <v>2.6</v>
@@ -51579,7 +51579,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ243">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR243">
         <v>1.16</v>
@@ -51910,7 +51910,7 @@
         <v>104</v>
       </c>
       <c r="P245" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q245">
         <v>4.75</v>
@@ -51988,7 +51988,7 @@
         <v>1.73</v>
       </c>
       <c r="AP245">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ245">
         <v>1.63</v>
@@ -52116,7 +52116,7 @@
         <v>104</v>
       </c>
       <c r="P246" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q246">
         <v>7.5</v>
@@ -52322,7 +52322,7 @@
         <v>250</v>
       </c>
       <c r="P247" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q247">
         <v>1.62</v>
@@ -52734,7 +52734,7 @@
         <v>178</v>
       </c>
       <c r="P249" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -53146,7 +53146,7 @@
         <v>253</v>
       </c>
       <c r="P251" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53227,7 +53227,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ251">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR251">
         <v>1.43</v>
@@ -53352,7 +53352,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q252">
         <v>3.75</v>
@@ -53558,7 +53558,7 @@
         <v>255</v>
       </c>
       <c r="P253" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53970,7 +53970,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q255">
         <v>4.33</v>
@@ -54666,7 +54666,7 @@
         <v>1.17</v>
       </c>
       <c r="AP258">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ258">
         <v>1.19</v>
@@ -55000,7 +55000,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55618,7 +55618,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q263">
         <v>1.95</v>
@@ -55696,7 +55696,7 @@
         <v>0.23</v>
       </c>
       <c r="AP263">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ263">
         <v>0.19</v>
@@ -55824,7 +55824,7 @@
         <v>263</v>
       </c>
       <c r="P264" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q264">
         <v>5</v>
@@ -56236,7 +56236,7 @@
         <v>221</v>
       </c>
       <c r="P266" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -56317,7 +56317,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ266">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR266">
         <v>1.69</v>
@@ -56648,7 +56648,7 @@
         <v>104</v>
       </c>
       <c r="P268" t="s">
-        <v>380</v>
+        <v>288</v>
       </c>
       <c r="Q268">
         <v>2.88</v>
@@ -57553,7 +57553,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ272">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR272">
         <v>1.3</v>
@@ -59198,7 +59198,7 @@
         <v>0.75</v>
       </c>
       <c r="AP280">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ280">
         <v>0.88</v>
@@ -60434,7 +60434,7 @@
         <v>0.93</v>
       </c>
       <c r="AP286">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ286">
         <v>0.8100000000000001</v>
@@ -60640,10 +60640,10 @@
         <v>1.31</v>
       </c>
       <c r="AP287">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ287">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR287">
         <v>1.43</v>
@@ -61467,7 +61467,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ291">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR291">
         <v>1.69</v>
@@ -62288,7 +62288,7 @@
         <v>1.29</v>
       </c>
       <c r="AP295">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ295">
         <v>1.38</v>
@@ -63524,7 +63524,7 @@
         <v>1.13</v>
       </c>
       <c r="AP301">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ301">
         <v>1.06</v>
@@ -63733,7 +63733,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ302">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR302">
         <v>1.43</v>
@@ -64145,7 +64145,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ304">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR304">
         <v>1.42</v>
@@ -64476,7 +64476,7 @@
         <v>279</v>
       </c>
       <c r="P306" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q306">
         <v>3.1</v>
@@ -65712,7 +65712,7 @@
         <v>110</v>
       </c>
       <c r="P312" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q312">
         <v>3</v>
@@ -65996,7 +65996,7 @@
         <v>0.87</v>
       </c>
       <c r="AP313">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ313">
         <v>0.8100000000000001</v>
@@ -67517,6 +67517,418 @@
       </c>
       <c r="BP320">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:68">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>7469689</v>
+      </c>
+      <c r="C321" t="s">
+        <v>68</v>
+      </c>
+      <c r="D321" t="s">
+        <v>69</v>
+      </c>
+      <c r="E321" s="2">
+        <v>45769.58333333334</v>
+      </c>
+      <c r="F321">
+        <v>33</v>
+      </c>
+      <c r="G321" t="s">
+        <v>75</v>
+      </c>
+      <c r="H321" t="s">
+        <v>82</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>1</v>
+      </c>
+      <c r="K321">
+        <v>1</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+      <c r="M321">
+        <v>1</v>
+      </c>
+      <c r="N321">
+        <v>2</v>
+      </c>
+      <c r="O321" t="s">
+        <v>121</v>
+      </c>
+      <c r="P321" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q321">
+        <v>2.38</v>
+      </c>
+      <c r="R321">
+        <v>2.1</v>
+      </c>
+      <c r="S321">
+        <v>5.5</v>
+      </c>
+      <c r="T321">
+        <v>1.44</v>
+      </c>
+      <c r="U321">
+        <v>2.63</v>
+      </c>
+      <c r="V321">
+        <v>3.25</v>
+      </c>
+      <c r="W321">
+        <v>1.33</v>
+      </c>
+      <c r="X321">
+        <v>9</v>
+      </c>
+      <c r="Y321">
+        <v>1.07</v>
+      </c>
+      <c r="Z321">
+        <v>1.7</v>
+      </c>
+      <c r="AA321">
+        <v>3.5</v>
+      </c>
+      <c r="AB321">
+        <v>5.25</v>
+      </c>
+      <c r="AC321">
+        <v>1.06</v>
+      </c>
+      <c r="AD321">
+        <v>8.5</v>
+      </c>
+      <c r="AE321">
+        <v>1.35</v>
+      </c>
+      <c r="AF321">
+        <v>3.1</v>
+      </c>
+      <c r="AG321">
+        <v>2.1</v>
+      </c>
+      <c r="AH321">
+        <v>1.73</v>
+      </c>
+      <c r="AI321">
+        <v>1.95</v>
+      </c>
+      <c r="AJ321">
+        <v>1.8</v>
+      </c>
+      <c r="AK321">
+        <v>1.17</v>
+      </c>
+      <c r="AL321">
+        <v>1.22</v>
+      </c>
+      <c r="AM321">
+        <v>2.1</v>
+      </c>
+      <c r="AN321">
+        <v>1.69</v>
+      </c>
+      <c r="AO321">
+        <v>0.73</v>
+      </c>
+      <c r="AP321">
+        <v>1.65</v>
+      </c>
+      <c r="AQ321">
+        <v>0.75</v>
+      </c>
+      <c r="AR321">
+        <v>1.39</v>
+      </c>
+      <c r="AS321">
+        <v>0.87</v>
+      </c>
+      <c r="AT321">
+        <v>2.26</v>
+      </c>
+      <c r="AU321">
+        <v>8</v>
+      </c>
+      <c r="AV321">
+        <v>4</v>
+      </c>
+      <c r="AW321">
+        <v>9</v>
+      </c>
+      <c r="AX321">
+        <v>5</v>
+      </c>
+      <c r="AY321">
+        <v>22</v>
+      </c>
+      <c r="AZ321">
+        <v>9</v>
+      </c>
+      <c r="BA321">
+        <v>6</v>
+      </c>
+      <c r="BB321">
+        <v>4</v>
+      </c>
+      <c r="BC321">
+        <v>10</v>
+      </c>
+      <c r="BD321">
+        <v>1.32</v>
+      </c>
+      <c r="BE321">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF321">
+        <v>4.4</v>
+      </c>
+      <c r="BG321">
+        <v>1.36</v>
+      </c>
+      <c r="BH321">
+        <v>2.79</v>
+      </c>
+      <c r="BI321">
+        <v>1.67</v>
+      </c>
+      <c r="BJ321">
+        <v>2.08</v>
+      </c>
+      <c r="BK321">
+        <v>2.1</v>
+      </c>
+      <c r="BL321">
+        <v>1.67</v>
+      </c>
+      <c r="BM321">
+        <v>2.78</v>
+      </c>
+      <c r="BN321">
+        <v>1.34</v>
+      </c>
+      <c r="BO321">
+        <v>3.9</v>
+      </c>
+      <c r="BP321">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="322" spans="1:68">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>7465312</v>
+      </c>
+      <c r="C322" t="s">
+        <v>68</v>
+      </c>
+      <c r="D322" t="s">
+        <v>69</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45769.6875</v>
+      </c>
+      <c r="F322">
+        <v>33</v>
+      </c>
+      <c r="G322" t="s">
+        <v>81</v>
+      </c>
+      <c r="H322" t="s">
+        <v>77</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322">
+        <v>1</v>
+      </c>
+      <c r="O322" t="s">
+        <v>288</v>
+      </c>
+      <c r="P322" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q322">
+        <v>1.62</v>
+      </c>
+      <c r="R322">
+        <v>2.75</v>
+      </c>
+      <c r="S322">
+        <v>9</v>
+      </c>
+      <c r="T322">
+        <v>1.25</v>
+      </c>
+      <c r="U322">
+        <v>3.75</v>
+      </c>
+      <c r="V322">
+        <v>2.1</v>
+      </c>
+      <c r="W322">
+        <v>1.67</v>
+      </c>
+      <c r="X322">
+        <v>5</v>
+      </c>
+      <c r="Y322">
+        <v>1.17</v>
+      </c>
+      <c r="Z322">
+        <v>1.21</v>
+      </c>
+      <c r="AA322">
+        <v>6.94</v>
+      </c>
+      <c r="AB322">
+        <v>10.8</v>
+      </c>
+      <c r="AC322">
+        <v>1.02</v>
+      </c>
+      <c r="AD322">
+        <v>19</v>
+      </c>
+      <c r="AE322">
+        <v>1.14</v>
+      </c>
+      <c r="AF322">
+        <v>5.5</v>
+      </c>
+      <c r="AG322">
+        <v>1.44</v>
+      </c>
+      <c r="AH322">
+        <v>2.75</v>
+      </c>
+      <c r="AI322">
+        <v>1.95</v>
+      </c>
+      <c r="AJ322">
+        <v>1.8</v>
+      </c>
+      <c r="AK322">
+        <v>1.05</v>
+      </c>
+      <c r="AL322">
+        <v>1.11</v>
+      </c>
+      <c r="AM322">
+        <v>4</v>
+      </c>
+      <c r="AN322">
+        <v>2.31</v>
+      </c>
+      <c r="AO322">
+        <v>1.33</v>
+      </c>
+      <c r="AP322">
+        <v>2.35</v>
+      </c>
+      <c r="AQ322">
+        <v>1.25</v>
+      </c>
+      <c r="AR322">
+        <v>2.15</v>
+      </c>
+      <c r="AS322">
+        <v>1.16</v>
+      </c>
+      <c r="AT322">
+        <v>3.31</v>
+      </c>
+      <c r="AU322">
+        <v>14</v>
+      </c>
+      <c r="AV322">
+        <v>0</v>
+      </c>
+      <c r="AW322">
+        <v>27</v>
+      </c>
+      <c r="AX322">
+        <v>5</v>
+      </c>
+      <c r="AY322">
+        <v>54</v>
+      </c>
+      <c r="AZ322">
+        <v>5</v>
+      </c>
+      <c r="BA322">
+        <v>13</v>
+      </c>
+      <c r="BB322">
+        <v>2</v>
+      </c>
+      <c r="BC322">
+        <v>15</v>
+      </c>
+      <c r="BD322">
+        <v>1.1</v>
+      </c>
+      <c r="BE322">
+        <v>14</v>
+      </c>
+      <c r="BF322">
+        <v>9.1</v>
+      </c>
+      <c r="BG322">
+        <v>1.33</v>
+      </c>
+      <c r="BH322">
+        <v>2.83</v>
+      </c>
+      <c r="BI322">
+        <v>1.7</v>
+      </c>
+      <c r="BJ322">
+        <v>2.05</v>
+      </c>
+      <c r="BK322">
+        <v>2.08</v>
+      </c>
+      <c r="BL322">
+        <v>1.67</v>
+      </c>
+      <c r="BM322">
+        <v>2.71</v>
+      </c>
+      <c r="BN322">
+        <v>1.38</v>
+      </c>
+      <c r="BO322">
+        <v>3.75</v>
+      </c>
+      <c r="BP322">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="409">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -886,6 +886,12 @@
     <t>['45', '53', '87']</t>
   </si>
   <si>
+    <t>['3', '45', '77']</t>
+  </si>
+  <si>
+    <t>['17', '64', '66', '84', '90']</t>
+  </si>
+  <si>
     <t>['25', '61']</t>
   </si>
   <si>
@@ -1596,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP326"/>
+  <dimension ref="A1:BP330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2139,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2473,7 +2479,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2554,7 +2560,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ5">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2679,7 +2685,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2757,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ6">
         <v>0.6899999999999999</v>
@@ -2885,7 +2891,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -3091,7 +3097,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3172,7 +3178,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3297,7 +3303,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3709,7 +3715,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -4121,7 +4127,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4405,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ14">
         <v>1.25</v>
@@ -5026,7 +5032,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5232,7 +5238,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5435,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ19">
         <v>0.88</v>
@@ -5847,10 +5853,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ21">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5975,7 +5981,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6262,7 +6268,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ23">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.51</v>
@@ -6387,7 +6393,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -7083,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ27">
         <v>0.75</v>
@@ -7211,7 +7217,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7910,7 +7916,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ31">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR31">
         <v>1.51</v>
@@ -8322,7 +8328,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -8731,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ35">
         <v>1.25</v>
@@ -9065,7 +9071,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -9143,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ37">
         <v>0.8100000000000001</v>
@@ -9271,7 +9277,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9352,7 +9358,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -9967,7 +9973,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ41">
         <v>0.6899999999999999</v>
@@ -10095,7 +10101,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10301,7 +10307,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10713,7 +10719,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -11000,7 +11006,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ46">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR46">
         <v>1.11</v>
@@ -11125,7 +11131,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11331,7 +11337,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11615,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ49">
         <v>0.6899999999999999</v>
@@ -12233,7 +12239,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ52">
         <v>1.25</v>
@@ -12361,7 +12367,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12439,7 +12445,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ53">
         <v>1.5</v>
@@ -12648,7 +12654,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ54">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.07</v>
@@ -12979,7 +12985,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13057,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ56">
         <v>0.88</v>
@@ -13266,7 +13272,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ57">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR57">
         <v>1.38</v>
@@ -14009,7 +14015,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14421,7 +14427,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14499,7 +14505,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63">
         <v>1.25</v>
@@ -14833,7 +14839,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14914,7 +14920,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ65">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR65">
         <v>1.56</v>
@@ -15039,7 +15045,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15326,7 +15332,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -15657,7 +15663,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15863,7 +15869,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16275,7 +16281,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -17099,7 +17105,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17177,7 +17183,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ76">
         <v>2.25</v>
@@ -17386,7 +17392,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR77">
         <v>1.31</v>
@@ -17592,7 +17598,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ78">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -17795,7 +17801,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ79">
         <v>0.75</v>
@@ -18001,7 +18007,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ80">
         <v>1.88</v>
@@ -18129,7 +18135,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18413,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ82">
         <v>0.6899999999999999</v>
@@ -19159,7 +19165,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19240,7 +19246,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR86">
         <v>1.15</v>
@@ -19571,7 +19577,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19777,7 +19783,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -20189,7 +20195,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20395,7 +20401,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20476,7 +20482,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ92">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20807,7 +20813,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20885,7 +20891,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ94">
         <v>1.38</v>
@@ -21219,7 +21225,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21506,7 +21512,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ97">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21709,7 +21715,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ98">
         <v>0.6899999999999999</v>
@@ -22124,7 +22130,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ100">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -22249,7 +22255,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22455,7 +22461,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22536,7 +22542,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ102">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>1.07</v>
@@ -22661,7 +22667,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23154,7 +23160,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ105">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR105">
         <v>1.4</v>
@@ -23279,7 +23285,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23563,7 +23569,7 @@
         <v>0.75</v>
       </c>
       <c r="AP107">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ107">
         <v>0.8100000000000001</v>
@@ -23975,7 +23981,7 @@
         <v>1.8</v>
       </c>
       <c r="AP109">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109">
         <v>1.63</v>
@@ -24103,7 +24109,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24799,10 +24805,10 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ113">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR113">
         <v>1.52</v>
@@ -24927,7 +24933,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -25211,7 +25217,7 @@
         <v>0.6</v>
       </c>
       <c r="AP115">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ115">
         <v>0.88</v>
@@ -25545,7 +25551,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25751,7 +25757,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -26163,7 +26169,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26859,10 +26865,10 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ123">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.08</v>
@@ -26987,7 +26993,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27065,7 +27071,7 @@
         <v>0.6</v>
       </c>
       <c r="AP124">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ124">
         <v>0.8100000000000001</v>
@@ -27480,7 +27486,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ126">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -28098,7 +28104,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ129">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR129">
         <v>1.27</v>
@@ -28223,7 +28229,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28507,7 +28513,7 @@
         <v>0.43</v>
       </c>
       <c r="AP131">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ131">
         <v>0.88</v>
@@ -28635,7 +28641,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -29047,7 +29053,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29253,7 +29259,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29331,7 +29337,7 @@
         <v>2.17</v>
       </c>
       <c r="AP135">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ135">
         <v>1.76</v>
@@ -29540,7 +29546,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ136">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR136">
         <v>1.38</v>
@@ -29665,7 +29671,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29743,7 +29749,7 @@
         <v>1.8</v>
       </c>
       <c r="AP137">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ137">
         <v>1.88</v>
@@ -30901,7 +30907,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31107,7 +31113,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31188,7 +31194,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ144">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR144">
         <v>1.51</v>
@@ -31519,7 +31525,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -32137,7 +32143,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -32343,7 +32349,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32836,7 +32842,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ152">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR152">
         <v>1.35</v>
@@ -32961,7 +32967,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33039,7 +33045,7 @@
         <v>2.2</v>
       </c>
       <c r="AP153">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ153">
         <v>2.25</v>
@@ -33248,7 +33254,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ154">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR154">
         <v>1.29</v>
@@ -33373,7 +33379,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33579,7 +33585,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33657,7 +33663,7 @@
         <v>1.57</v>
       </c>
       <c r="AP156">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ156">
         <v>1.12</v>
@@ -33991,7 +33997,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34069,7 +34075,7 @@
         <v>0.38</v>
       </c>
       <c r="AP158">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ158">
         <v>0.88</v>
@@ -34197,7 +34203,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34275,10 +34281,10 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ159">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR159">
         <v>1.72</v>
@@ -35102,7 +35108,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ163">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR163">
         <v>1.23</v>
@@ -35433,7 +35439,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35717,7 +35723,7 @@
         <v>0.29</v>
       </c>
       <c r="AP166">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ166">
         <v>1.25</v>
@@ -35845,7 +35851,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q167">
         <v>4.33</v>
@@ -36257,7 +36263,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36669,7 +36675,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36956,7 +36962,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ172">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR172">
         <v>1.52</v>
@@ -37162,7 +37168,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ173">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR173">
         <v>1.37</v>
@@ -37777,7 +37783,7 @@
         <v>1.5</v>
       </c>
       <c r="AP176">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ176">
         <v>1.5</v>
@@ -37905,7 +37911,7 @@
         <v>215</v>
       </c>
       <c r="P177" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q177">
         <v>2.4</v>
@@ -38111,7 +38117,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38317,7 +38323,7 @@
         <v>217</v>
       </c>
       <c r="P179" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q179">
         <v>1.8</v>
@@ -38398,7 +38404,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ179">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.81</v>
@@ -38523,7 +38529,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q180">
         <v>4.33</v>
@@ -38601,7 +38607,7 @@
         <v>1.75</v>
       </c>
       <c r="AP180">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ180">
         <v>1.76</v>
@@ -39013,10 +39019,10 @@
         <v>1.33</v>
       </c>
       <c r="AP182">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ182">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR182">
         <v>1.81</v>
@@ -39141,7 +39147,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -39553,7 +39559,7 @@
         <v>104</v>
       </c>
       <c r="P185" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39634,7 +39640,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ185">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR185">
         <v>1.15</v>
@@ -40377,7 +40383,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40661,7 +40667,7 @@
         <v>0.88</v>
       </c>
       <c r="AP190">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ190">
         <v>0.88</v>
@@ -41076,7 +41082,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ192">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR192">
         <v>1.16</v>
@@ -41201,7 +41207,7 @@
         <v>128</v>
       </c>
       <c r="P193" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41282,7 +41288,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ193">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR193">
         <v>1.37</v>
@@ -41485,7 +41491,7 @@
         <v>2</v>
       </c>
       <c r="AP194">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ194">
         <v>1.63</v>
@@ -41613,7 +41619,7 @@
         <v>187</v>
       </c>
       <c r="P195" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q195">
         <v>2.38</v>
@@ -41691,7 +41697,7 @@
         <v>0.5</v>
       </c>
       <c r="AP195">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ195">
         <v>0.88</v>
@@ -42025,7 +42031,7 @@
         <v>228</v>
       </c>
       <c r="P197" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42231,7 +42237,7 @@
         <v>229</v>
       </c>
       <c r="P198" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q198">
         <v>1.44</v>
@@ -42515,10 +42521,10 @@
         <v>1.3</v>
       </c>
       <c r="AP199">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ199">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR199">
         <v>1.47</v>
@@ -43261,7 +43267,7 @@
         <v>104</v>
       </c>
       <c r="P203" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43545,7 +43551,7 @@
         <v>1.7</v>
       </c>
       <c r="AP204">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ204">
         <v>1.76</v>
@@ -43673,7 +43679,7 @@
         <v>190</v>
       </c>
       <c r="P205" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q205">
         <v>2.38</v>
@@ -43879,7 +43885,7 @@
         <v>104</v>
       </c>
       <c r="P206" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -44166,7 +44172,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ207">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR207">
         <v>1.57</v>
@@ -44291,7 +44297,7 @@
         <v>104</v>
       </c>
       <c r="P208" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -45115,7 +45121,7 @@
         <v>104</v>
       </c>
       <c r="P212" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q212">
         <v>3.75</v>
@@ -45193,10 +45199,10 @@
         <v>1.27</v>
       </c>
       <c r="AP212">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ212">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR212">
         <v>0.97</v>
@@ -45402,7 +45408,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ213">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR213">
         <v>1.36</v>
@@ -45608,7 +45614,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ214">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR214">
         <v>1.55</v>
@@ -45811,7 +45817,7 @@
         <v>1.5</v>
       </c>
       <c r="AP215">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ215">
         <v>1.25</v>
@@ -46635,7 +46641,7 @@
         <v>1.4</v>
       </c>
       <c r="AP219">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ219">
         <v>1.12</v>
@@ -46763,7 +46769,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -46841,7 +46847,7 @@
         <v>1.8</v>
       </c>
       <c r="AP220">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ220">
         <v>1.5</v>
@@ -47256,7 +47262,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ222">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR222">
         <v>1.62</v>
@@ -47381,7 +47387,7 @@
         <v>240</v>
       </c>
       <c r="P223" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47668,7 +47674,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ224">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR224">
         <v>1.44</v>
@@ -47793,7 +47799,7 @@
         <v>158</v>
       </c>
       <c r="P225" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q225">
         <v>4.5</v>
@@ -48823,7 +48829,7 @@
         <v>145</v>
       </c>
       <c r="P230" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -49235,7 +49241,7 @@
         <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49441,7 +49447,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49519,7 +49525,7 @@
         <v>0.67</v>
       </c>
       <c r="AP233">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ233">
         <v>0.88</v>
@@ -49647,7 +49653,7 @@
         <v>221</v>
       </c>
       <c r="P234" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -49725,7 +49731,7 @@
         <v>1.83</v>
       </c>
       <c r="AP234">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ234">
         <v>1.88</v>
@@ -49931,7 +49937,7 @@
         <v>0.45</v>
       </c>
       <c r="AP235">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ235">
         <v>0.8100000000000001</v>
@@ -50265,7 +50271,7 @@
         <v>247</v>
       </c>
       <c r="P237" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50471,7 +50477,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -50552,7 +50558,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ238">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR238">
         <v>1</v>
@@ -50961,7 +50967,7 @@
         <v>1.27</v>
       </c>
       <c r="AP240">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ240">
         <v>1.12</v>
@@ -51170,7 +51176,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ241">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR241">
         <v>2.03</v>
@@ -51501,7 +51507,7 @@
         <v>104</v>
       </c>
       <c r="P243" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q243">
         <v>2.6</v>
@@ -51913,7 +51919,7 @@
         <v>104</v>
       </c>
       <c r="P245" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q245">
         <v>4.75</v>
@@ -52119,7 +52125,7 @@
         <v>104</v>
       </c>
       <c r="P246" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q246">
         <v>7.5</v>
@@ -52325,7 +52331,7 @@
         <v>250</v>
       </c>
       <c r="P247" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q247">
         <v>1.62</v>
@@ -52406,7 +52412,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ247">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR247">
         <v>1.54</v>
@@ -52612,7 +52618,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ248">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR248">
         <v>2.01</v>
@@ -52737,7 +52743,7 @@
         <v>178</v>
       </c>
       <c r="P249" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -53149,7 +53155,7 @@
         <v>253</v>
       </c>
       <c r="P251" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53355,7 +53361,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q252">
         <v>3.75</v>
@@ -53561,7 +53567,7 @@
         <v>255</v>
       </c>
       <c r="P253" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53848,7 +53854,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ254">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR254">
         <v>1.67</v>
@@ -53973,7 +53979,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q255">
         <v>4.33</v>
@@ -54051,7 +54057,7 @@
         <v>1.77</v>
       </c>
       <c r="AP255">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ255">
         <v>1.88</v>
@@ -54257,7 +54263,7 @@
         <v>1.67</v>
       </c>
       <c r="AP256">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ256">
         <v>1.5</v>
@@ -54463,7 +54469,7 @@
         <v>1.17</v>
       </c>
       <c r="AP257">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ257">
         <v>1.25</v>
@@ -55003,7 +55009,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55081,7 +55087,7 @@
         <v>0.42</v>
       </c>
       <c r="AP260">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ260">
         <v>0.6899999999999999</v>
@@ -55621,7 +55627,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q263">
         <v>1.95</v>
@@ -55702,7 +55708,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ263">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR263">
         <v>1.39</v>
@@ -55827,7 +55833,7 @@
         <v>263</v>
       </c>
       <c r="P264" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q264">
         <v>5</v>
@@ -56114,7 +56120,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ265">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR265">
         <v>2.04</v>
@@ -56239,7 +56245,7 @@
         <v>221</v>
       </c>
       <c r="P266" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -56523,7 +56529,7 @@
         <v>0.85</v>
       </c>
       <c r="AP267">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ267">
         <v>0.88</v>
@@ -56732,7 +56738,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ268">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR268">
         <v>1.45</v>
@@ -56938,7 +56944,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ269">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR269">
         <v>1.16</v>
@@ -57063,7 +57069,7 @@
         <v>265</v>
       </c>
       <c r="P270" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q270">
         <v>3.75</v>
@@ -57681,7 +57687,7 @@
         <v>138</v>
       </c>
       <c r="P273" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q273">
         <v>3.6</v>
@@ -58093,7 +58099,7 @@
         <v>268</v>
       </c>
       <c r="P275" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58171,7 +58177,7 @@
         <v>1.15</v>
       </c>
       <c r="AP275">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ275">
         <v>1.38</v>
@@ -58505,7 +58511,7 @@
         <v>269</v>
       </c>
       <c r="P277" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -58711,7 +58717,7 @@
         <v>110</v>
       </c>
       <c r="P278" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q278">
         <v>3.2</v>
@@ -58789,7 +58795,7 @@
         <v>1.08</v>
       </c>
       <c r="AP278">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ278">
         <v>1.25</v>
@@ -58917,7 +58923,7 @@
         <v>270</v>
       </c>
       <c r="P279" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q279">
         <v>3.4</v>
@@ -58995,7 +59001,7 @@
         <v>2.14</v>
       </c>
       <c r="AP279">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ279">
         <v>2.25</v>
@@ -59410,7 +59416,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ281">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR281">
         <v>1.43</v>
@@ -59741,7 +59747,7 @@
         <v>104</v>
       </c>
       <c r="P283" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q283">
         <v>3.1</v>
@@ -59822,7 +59828,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ283">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR283">
         <v>1.18</v>
@@ -59947,7 +59953,7 @@
         <v>273</v>
       </c>
       <c r="P284" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q284">
         <v>1.5</v>
@@ -60153,7 +60159,7 @@
         <v>274</v>
       </c>
       <c r="P285" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60440,7 +60446,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ286">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR286">
         <v>2.13</v>
@@ -61055,10 +61061,10 @@
         <v>1.21</v>
       </c>
       <c r="AP289">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ289">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR289">
         <v>1.8</v>
@@ -61183,7 +61189,7 @@
         <v>253</v>
       </c>
       <c r="P290" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q290">
         <v>2.1</v>
@@ -61389,7 +61395,7 @@
         <v>104</v>
       </c>
       <c r="P291" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q291">
         <v>2.4</v>
@@ -61801,7 +61807,7 @@
         <v>157</v>
       </c>
       <c r="P293" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q293">
         <v>1.73</v>
@@ -62007,7 +62013,7 @@
         <v>277</v>
       </c>
       <c r="P294" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q294">
         <v>3.25</v>
@@ -62419,7 +62425,7 @@
         <v>166</v>
       </c>
       <c r="P296" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -62625,7 +62631,7 @@
         <v>138</v>
       </c>
       <c r="P297" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -62831,7 +62837,7 @@
         <v>104</v>
       </c>
       <c r="P298" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q298">
         <v>5.5</v>
@@ -63321,7 +63327,7 @@
         <v>0.71</v>
       </c>
       <c r="AP300">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ300">
         <v>0.88</v>
@@ -63530,7 +63536,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ301">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR301">
         <v>1.39</v>
@@ -63655,7 +63661,7 @@
         <v>104</v>
       </c>
       <c r="P302" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q302">
         <v>2.5</v>
@@ -63861,7 +63867,7 @@
         <v>141</v>
       </c>
       <c r="P303" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q303">
         <v>2.35</v>
@@ -64067,7 +64073,7 @@
         <v>104</v>
       </c>
       <c r="P304" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q304">
         <v>2.25</v>
@@ -64273,7 +64279,7 @@
         <v>104</v>
       </c>
       <c r="P305" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64351,7 +64357,7 @@
         <v>2.2</v>
       </c>
       <c r="AP305">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ305">
         <v>2.25</v>
@@ -64479,7 +64485,7 @@
         <v>279</v>
       </c>
       <c r="P306" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q306">
         <v>3.1</v>
@@ -64557,10 +64563,10 @@
         <v>0.87</v>
       </c>
       <c r="AP306">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ306">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR306">
         <v>1.48</v>
@@ -64891,7 +64897,7 @@
         <v>280</v>
       </c>
       <c r="P308" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q308">
         <v>2.88</v>
@@ -64969,7 +64975,7 @@
         <v>1.8</v>
       </c>
       <c r="AP308">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ308">
         <v>1.76</v>
@@ -65178,7 +65184,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ309">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR309">
         <v>1.65</v>
@@ -65303,7 +65309,7 @@
         <v>282</v>
       </c>
       <c r="P310" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q310">
         <v>1.5</v>
@@ -65381,10 +65387,10 @@
         <v>0.2</v>
       </c>
       <c r="AP310">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ310">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AR310">
         <v>1.64</v>
@@ -65715,7 +65721,7 @@
         <v>110</v>
       </c>
       <c r="P312" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q312">
         <v>3</v>
@@ -65921,7 +65927,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q313">
         <v>1.67</v>
@@ -66539,7 +66545,7 @@
         <v>285</v>
       </c>
       <c r="P316" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66745,7 +66751,7 @@
         <v>286</v>
       </c>
       <c r="P317" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q317">
         <v>2.3</v>
@@ -67363,7 +67369,7 @@
         <v>149</v>
       </c>
       <c r="P320" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q320">
         <v>3.5</v>
@@ -67569,7 +67575,7 @@
         <v>121</v>
       </c>
       <c r="P321" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q321">
         <v>2.38</v>
@@ -68756,6 +68762,830 @@
       </c>
       <c r="BP326">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="327" spans="1:68">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>7465318</v>
+      </c>
+      <c r="C327" t="s">
+        <v>68</v>
+      </c>
+      <c r="D327" t="s">
+        <v>69</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45771.58333333334</v>
+      </c>
+      <c r="F327">
+        <v>33</v>
+      </c>
+      <c r="G327" t="s">
+        <v>85</v>
+      </c>
+      <c r="H327" t="s">
+        <v>89</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>1</v>
+      </c>
+      <c r="M327">
+        <v>1</v>
+      </c>
+      <c r="N327">
+        <v>2</v>
+      </c>
+      <c r="O327" t="s">
+        <v>175</v>
+      </c>
+      <c r="P327" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q327">
+        <v>3.25</v>
+      </c>
+      <c r="R327">
+        <v>2</v>
+      </c>
+      <c r="S327">
+        <v>3.6</v>
+      </c>
+      <c r="T327">
+        <v>1.5</v>
+      </c>
+      <c r="U327">
+        <v>2.5</v>
+      </c>
+      <c r="V327">
+        <v>3.4</v>
+      </c>
+      <c r="W327">
+        <v>1.3</v>
+      </c>
+      <c r="X327">
+        <v>10</v>
+      </c>
+      <c r="Y327">
+        <v>1.06</v>
+      </c>
+      <c r="Z327">
+        <v>2.5</v>
+      </c>
+      <c r="AA327">
+        <v>3.2</v>
+      </c>
+      <c r="AB327">
+        <v>2.9</v>
+      </c>
+      <c r="AC327">
+        <v>1.08</v>
+      </c>
+      <c r="AD327">
+        <v>7.5</v>
+      </c>
+      <c r="AE327">
+        <v>1.4</v>
+      </c>
+      <c r="AF327">
+        <v>2.88</v>
+      </c>
+      <c r="AG327">
+        <v>2.2</v>
+      </c>
+      <c r="AH327">
+        <v>1.67</v>
+      </c>
+      <c r="AI327">
+        <v>1.91</v>
+      </c>
+      <c r="AJ327">
+        <v>1.91</v>
+      </c>
+      <c r="AK327">
+        <v>1.42</v>
+      </c>
+      <c r="AL327">
+        <v>1.3</v>
+      </c>
+      <c r="AM327">
+        <v>1.5</v>
+      </c>
+      <c r="AN327">
+        <v>1.13</v>
+      </c>
+      <c r="AO327">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP327">
+        <v>1.12</v>
+      </c>
+      <c r="AQ327">
+        <v>0.82</v>
+      </c>
+      <c r="AR327">
+        <v>1.01</v>
+      </c>
+      <c r="AS327">
+        <v>1.17</v>
+      </c>
+      <c r="AT327">
+        <v>2.18</v>
+      </c>
+      <c r="AU327">
+        <v>2</v>
+      </c>
+      <c r="AV327">
+        <v>4</v>
+      </c>
+      <c r="AW327">
+        <v>6</v>
+      </c>
+      <c r="AX327">
+        <v>5</v>
+      </c>
+      <c r="AY327">
+        <v>11</v>
+      </c>
+      <c r="AZ327">
+        <v>11</v>
+      </c>
+      <c r="BA327">
+        <v>4</v>
+      </c>
+      <c r="BB327">
+        <v>5</v>
+      </c>
+      <c r="BC327">
+        <v>9</v>
+      </c>
+      <c r="BD327">
+        <v>2.66</v>
+      </c>
+      <c r="BE327">
+        <v>6.4</v>
+      </c>
+      <c r="BF327">
+        <v>1.8</v>
+      </c>
+      <c r="BG327">
+        <v>1.39</v>
+      </c>
+      <c r="BH327">
+        <v>2.67</v>
+      </c>
+      <c r="BI327">
+        <v>1.73</v>
+      </c>
+      <c r="BJ327">
+        <v>2</v>
+      </c>
+      <c r="BK327">
+        <v>2.19</v>
+      </c>
+      <c r="BL327">
+        <v>1.57</v>
+      </c>
+      <c r="BM327">
+        <v>2.92</v>
+      </c>
+      <c r="BN327">
+        <v>1.31</v>
+      </c>
+      <c r="BO327">
+        <v>4.15</v>
+      </c>
+      <c r="BP327">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="328" spans="1:68">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>7465316</v>
+      </c>
+      <c r="C328" t="s">
+        <v>68</v>
+      </c>
+      <c r="D328" t="s">
+        <v>69</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45771.58333333334</v>
+      </c>
+      <c r="F328">
+        <v>33</v>
+      </c>
+      <c r="G328" t="s">
+        <v>74</v>
+      </c>
+      <c r="H328" t="s">
+        <v>80</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>1</v>
+      </c>
+      <c r="L328">
+        <v>1</v>
+      </c>
+      <c r="M328">
+        <v>0</v>
+      </c>
+      <c r="N328">
+        <v>1</v>
+      </c>
+      <c r="O328" t="s">
+        <v>214</v>
+      </c>
+      <c r="P328" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q328">
+        <v>3.25</v>
+      </c>
+      <c r="R328">
+        <v>2</v>
+      </c>
+      <c r="S328">
+        <v>3.6</v>
+      </c>
+      <c r="T328">
+        <v>1.5</v>
+      </c>
+      <c r="U328">
+        <v>2.5</v>
+      </c>
+      <c r="V328">
+        <v>3.5</v>
+      </c>
+      <c r="W328">
+        <v>1.29</v>
+      </c>
+      <c r="X328">
+        <v>10</v>
+      </c>
+      <c r="Y328">
+        <v>1.06</v>
+      </c>
+      <c r="Z328">
+        <v>2.55</v>
+      </c>
+      <c r="AA328">
+        <v>3</v>
+      </c>
+      <c r="AB328">
+        <v>3</v>
+      </c>
+      <c r="AC328">
+        <v>1.09</v>
+      </c>
+      <c r="AD328">
+        <v>7</v>
+      </c>
+      <c r="AE328">
+        <v>1.44</v>
+      </c>
+      <c r="AF328">
+        <v>2.7</v>
+      </c>
+      <c r="AG328">
+        <v>2.3</v>
+      </c>
+      <c r="AH328">
+        <v>1.62</v>
+      </c>
+      <c r="AI328">
+        <v>1.95</v>
+      </c>
+      <c r="AJ328">
+        <v>1.8</v>
+      </c>
+      <c r="AK328">
+        <v>1.4</v>
+      </c>
+      <c r="AL328">
+        <v>1.3</v>
+      </c>
+      <c r="AM328">
+        <v>1.5</v>
+      </c>
+      <c r="AN328">
+        <v>1.69</v>
+      </c>
+      <c r="AO328">
+        <v>1.06</v>
+      </c>
+      <c r="AP328">
+        <v>1.76</v>
+      </c>
+      <c r="AQ328">
+        <v>1</v>
+      </c>
+      <c r="AR328">
+        <v>1.49</v>
+      </c>
+      <c r="AS328">
+        <v>1.22</v>
+      </c>
+      <c r="AT328">
+        <v>2.71</v>
+      </c>
+      <c r="AU328">
+        <v>3</v>
+      </c>
+      <c r="AV328">
+        <v>4</v>
+      </c>
+      <c r="AW328">
+        <v>7</v>
+      </c>
+      <c r="AX328">
+        <v>9</v>
+      </c>
+      <c r="AY328">
+        <v>13</v>
+      </c>
+      <c r="AZ328">
+        <v>17</v>
+      </c>
+      <c r="BA328">
+        <v>4</v>
+      </c>
+      <c r="BB328">
+        <v>4</v>
+      </c>
+      <c r="BC328">
+        <v>8</v>
+      </c>
+      <c r="BD328">
+        <v>1.92</v>
+      </c>
+      <c r="BE328">
+        <v>6.45</v>
+      </c>
+      <c r="BF328">
+        <v>2.43</v>
+      </c>
+      <c r="BG328">
+        <v>1.3</v>
+      </c>
+      <c r="BH328">
+        <v>2.97</v>
+      </c>
+      <c r="BI328">
+        <v>1.58</v>
+      </c>
+      <c r="BJ328">
+        <v>2.17</v>
+      </c>
+      <c r="BK328">
+        <v>2</v>
+      </c>
+      <c r="BL328">
+        <v>1.73</v>
+      </c>
+      <c r="BM328">
+        <v>2.64</v>
+      </c>
+      <c r="BN328">
+        <v>1.4</v>
+      </c>
+      <c r="BO328">
+        <v>3.58</v>
+      </c>
+      <c r="BP328">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="329" spans="1:68">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>7465311</v>
+      </c>
+      <c r="C329" t="s">
+        <v>68</v>
+      </c>
+      <c r="D329" t="s">
+        <v>69</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45771.6875</v>
+      </c>
+      <c r="F329">
+        <v>33</v>
+      </c>
+      <c r="G329" t="s">
+        <v>87</v>
+      </c>
+      <c r="H329" t="s">
+        <v>88</v>
+      </c>
+      <c r="I329">
+        <v>2</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>2</v>
+      </c>
+      <c r="L329">
+        <v>3</v>
+      </c>
+      <c r="M329">
+        <v>0</v>
+      </c>
+      <c r="N329">
+        <v>3</v>
+      </c>
+      <c r="O329" t="s">
+        <v>290</v>
+      </c>
+      <c r="P329" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q329">
+        <v>2.25</v>
+      </c>
+      <c r="R329">
+        <v>2.1</v>
+      </c>
+      <c r="S329">
+        <v>6</v>
+      </c>
+      <c r="T329">
+        <v>1.44</v>
+      </c>
+      <c r="U329">
+        <v>2.63</v>
+      </c>
+      <c r="V329">
+        <v>3.25</v>
+      </c>
+      <c r="W329">
+        <v>1.33</v>
+      </c>
+      <c r="X329">
+        <v>9</v>
+      </c>
+      <c r="Y329">
+        <v>1.07</v>
+      </c>
+      <c r="Z329">
+        <v>1.65</v>
+      </c>
+      <c r="AA329">
+        <v>3.91</v>
+      </c>
+      <c r="AB329">
+        <v>5.68</v>
+      </c>
+      <c r="AC329">
+        <v>1.06</v>
+      </c>
+      <c r="AD329">
+        <v>8.5</v>
+      </c>
+      <c r="AE329">
+        <v>1.35</v>
+      </c>
+      <c r="AF329">
+        <v>3.1</v>
+      </c>
+      <c r="AG329">
+        <v>2</v>
+      </c>
+      <c r="AH329">
+        <v>1.72</v>
+      </c>
+      <c r="AI329">
+        <v>2.1</v>
+      </c>
+      <c r="AJ329">
+        <v>1.67</v>
+      </c>
+      <c r="AK329">
+        <v>1.13</v>
+      </c>
+      <c r="AL329">
+        <v>1.2</v>
+      </c>
+      <c r="AM329">
+        <v>2.3</v>
+      </c>
+      <c r="AN329">
+        <v>2.31</v>
+      </c>
+      <c r="AO329">
+        <v>1.25</v>
+      </c>
+      <c r="AP329">
+        <v>2.35</v>
+      </c>
+      <c r="AQ329">
+        <v>1.18</v>
+      </c>
+      <c r="AR329">
+        <v>1.71</v>
+      </c>
+      <c r="AS329">
+        <v>1.22</v>
+      </c>
+      <c r="AT329">
+        <v>2.93</v>
+      </c>
+      <c r="AU329">
+        <v>6</v>
+      </c>
+      <c r="AV329">
+        <v>6</v>
+      </c>
+      <c r="AW329">
+        <v>5</v>
+      </c>
+      <c r="AX329">
+        <v>6</v>
+      </c>
+      <c r="AY329">
+        <v>12</v>
+      </c>
+      <c r="AZ329">
+        <v>13</v>
+      </c>
+      <c r="BA329">
+        <v>6</v>
+      </c>
+      <c r="BB329">
+        <v>3</v>
+      </c>
+      <c r="BC329">
+        <v>9</v>
+      </c>
+      <c r="BD329">
+        <v>1.49</v>
+      </c>
+      <c r="BE329">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF329">
+        <v>3.25</v>
+      </c>
+      <c r="BG329">
+        <v>1.26</v>
+      </c>
+      <c r="BH329">
+        <v>3.22</v>
+      </c>
+      <c r="BI329">
+        <v>1.51</v>
+      </c>
+      <c r="BJ329">
+        <v>2.32</v>
+      </c>
+      <c r="BK329">
+        <v>1.85</v>
+      </c>
+      <c r="BL329">
+        <v>1.85</v>
+      </c>
+      <c r="BM329">
+        <v>2.45</v>
+      </c>
+      <c r="BN329">
+        <v>1.46</v>
+      </c>
+      <c r="BO329">
+        <v>3.28</v>
+      </c>
+      <c r="BP329">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:68">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>7465313</v>
+      </c>
+      <c r="C330" t="s">
+        <v>68</v>
+      </c>
+      <c r="D330" t="s">
+        <v>69</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45771.6875</v>
+      </c>
+      <c r="F330">
+        <v>33</v>
+      </c>
+      <c r="G330" t="s">
+        <v>71</v>
+      </c>
+      <c r="H330" t="s">
+        <v>78</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
+      <c r="K330">
+        <v>2</v>
+      </c>
+      <c r="L330">
+        <v>5</v>
+      </c>
+      <c r="M330">
+        <v>1</v>
+      </c>
+      <c r="N330">
+        <v>6</v>
+      </c>
+      <c r="O330" t="s">
+        <v>291</v>
+      </c>
+      <c r="P330" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q330">
+        <v>1.62</v>
+      </c>
+      <c r="R330">
+        <v>2.75</v>
+      </c>
+      <c r="S330">
+        <v>9.5</v>
+      </c>
+      <c r="T330">
+        <v>1.25</v>
+      </c>
+      <c r="U330">
+        <v>3.75</v>
+      </c>
+      <c r="V330">
+        <v>2.2</v>
+      </c>
+      <c r="W330">
+        <v>1.62</v>
+      </c>
+      <c r="X330">
+        <v>5</v>
+      </c>
+      <c r="Y330">
+        <v>1.17</v>
+      </c>
+      <c r="Z330">
+        <v>1.22</v>
+      </c>
+      <c r="AA330">
+        <v>5.75</v>
+      </c>
+      <c r="AB330">
+        <v>13</v>
+      </c>
+      <c r="AC330">
+        <v>1.01</v>
+      </c>
+      <c r="AD330">
+        <v>17</v>
+      </c>
+      <c r="AE330">
+        <v>1.15</v>
+      </c>
+      <c r="AF330">
+        <v>5.25</v>
+      </c>
+      <c r="AG330">
+        <v>1.5</v>
+      </c>
+      <c r="AH330">
+        <v>2.63</v>
+      </c>
+      <c r="AI330">
+        <v>2</v>
+      </c>
+      <c r="AJ330">
+        <v>1.75</v>
+      </c>
+      <c r="AK330">
+        <v>1.04</v>
+      </c>
+      <c r="AL330">
+        <v>1.11</v>
+      </c>
+      <c r="AM330">
+        <v>4</v>
+      </c>
+      <c r="AN330">
+        <v>1.81</v>
+      </c>
+      <c r="AO330">
+        <v>0.19</v>
+      </c>
+      <c r="AP330">
+        <v>1.88</v>
+      </c>
+      <c r="AQ330">
+        <v>0.18</v>
+      </c>
+      <c r="AR330">
+        <v>1.83</v>
+      </c>
+      <c r="AS330">
+        <v>1</v>
+      </c>
+      <c r="AT330">
+        <v>2.83</v>
+      </c>
+      <c r="AU330">
+        <v>7</v>
+      </c>
+      <c r="AV330">
+        <v>6</v>
+      </c>
+      <c r="AW330">
+        <v>10</v>
+      </c>
+      <c r="AX330">
+        <v>5</v>
+      </c>
+      <c r="AY330">
+        <v>21</v>
+      </c>
+      <c r="AZ330">
+        <v>16</v>
+      </c>
+      <c r="BA330">
+        <v>4</v>
+      </c>
+      <c r="BB330">
+        <v>4</v>
+      </c>
+      <c r="BC330">
+        <v>8</v>
+      </c>
+      <c r="BD330">
+        <v>1.15</v>
+      </c>
+      <c r="BE330">
+        <v>12.5</v>
+      </c>
+      <c r="BF330">
+        <v>7.2</v>
+      </c>
+      <c r="BG330">
+        <v>1.33</v>
+      </c>
+      <c r="BH330">
+        <v>2.93</v>
+      </c>
+      <c r="BI330">
+        <v>1.7</v>
+      </c>
+      <c r="BJ330">
+        <v>2.05</v>
+      </c>
+      <c r="BK330">
+        <v>2.04</v>
+      </c>
+      <c r="BL330">
+        <v>1.66</v>
+      </c>
+      <c r="BM330">
+        <v>2.66</v>
+      </c>
+      <c r="BN330">
+        <v>1.37</v>
+      </c>
+      <c r="BO330">
+        <v>3.7</v>
+      </c>
+      <c r="BP330">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="409">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -892,6 +892,9 @@
     <t>['17', '64', '66', '84', '90']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['25', '61']</t>
   </si>
   <si>
@@ -1013,9 +1016,6 @@
   </si>
   <si>
     <t>['34', '68']</t>
-  </si>
-  <si>
-    <t>['52']</t>
   </si>
   <si>
     <t>['6', '62', '67']</t>
@@ -1602,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP330"/>
+  <dimension ref="A1:BP331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2479,7 +2479,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2685,7 +2685,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2891,7 +2891,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -3097,7 +3097,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3303,7 +3303,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3590,7 +3590,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ10">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ11">
         <v>1.63</v>
@@ -4127,7 +4127,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -5981,7 +5981,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ22">
         <v>0.8100000000000001</v>
@@ -6393,7 +6393,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -7092,7 +7092,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR27">
         <v>1.31</v>
@@ -7217,7 +7217,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -9071,7 +9071,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -9277,7 +9277,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -10101,7 +10101,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10307,7 +10307,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10719,7 +10719,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -11131,7 +11131,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11337,7 +11337,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -12367,7 +12367,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12985,7 +12985,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13478,7 +13478,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ58">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR58">
         <v>2.01</v>
@@ -14015,7 +14015,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14093,7 +14093,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ61">
         <v>2.25</v>
@@ -14427,7 +14427,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14839,7 +14839,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15045,7 +15045,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15663,7 +15663,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15869,7 +15869,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16281,7 +16281,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -17105,7 +17105,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17804,7 +17804,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -18135,7 +18135,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18213,7 +18213,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ81">
         <v>0.88</v>
@@ -19165,7 +19165,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19577,7 +19577,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19783,7 +19783,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -20195,7 +20195,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20401,7 +20401,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20688,7 +20688,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ93">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR93">
         <v>1.22</v>
@@ -20813,7 +20813,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21225,7 +21225,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21921,7 +21921,7 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ99">
         <v>1.25</v>
@@ -22255,7 +22255,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22461,7 +22461,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22667,7 +22667,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23285,7 +23285,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -24109,7 +24109,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24933,7 +24933,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -25426,7 +25426,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR116">
         <v>1.93</v>
@@ -25551,7 +25551,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25757,7 +25757,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -26659,7 +26659,7 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ122">
         <v>0.88</v>
@@ -28928,7 +28928,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ133">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -31191,7 +31191,7 @@
         <v>1.14</v>
       </c>
       <c r="AP144">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ144">
         <v>0.82</v>
@@ -34490,7 +34490,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ160">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR160">
         <v>1.3</v>
@@ -36341,7 +36341,7 @@
         <v>0.75</v>
       </c>
       <c r="AP169">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ169">
         <v>1.38</v>
@@ -36675,7 +36675,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36959,7 +36959,7 @@
         <v>1.38</v>
       </c>
       <c r="AP172">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ172">
         <v>1.18</v>
@@ -38816,7 +38816,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ181">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR181">
         <v>1.34</v>
@@ -42237,7 +42237,7 @@
         <v>229</v>
       </c>
       <c r="P198" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q198">
         <v>1.44</v>
@@ -42933,7 +42933,7 @@
         <v>1.67</v>
       </c>
       <c r="AP201">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ201">
         <v>1.25</v>
@@ -43760,7 +43760,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ205">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR205">
         <v>1.35</v>
@@ -45611,7 +45611,7 @@
         <v>0.3</v>
       </c>
       <c r="AP214">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ214">
         <v>0.18</v>
@@ -48704,7 +48704,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ229">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR229">
         <v>1.42</v>
@@ -50143,7 +50143,7 @@
         <v>0.36</v>
       </c>
       <c r="AP236">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ236">
         <v>0.6899999999999999</v>
@@ -51588,7 +51588,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ243">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR243">
         <v>1.16</v>
@@ -52331,7 +52331,7 @@
         <v>250</v>
       </c>
       <c r="P247" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q247">
         <v>1.62</v>
@@ -53361,7 +53361,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q252">
         <v>3.75</v>
@@ -56245,7 +56245,7 @@
         <v>221</v>
       </c>
       <c r="P266" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -57562,7 +57562,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ272">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR272">
         <v>1.3</v>
@@ -57765,7 +57765,7 @@
         <v>1.64</v>
       </c>
       <c r="AP273">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ273">
         <v>1.88</v>
@@ -61476,7 +61476,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ291">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR291">
         <v>1.69</v>
@@ -63121,7 +63121,7 @@
         <v>1.64</v>
       </c>
       <c r="AP299">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ299">
         <v>1.5</v>
@@ -64154,7 +64154,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ304">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR304">
         <v>1.42</v>
@@ -66829,7 +66829,7 @@
         <v>1.2</v>
       </c>
       <c r="AP317">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ317">
         <v>1.12</v>
@@ -67656,7 +67656,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ321">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR321">
         <v>1.39</v>
@@ -69429,7 +69429,7 @@
         <v>291</v>
       </c>
       <c r="P330" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q330">
         <v>1.62</v>
@@ -69586,6 +69586,212 @@
       </c>
       <c r="BP330">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:68">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>7469685</v>
+      </c>
+      <c r="C331" t="s">
+        <v>68</v>
+      </c>
+      <c r="D331" t="s">
+        <v>69</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45774.46875</v>
+      </c>
+      <c r="F331">
+        <v>26</v>
+      </c>
+      <c r="G331" t="s">
+        <v>79</v>
+      </c>
+      <c r="H331" t="s">
+        <v>82</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>1</v>
+      </c>
+      <c r="O331" t="s">
+        <v>292</v>
+      </c>
+      <c r="P331" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q331">
+        <v>1.91</v>
+      </c>
+      <c r="R331">
+        <v>2.4</v>
+      </c>
+      <c r="S331">
+        <v>7</v>
+      </c>
+      <c r="T331">
+        <v>1.33</v>
+      </c>
+      <c r="U331">
+        <v>3.25</v>
+      </c>
+      <c r="V331">
+        <v>2.5</v>
+      </c>
+      <c r="W331">
+        <v>1.5</v>
+      </c>
+      <c r="X331">
+        <v>6.5</v>
+      </c>
+      <c r="Y331">
+        <v>1.11</v>
+      </c>
+      <c r="Z331">
+        <v>1.42</v>
+      </c>
+      <c r="AA331">
+        <v>4.75</v>
+      </c>
+      <c r="AB331">
+        <v>7</v>
+      </c>
+      <c r="AC331">
+        <v>1.03</v>
+      </c>
+      <c r="AD331">
+        <v>15</v>
+      </c>
+      <c r="AE331">
+        <v>1.22</v>
+      </c>
+      <c r="AF331">
+        <v>4.33</v>
+      </c>
+      <c r="AG331">
+        <v>1.67</v>
+      </c>
+      <c r="AH331">
+        <v>2.2</v>
+      </c>
+      <c r="AI331">
+        <v>1.95</v>
+      </c>
+      <c r="AJ331">
+        <v>1.8</v>
+      </c>
+      <c r="AK331">
+        <v>1.11</v>
+      </c>
+      <c r="AL331">
+        <v>1.19</v>
+      </c>
+      <c r="AM331">
+        <v>2.7</v>
+      </c>
+      <c r="AN331">
+        <v>1.47</v>
+      </c>
+      <c r="AO331">
+        <v>0.75</v>
+      </c>
+      <c r="AP331">
+        <v>1.56</v>
+      </c>
+      <c r="AQ331">
+        <v>0.71</v>
+      </c>
+      <c r="AR331">
+        <v>1.74</v>
+      </c>
+      <c r="AS331">
+        <v>0.88</v>
+      </c>
+      <c r="AT331">
+        <v>2.62</v>
+      </c>
+      <c r="AU331">
+        <v>6</v>
+      </c>
+      <c r="AV331">
+        <v>2</v>
+      </c>
+      <c r="AW331">
+        <v>9</v>
+      </c>
+      <c r="AX331">
+        <v>11</v>
+      </c>
+      <c r="AY331">
+        <v>18</v>
+      </c>
+      <c r="AZ331">
+        <v>13</v>
+      </c>
+      <c r="BA331">
+        <v>8</v>
+      </c>
+      <c r="BB331">
+        <v>6</v>
+      </c>
+      <c r="BC331">
+        <v>14</v>
+      </c>
+      <c r="BD331">
+        <v>1.35</v>
+      </c>
+      <c r="BE331">
+        <v>7</v>
+      </c>
+      <c r="BF331">
+        <v>3.55</v>
+      </c>
+      <c r="BG331">
+        <v>1.33</v>
+      </c>
+      <c r="BH331">
+        <v>2.95</v>
+      </c>
+      <c r="BI331">
+        <v>1.56</v>
+      </c>
+      <c r="BJ331">
+        <v>2.23</v>
+      </c>
+      <c r="BK331">
+        <v>1.92</v>
+      </c>
+      <c r="BL331">
+        <v>1.77</v>
+      </c>
+      <c r="BM331">
+        <v>2.43</v>
+      </c>
+      <c r="BN331">
+        <v>1.48</v>
+      </c>
+      <c r="BO331">
+        <v>3.15</v>
+      </c>
+      <c r="BP331">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="409">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1602,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP331"/>
+  <dimension ref="A1:BP332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1942,7 +1942,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -6471,7 +6471,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ24">
         <v>2.25</v>
@@ -10594,7 +10594,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -11827,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ50">
         <v>0.88</v>
@@ -12242,7 +12242,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -14299,7 +14299,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ62">
         <v>1.63</v>
@@ -15538,7 +15538,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ68">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR68">
         <v>1.97</v>
@@ -16771,7 +16771,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ74">
         <v>0.6899999999999999</v>
@@ -21924,7 +21924,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR99">
         <v>1.66</v>
@@ -22951,7 +22951,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ104">
         <v>0.88</v>
@@ -26044,7 +26044,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ119">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -26247,7 +26247,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ120">
         <v>0.88</v>
@@ -31400,7 +31400,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ145">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR145">
         <v>1.86</v>
@@ -31603,7 +31603,7 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ146">
         <v>1.5</v>
@@ -35517,7 +35517,7 @@
         <v>1.88</v>
       </c>
       <c r="AP165">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ165">
         <v>1.88</v>
@@ -35726,7 +35726,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ166">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR166">
         <v>1.77</v>
@@ -39431,7 +39431,7 @@
         <v>0.5</v>
       </c>
       <c r="AP184">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ184">
         <v>0.8100000000000001</v>
@@ -40464,7 +40464,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ189">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR189">
         <v>1.34</v>
@@ -44169,7 +44169,7 @@
         <v>1.2</v>
       </c>
       <c r="AP207">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ207">
         <v>0.82</v>
@@ -44378,7 +44378,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ208">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR208">
         <v>1.41</v>
@@ -47259,7 +47259,7 @@
         <v>0.27</v>
       </c>
       <c r="AP222">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ222">
         <v>0.18</v>
@@ -48292,7 +48292,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ227">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR227">
         <v>1.1</v>
@@ -49322,7 +49322,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ232">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR232">
         <v>1.36</v>
@@ -51791,7 +51791,7 @@
         <v>1.75</v>
       </c>
       <c r="AP244">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ244">
         <v>1.76</v>
@@ -53851,7 +53851,7 @@
         <v>1.08</v>
       </c>
       <c r="AP254">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ254">
         <v>1</v>
@@ -54472,7 +54472,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ257">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR257">
         <v>0.96</v>
@@ -58589,7 +58589,7 @@
         <v>1.08</v>
       </c>
       <c r="AP277">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ277">
         <v>1.12</v>
@@ -58798,7 +58798,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ278">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR278">
         <v>1.48</v>
@@ -61473,7 +61473,7 @@
         <v>0.38</v>
       </c>
       <c r="AP291">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ291">
         <v>0.71</v>
@@ -62918,7 +62918,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ298">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR298">
         <v>1.09</v>
@@ -65596,7 +65596,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ311">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR311">
         <v>1.14</v>
@@ -65799,7 +65799,7 @@
         <v>0.67</v>
       </c>
       <c r="AP312">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ312">
         <v>0.6899999999999999</v>
@@ -69792,6 +69792,212 @@
       </c>
       <c r="BP331">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:68">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>7465325</v>
+      </c>
+      <c r="C332" t="s">
+        <v>68</v>
+      </c>
+      <c r="D332" t="s">
+        <v>69</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45779.66666666666</v>
+      </c>
+      <c r="F332">
+        <v>34</v>
+      </c>
+      <c r="G332" t="s">
+        <v>88</v>
+      </c>
+      <c r="H332" t="s">
+        <v>83</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>1</v>
+      </c>
+      <c r="L332">
+        <v>1</v>
+      </c>
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332">
+        <v>1</v>
+      </c>
+      <c r="O332" t="s">
+        <v>138</v>
+      </c>
+      <c r="P332" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q332">
+        <v>3.2</v>
+      </c>
+      <c r="R332">
+        <v>1.83</v>
+      </c>
+      <c r="S332">
+        <v>4.5</v>
+      </c>
+      <c r="T332">
+        <v>1.67</v>
+      </c>
+      <c r="U332">
+        <v>2.1</v>
+      </c>
+      <c r="V332">
+        <v>4.33</v>
+      </c>
+      <c r="W332">
+        <v>1.2</v>
+      </c>
+      <c r="X332">
+        <v>15</v>
+      </c>
+      <c r="Y332">
+        <v>1.03</v>
+      </c>
+      <c r="Z332">
+        <v>2.37</v>
+      </c>
+      <c r="AA332">
+        <v>3.02</v>
+      </c>
+      <c r="AB332">
+        <v>3.58</v>
+      </c>
+      <c r="AC332">
+        <v>1.12</v>
+      </c>
+      <c r="AD332">
+        <v>5.75</v>
+      </c>
+      <c r="AE332">
+        <v>1.61</v>
+      </c>
+      <c r="AF332">
+        <v>2.15</v>
+      </c>
+      <c r="AG332">
+        <v>3</v>
+      </c>
+      <c r="AH332">
+        <v>1.4</v>
+      </c>
+      <c r="AI332">
+        <v>2.38</v>
+      </c>
+      <c r="AJ332">
+        <v>1.53</v>
+      </c>
+      <c r="AK332">
+        <v>1.31</v>
+      </c>
+      <c r="AL332">
+        <v>1.38</v>
+      </c>
+      <c r="AM332">
+        <v>1.57</v>
+      </c>
+      <c r="AN332">
+        <v>1.31</v>
+      </c>
+      <c r="AO332">
+        <v>1.25</v>
+      </c>
+      <c r="AP332">
+        <v>1.41</v>
+      </c>
+      <c r="AQ332">
+        <v>1.18</v>
+      </c>
+      <c r="AR332">
+        <v>1.71</v>
+      </c>
+      <c r="AS332">
+        <v>1.17</v>
+      </c>
+      <c r="AT332">
+        <v>2.88</v>
+      </c>
+      <c r="AU332">
+        <v>9</v>
+      </c>
+      <c r="AV332">
+        <v>2</v>
+      </c>
+      <c r="AW332">
+        <v>5</v>
+      </c>
+      <c r="AX332">
+        <v>11</v>
+      </c>
+      <c r="AY332">
+        <v>14</v>
+      </c>
+      <c r="AZ332">
+        <v>18</v>
+      </c>
+      <c r="BA332">
+        <v>7</v>
+      </c>
+      <c r="BB332">
+        <v>3</v>
+      </c>
+      <c r="BC332">
+        <v>10</v>
+      </c>
+      <c r="BD332">
+        <v>1.6</v>
+      </c>
+      <c r="BE332">
+        <v>6.65</v>
+      </c>
+      <c r="BF332">
+        <v>3.2</v>
+      </c>
+      <c r="BG332">
+        <v>1.4</v>
+      </c>
+      <c r="BH332">
+        <v>2.64</v>
+      </c>
+      <c r="BI332">
+        <v>1.75</v>
+      </c>
+      <c r="BJ332">
+        <v>1.96</v>
+      </c>
+      <c r="BK332">
+        <v>2.23</v>
+      </c>
+      <c r="BL332">
+        <v>1.55</v>
+      </c>
+      <c r="BM332">
+        <v>3.04</v>
+      </c>
+      <c r="BN332">
+        <v>1.29</v>
+      </c>
+      <c r="BO332">
+        <v>4.3</v>
+      </c>
+      <c r="BP332">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="418">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -901,6 +901,12 @@
     <t>['45+2', '83']</t>
   </si>
   <si>
+    <t>['33', '39', '48']</t>
+  </si>
+  <si>
+    <t>['21', '70']</t>
+  </si>
+  <si>
     <t>['25', '61']</t>
   </si>
   <si>
@@ -1256,6 +1262,12 @@
   </si>
   <si>
     <t>['54', '60']</t>
+  </si>
+  <si>
+    <t>['69', '76']</t>
+  </si>
+  <si>
+    <t>['85', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP336"/>
+  <dimension ref="A1:BP340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2494,7 +2506,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2700,7 +2712,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2781,7 +2793,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ6">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2906,7 +2918,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -3112,7 +3124,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3190,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ8">
         <v>1.18</v>
@@ -3318,7 +3330,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3730,7 +3742,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -4142,7 +4154,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4220,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ13">
         <v>1.76</v>
@@ -4635,7 +4647,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4838,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ16">
         <v>1.12</v>
@@ -5250,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ18">
         <v>0.18</v>
@@ -5665,7 +5677,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ20">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5996,7 +6008,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6077,7 +6089,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ22">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR22">
         <v>1.08</v>
@@ -6408,7 +6420,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6901,7 +6913,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ26">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -7232,7 +7244,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7310,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ28">
         <v>0.88</v>
@@ -8340,7 +8352,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ33">
         <v>1.18</v>
@@ -9086,7 +9098,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -9167,7 +9179,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ37">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -9292,7 +9304,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9370,7 +9382,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ38">
         <v>0.82</v>
@@ -9782,10 +9794,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ40">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR40">
         <v>2.11</v>
@@ -9991,7 +10003,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ41">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR41">
         <v>1.59</v>
@@ -10116,7 +10128,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10322,7 +10334,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10400,7 +10412,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ43">
         <v>0.88</v>
@@ -10606,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ44">
         <v>1.18</v>
@@ -10734,7 +10746,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10812,7 +10824,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ45">
         <v>1.88</v>
@@ -11146,7 +11158,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11352,7 +11364,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11433,7 +11445,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -12382,7 +12394,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12463,7 +12475,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -13000,7 +13012,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13490,7 +13502,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ58">
         <v>0.71</v>
@@ -13699,7 +13711,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ59">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR59">
         <v>1.14</v>
@@ -13905,7 +13917,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ60">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -14030,7 +14042,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14442,7 +14454,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14854,7 +14866,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14932,7 +14944,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ65">
         <v>0.18</v>
@@ -15060,7 +15072,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15138,7 +15150,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -15678,7 +15690,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15756,7 +15768,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ69">
         <v>1.76</v>
@@ -15884,7 +15896,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15965,7 +15977,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR70">
         <v>1.36</v>
@@ -16296,7 +16308,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16789,7 +16801,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ74">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR74">
         <v>1.48</v>
@@ -16992,7 +17004,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ75">
         <v>0.82</v>
@@ -17120,7 +17132,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -18150,7 +18162,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18640,7 +18652,7 @@
         <v>2.25</v>
       </c>
       <c r="AP83">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ83">
         <v>1.25</v>
@@ -19055,7 +19067,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR85">
         <v>1.24</v>
@@ -19180,7 +19192,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19464,7 +19476,7 @@
         <v>2.5</v>
       </c>
       <c r="AP87">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ87">
         <v>1.76</v>
@@ -19592,7 +19604,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19673,7 +19685,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -19798,7 +19810,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -20082,10 +20094,10 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ90">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -20210,7 +20222,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20288,7 +20300,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ91">
         <v>1.59</v>
@@ -20416,7 +20428,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20828,7 +20840,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20909,7 +20921,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ94">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR94">
         <v>1.49</v>
@@ -21240,7 +21252,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21733,7 +21745,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ98">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR98">
         <v>1.58</v>
@@ -22270,7 +22282,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22476,7 +22488,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22554,7 +22566,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22682,7 +22694,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23300,7 +23312,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23378,7 +23390,7 @@
         <v>2.5</v>
       </c>
       <c r="AP106">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ106">
         <v>2.29</v>
@@ -23587,7 +23599,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ107">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR107">
         <v>1.1</v>
@@ -24124,7 +24136,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24202,7 +24214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP110">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ110">
         <v>0.82</v>
@@ -24411,7 +24423,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24948,7 +24960,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -25029,7 +25041,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ114">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR114">
         <v>1.33</v>
@@ -25566,7 +25578,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25644,7 +25656,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ117">
         <v>1.12</v>
@@ -25853,7 +25865,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -26184,7 +26196,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26468,7 +26480,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ121">
         <v>0.82</v>
@@ -27008,7 +27020,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27089,7 +27101,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ124">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR124">
         <v>1.82</v>
@@ -27707,7 +27719,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27910,7 +27922,7 @@
         <v>2.57</v>
       </c>
       <c r="AP128">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ128">
         <v>2.29</v>
@@ -28244,7 +28256,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28325,7 +28337,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ130">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR130">
         <v>1.31</v>
@@ -28656,7 +28668,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -29068,7 +29080,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29274,7 +29286,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29558,7 +29570,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ136">
         <v>1.18</v>
@@ -29686,7 +29698,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -30591,7 +30603,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ141">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR141">
         <v>1.08</v>
@@ -30794,10 +30806,10 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ142">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR142">
         <v>1.12</v>
@@ -30922,7 +30934,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31128,7 +31140,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31412,7 +31424,7 @@
         <v>0.33</v>
       </c>
       <c r="AP145">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ145">
         <v>1.18</v>
@@ -31540,7 +31552,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31621,7 +31633,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR146">
         <v>1.72</v>
@@ -31824,10 +31836,10 @@
         <v>0.86</v>
       </c>
       <c r="AP147">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ147">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR147">
         <v>1.56</v>
@@ -32030,7 +32042,7 @@
         <v>0.83</v>
       </c>
       <c r="AP148">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ148">
         <v>0.82</v>
@@ -32158,7 +32170,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -32364,7 +32376,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32982,7 +32994,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33394,7 +33406,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33600,7 +33612,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -34012,7 +34024,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34218,7 +34230,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34914,7 +34926,7 @@
         <v>0.86</v>
       </c>
       <c r="AP162">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ162">
         <v>0.82</v>
@@ -35326,10 +35338,10 @@
         <v>0.57</v>
       </c>
       <c r="AP164">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ164">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR164">
         <v>1.37</v>
@@ -35454,7 +35466,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35866,7 +35878,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q167">
         <v>4.33</v>
@@ -35947,7 +35959,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ167">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR167">
         <v>1.17</v>
@@ -36150,7 +36162,7 @@
         <v>1.13</v>
       </c>
       <c r="AP168">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ168">
         <v>0.88</v>
@@ -36278,7 +36290,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36359,7 +36371,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ169">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR169">
         <v>1.46</v>
@@ -36565,7 +36577,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ170">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR170">
         <v>1.98</v>
@@ -36690,7 +36702,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36768,7 +36780,7 @@
         <v>0.25</v>
       </c>
       <c r="AP171">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ171">
         <v>0.82</v>
@@ -37801,7 +37813,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ176">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR176">
         <v>1.53</v>
@@ -37926,7 +37938,7 @@
         <v>215</v>
       </c>
       <c r="P177" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q177">
         <v>2.4</v>
@@ -38132,7 +38144,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38338,7 +38350,7 @@
         <v>217</v>
       </c>
       <c r="P179" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q179">
         <v>1.8</v>
@@ -38416,7 +38428,7 @@
         <v>0.75</v>
       </c>
       <c r="AP179">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ179">
         <v>1</v>
@@ -38544,7 +38556,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q180">
         <v>4.33</v>
@@ -39162,7 +39174,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -39449,7 +39461,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ184">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR184">
         <v>1.61</v>
@@ -39574,7 +39586,7 @@
         <v>104</v>
       </c>
       <c r="P185" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39861,7 +39873,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ186">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR186">
         <v>1.03</v>
@@ -40064,10 +40076,10 @@
         <v>0.89</v>
       </c>
       <c r="AP187">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ187">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR187">
         <v>1.12</v>
@@ -40270,7 +40282,7 @@
         <v>0.33</v>
       </c>
       <c r="AP188">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ188">
         <v>0.82</v>
@@ -40398,7 +40410,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40888,7 +40900,7 @@
         <v>1.89</v>
       </c>
       <c r="AP191">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ191">
         <v>1.76</v>
@@ -41094,7 +41106,7 @@
         <v>0.33</v>
       </c>
       <c r="AP192">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ192">
         <v>0.18</v>
@@ -41222,7 +41234,7 @@
         <v>128</v>
       </c>
       <c r="P193" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41634,7 +41646,7 @@
         <v>187</v>
       </c>
       <c r="P195" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q195">
         <v>2.38</v>
@@ -42046,7 +42058,7 @@
         <v>228</v>
       </c>
       <c r="P197" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42127,7 +42139,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ197">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR197">
         <v>1.41</v>
@@ -42252,7 +42264,7 @@
         <v>229</v>
       </c>
       <c r="P198" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q198">
         <v>1.44</v>
@@ -42330,7 +42342,7 @@
         <v>1.11</v>
       </c>
       <c r="AP198">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ198">
         <v>0.88</v>
@@ -43282,7 +43294,7 @@
         <v>104</v>
       </c>
       <c r="P203" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43363,7 +43375,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ203">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR203">
         <v>1.2</v>
@@ -43694,7 +43706,7 @@
         <v>190</v>
       </c>
       <c r="P205" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q205">
         <v>2.38</v>
@@ -43772,7 +43784,7 @@
         <v>0.11</v>
       </c>
       <c r="AP205">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ205">
         <v>0.71</v>
@@ -43900,7 +43912,7 @@
         <v>104</v>
       </c>
       <c r="P206" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -44312,7 +44324,7 @@
         <v>104</v>
       </c>
       <c r="P208" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -44390,7 +44402,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP208">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ208">
         <v>1.18</v>
@@ -44599,7 +44611,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ209">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR209">
         <v>1.31</v>
@@ -45011,7 +45023,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ211">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR211">
         <v>1.16</v>
@@ -45136,7 +45148,7 @@
         <v>104</v>
       </c>
       <c r="P212" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q212">
         <v>3.75</v>
@@ -46038,7 +46050,7 @@
         <v>2</v>
       </c>
       <c r="AP216">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ216">
         <v>1.88</v>
@@ -46453,7 +46465,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ218">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR218">
         <v>1.3</v>
@@ -46784,7 +46796,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -46865,7 +46877,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ220">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR220">
         <v>1.72</v>
@@ -47402,7 +47414,7 @@
         <v>240</v>
       </c>
       <c r="P223" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47483,7 +47495,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ223">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR223">
         <v>1.34</v>
@@ -47814,7 +47826,7 @@
         <v>158</v>
       </c>
       <c r="P225" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q225">
         <v>4.5</v>
@@ -48098,7 +48110,7 @@
         <v>1.8</v>
       </c>
       <c r="AP226">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ226">
         <v>1.59</v>
@@ -48513,7 +48525,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ228">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR228">
         <v>1.3</v>
@@ -48716,7 +48728,7 @@
         <v>0.2</v>
       </c>
       <c r="AP229">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ229">
         <v>0.71</v>
@@ -48844,7 +48856,7 @@
         <v>145</v>
       </c>
       <c r="P230" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -48922,7 +48934,7 @@
         <v>2</v>
       </c>
       <c r="AP230">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ230">
         <v>2.29</v>
@@ -49256,7 +49268,7 @@
         <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49462,7 +49474,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49668,7 +49680,7 @@
         <v>221</v>
       </c>
       <c r="P234" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -49955,7 +49967,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ235">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR235">
         <v>1.76</v>
@@ -50286,7 +50298,7 @@
         <v>247</v>
       </c>
       <c r="P237" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50364,10 +50376,10 @@
         <v>1.73</v>
       </c>
       <c r="AP237">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ237">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR237">
         <v>1.14</v>
@@ -50492,7 +50504,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -51522,7 +51534,7 @@
         <v>104</v>
       </c>
       <c r="P243" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q243">
         <v>2.6</v>
@@ -51934,7 +51946,7 @@
         <v>104</v>
       </c>
       <c r="P245" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q245">
         <v>4.75</v>
@@ -52140,7 +52152,7 @@
         <v>104</v>
       </c>
       <c r="P246" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q246">
         <v>7.5</v>
@@ -52346,7 +52358,7 @@
         <v>250</v>
       </c>
       <c r="P247" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q247">
         <v>1.62</v>
@@ -52630,7 +52642,7 @@
         <v>1</v>
       </c>
       <c r="AP248">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ248">
         <v>0.82</v>
@@ -52758,7 +52770,7 @@
         <v>178</v>
       </c>
       <c r="P249" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -52839,7 +52851,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ249">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR249">
         <v>1.32</v>
@@ -53042,10 +53054,10 @@
         <v>0.83</v>
       </c>
       <c r="AP250">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ250">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR250">
         <v>1.44</v>
@@ -53170,7 +53182,7 @@
         <v>253</v>
       </c>
       <c r="P251" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53248,7 +53260,7 @@
         <v>1.36</v>
       </c>
       <c r="AP251">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ251">
         <v>1.25</v>
@@ -53376,7 +53388,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q252">
         <v>3.75</v>
@@ -53582,7 +53594,7 @@
         <v>255</v>
       </c>
       <c r="P253" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53663,7 +53675,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ253">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR253">
         <v>1.4</v>
@@ -53994,7 +54006,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q255">
         <v>4.33</v>
@@ -54281,7 +54293,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ256">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR256">
         <v>1.71</v>
@@ -55024,7 +55036,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55311,7 +55323,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ261">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR261">
         <v>1.39</v>
@@ -55642,7 +55654,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q263">
         <v>1.95</v>
@@ -55848,7 +55860,7 @@
         <v>263</v>
       </c>
       <c r="P264" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q264">
         <v>5</v>
@@ -56132,7 +56144,7 @@
         <v>1.31</v>
       </c>
       <c r="AP265">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ265">
         <v>1.18</v>
@@ -56260,7 +56272,7 @@
         <v>221</v>
       </c>
       <c r="P266" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -56750,7 +56762,7 @@
         <v>1.08</v>
       </c>
       <c r="AP268">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ268">
         <v>1</v>
@@ -56956,7 +56968,7 @@
         <v>0.92</v>
       </c>
       <c r="AP269">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ269">
         <v>0.82</v>
@@ -57084,7 +57096,7 @@
         <v>265</v>
       </c>
       <c r="P270" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q270">
         <v>3.75</v>
@@ -57371,7 +57383,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ271">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR271">
         <v>1.11</v>
@@ -57702,7 +57714,7 @@
         <v>138</v>
       </c>
       <c r="P273" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q273">
         <v>3.6</v>
@@ -58114,7 +58126,7 @@
         <v>268</v>
       </c>
       <c r="P275" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58195,7 +58207,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ275">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR275">
         <v>0.95</v>
@@ -58398,10 +58410,10 @@
         <v>1.54</v>
       </c>
       <c r="AP276">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ276">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR276">
         <v>1.47</v>
@@ -58526,7 +58538,7 @@
         <v>269</v>
       </c>
       <c r="P277" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -58732,7 +58744,7 @@
         <v>110</v>
       </c>
       <c r="P278" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q278">
         <v>3.2</v>
@@ -58938,7 +58950,7 @@
         <v>270</v>
       </c>
       <c r="P279" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q279">
         <v>3.4</v>
@@ -59428,7 +59440,7 @@
         <v>0.21</v>
       </c>
       <c r="AP281">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ281">
         <v>0.18</v>
@@ -59634,7 +59646,7 @@
         <v>1.69</v>
       </c>
       <c r="AP282">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ282">
         <v>1.59</v>
@@ -59762,7 +59774,7 @@
         <v>104</v>
       </c>
       <c r="P283" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q283">
         <v>3.1</v>
@@ -59968,7 +59980,7 @@
         <v>273</v>
       </c>
       <c r="P284" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q284">
         <v>1.5</v>
@@ -60046,10 +60058,10 @@
         <v>0.71</v>
       </c>
       <c r="AP284">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ284">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR284">
         <v>1.99</v>
@@ -60174,7 +60186,7 @@
         <v>274</v>
       </c>
       <c r="P285" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -61204,7 +61216,7 @@
         <v>253</v>
       </c>
       <c r="P290" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q290">
         <v>2.1</v>
@@ -61410,7 +61422,7 @@
         <v>104</v>
       </c>
       <c r="P291" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q291">
         <v>2.4</v>
@@ -61822,7 +61834,7 @@
         <v>157</v>
       </c>
       <c r="P293" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q293">
         <v>1.73</v>
@@ -61900,7 +61912,7 @@
         <v>0.5</v>
       </c>
       <c r="AP293">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ293">
         <v>0.82</v>
@@ -62028,7 +62040,7 @@
         <v>277</v>
       </c>
       <c r="P294" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q294">
         <v>3.25</v>
@@ -62109,7 +62121,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ294">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR294">
         <v>1.34</v>
@@ -62315,7 +62327,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ295">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR295">
         <v>2.15</v>
@@ -62440,7 +62452,7 @@
         <v>166</v>
       </c>
       <c r="P296" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -62646,7 +62658,7 @@
         <v>138</v>
       </c>
       <c r="P297" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -62724,7 +62736,7 @@
         <v>1.64</v>
       </c>
       <c r="AP297">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ297">
         <v>1.59</v>
@@ -62852,7 +62864,7 @@
         <v>104</v>
       </c>
       <c r="P298" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q298">
         <v>5.5</v>
@@ -63139,7 +63151,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ299">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR299">
         <v>1.73</v>
@@ -63676,7 +63688,7 @@
         <v>104</v>
       </c>
       <c r="P302" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q302">
         <v>2.5</v>
@@ -63754,7 +63766,7 @@
         <v>1.21</v>
       </c>
       <c r="AP302">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AQ302">
         <v>1.25</v>
@@ -63882,7 +63894,7 @@
         <v>141</v>
       </c>
       <c r="P303" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q303">
         <v>2.35</v>
@@ -64088,7 +64100,7 @@
         <v>104</v>
       </c>
       <c r="P304" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q304">
         <v>2.25</v>
@@ -64294,7 +64306,7 @@
         <v>104</v>
       </c>
       <c r="P305" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64500,7 +64512,7 @@
         <v>279</v>
       </c>
       <c r="P306" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q306">
         <v>3.1</v>
@@ -64912,7 +64924,7 @@
         <v>280</v>
       </c>
       <c r="P308" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q308">
         <v>2.88</v>
@@ -65324,7 +65336,7 @@
         <v>282</v>
       </c>
       <c r="P310" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q310">
         <v>1.5</v>
@@ -65608,7 +65620,7 @@
         <v>1.33</v>
       </c>
       <c r="AP311">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ311">
         <v>1.18</v>
@@ -65736,7 +65748,7 @@
         <v>110</v>
       </c>
       <c r="P312" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q312">
         <v>3</v>
@@ -65942,7 +65954,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q313">
         <v>1.67</v>
@@ -66023,7 +66035,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ313">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR313">
         <v>2.14</v>
@@ -66229,7 +66241,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ314">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AR314">
         <v>1.31</v>
@@ -66560,7 +66572,7 @@
         <v>285</v>
       </c>
       <c r="P316" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66766,7 +66778,7 @@
         <v>286</v>
       </c>
       <c r="P317" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q317">
         <v>2.3</v>
@@ -67050,7 +67062,7 @@
         <v>0.88</v>
       </c>
       <c r="AP318">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ318">
         <v>0.88</v>
@@ -67256,10 +67268,10 @@
         <v>1.6</v>
       </c>
       <c r="AP319">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ319">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR319">
         <v>2.1</v>
@@ -67384,7 +67396,7 @@
         <v>149</v>
       </c>
       <c r="P320" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q320">
         <v>3.5</v>
@@ -67465,7 +67477,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ320">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR320">
         <v>1.45</v>
@@ -67590,7 +67602,7 @@
         <v>121</v>
       </c>
       <c r="P321" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q321">
         <v>2.38</v>
@@ -69444,7 +69456,7 @@
         <v>291</v>
       </c>
       <c r="P330" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q330">
         <v>1.62</v>
@@ -70268,7 +70280,7 @@
         <v>293</v>
       </c>
       <c r="P334" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q334">
         <v>2.05</v>
@@ -70474,7 +70486,7 @@
         <v>294</v>
       </c>
       <c r="P335" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q335">
         <v>3.2</v>
@@ -70680,7 +70692,7 @@
         <v>91</v>
       </c>
       <c r="P336" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q336">
         <v>11</v>
@@ -70837,6 +70849,830 @@
       </c>
       <c r="BP336">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="337" spans="1:68">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>7465324</v>
+      </c>
+      <c r="C337" t="s">
+        <v>68</v>
+      </c>
+      <c r="D337" t="s">
+        <v>69</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45781.375</v>
+      </c>
+      <c r="F337">
+        <v>34</v>
+      </c>
+      <c r="G337" t="s">
+        <v>84</v>
+      </c>
+      <c r="H337" t="s">
+        <v>72</v>
+      </c>
+      <c r="I337">
+        <v>2</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>2</v>
+      </c>
+      <c r="L337">
+        <v>3</v>
+      </c>
+      <c r="M337">
+        <v>2</v>
+      </c>
+      <c r="N337">
+        <v>5</v>
+      </c>
+      <c r="O337" t="s">
+        <v>295</v>
+      </c>
+      <c r="P337" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q337">
+        <v>1.73</v>
+      </c>
+      <c r="R337">
+        <v>2.88</v>
+      </c>
+      <c r="S337">
+        <v>6.5</v>
+      </c>
+      <c r="T337">
+        <v>1.2</v>
+      </c>
+      <c r="U337">
+        <v>4.33</v>
+      </c>
+      <c r="V337">
+        <v>1.91</v>
+      </c>
+      <c r="W337">
+        <v>1.8</v>
+      </c>
+      <c r="X337">
+        <v>4</v>
+      </c>
+      <c r="Y337">
+        <v>1.22</v>
+      </c>
+      <c r="Z337">
+        <v>1.37</v>
+      </c>
+      <c r="AA337">
+        <v>5.77</v>
+      </c>
+      <c r="AB337">
+        <v>7.32</v>
+      </c>
+      <c r="AC337">
+        <v>1.01</v>
+      </c>
+      <c r="AD337">
+        <v>18.5</v>
+      </c>
+      <c r="AE337">
+        <v>1.12</v>
+      </c>
+      <c r="AF337">
+        <v>6</v>
+      </c>
+      <c r="AG337">
+        <v>1.37</v>
+      </c>
+      <c r="AH337">
+        <v>3.18</v>
+      </c>
+      <c r="AI337">
+        <v>1.62</v>
+      </c>
+      <c r="AJ337">
+        <v>2.2</v>
+      </c>
+      <c r="AK337">
+        <v>1.1</v>
+      </c>
+      <c r="AL337">
+        <v>1.15</v>
+      </c>
+      <c r="AM337">
+        <v>3.1</v>
+      </c>
+      <c r="AN337">
+        <v>2.5</v>
+      </c>
+      <c r="AO337">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP337">
+        <v>2.53</v>
+      </c>
+      <c r="AQ337">
+        <v>0.76</v>
+      </c>
+      <c r="AR337">
+        <v>2.12</v>
+      </c>
+      <c r="AS337">
+        <v>1.29</v>
+      </c>
+      <c r="AT337">
+        <v>3.41</v>
+      </c>
+      <c r="AU337">
+        <v>7</v>
+      </c>
+      <c r="AV337">
+        <v>8</v>
+      </c>
+      <c r="AW337">
+        <v>11</v>
+      </c>
+      <c r="AX337">
+        <v>7</v>
+      </c>
+      <c r="AY337">
+        <v>20</v>
+      </c>
+      <c r="AZ337">
+        <v>16</v>
+      </c>
+      <c r="BA337">
+        <v>4</v>
+      </c>
+      <c r="BB337">
+        <v>6</v>
+      </c>
+      <c r="BC337">
+        <v>10</v>
+      </c>
+      <c r="BD337">
+        <v>1.36</v>
+      </c>
+      <c r="BE337">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF337">
+        <v>4</v>
+      </c>
+      <c r="BG337">
+        <v>1.23</v>
+      </c>
+      <c r="BH337">
+        <v>3.42</v>
+      </c>
+      <c r="BI337">
+        <v>1.46</v>
+      </c>
+      <c r="BJ337">
+        <v>2.45</v>
+      </c>
+      <c r="BK337">
+        <v>1.82</v>
+      </c>
+      <c r="BL337">
+        <v>1.88</v>
+      </c>
+      <c r="BM337">
+        <v>2.3</v>
+      </c>
+      <c r="BN337">
+        <v>1.52</v>
+      </c>
+      <c r="BO337">
+        <v>3.08</v>
+      </c>
+      <c r="BP337">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="338" spans="1:68">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>7465327</v>
+      </c>
+      <c r="C338" t="s">
+        <v>68</v>
+      </c>
+      <c r="D338" t="s">
+        <v>69</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45781.46875</v>
+      </c>
+      <c r="F338">
+        <v>34</v>
+      </c>
+      <c r="G338" t="s">
+        <v>80</v>
+      </c>
+      <c r="H338" t="s">
+        <v>85</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>1</v>
+      </c>
+      <c r="K338">
+        <v>2</v>
+      </c>
+      <c r="L338">
+        <v>2</v>
+      </c>
+      <c r="M338">
+        <v>2</v>
+      </c>
+      <c r="N338">
+        <v>4</v>
+      </c>
+      <c r="O338" t="s">
+        <v>296</v>
+      </c>
+      <c r="P338" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q338">
+        <v>2.5</v>
+      </c>
+      <c r="R338">
+        <v>2</v>
+      </c>
+      <c r="S338">
+        <v>6</v>
+      </c>
+      <c r="T338">
+        <v>1.53</v>
+      </c>
+      <c r="U338">
+        <v>2.38</v>
+      </c>
+      <c r="V338">
+        <v>3.75</v>
+      </c>
+      <c r="W338">
+        <v>1.25</v>
+      </c>
+      <c r="X338">
+        <v>11</v>
+      </c>
+      <c r="Y338">
+        <v>1.05</v>
+      </c>
+      <c r="Z338">
+        <v>1.75</v>
+      </c>
+      <c r="AA338">
+        <v>3.5</v>
+      </c>
+      <c r="AB338">
+        <v>4.75</v>
+      </c>
+      <c r="AC338">
+        <v>1.09</v>
+      </c>
+      <c r="AD338">
+        <v>7</v>
+      </c>
+      <c r="AE338">
+        <v>1.5</v>
+      </c>
+      <c r="AF338">
+        <v>2.55</v>
+      </c>
+      <c r="AG338">
+        <v>2.63</v>
+      </c>
+      <c r="AH338">
+        <v>1.5</v>
+      </c>
+      <c r="AI338">
+        <v>2.25</v>
+      </c>
+      <c r="AJ338">
+        <v>1.57</v>
+      </c>
+      <c r="AK338">
+        <v>1.17</v>
+      </c>
+      <c r="AL338">
+        <v>1.31</v>
+      </c>
+      <c r="AM338">
+        <v>1.98</v>
+      </c>
+      <c r="AN338">
+        <v>1.25</v>
+      </c>
+      <c r="AO338">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP338">
+        <v>1.24</v>
+      </c>
+      <c r="AQ338">
+        <v>0.71</v>
+      </c>
+      <c r="AR338">
+        <v>1.45</v>
+      </c>
+      <c r="AS338">
+        <v>1.04</v>
+      </c>
+      <c r="AT338">
+        <v>2.49</v>
+      </c>
+      <c r="AU338">
+        <v>8</v>
+      </c>
+      <c r="AV338">
+        <v>4</v>
+      </c>
+      <c r="AW338">
+        <v>18</v>
+      </c>
+      <c r="AX338">
+        <v>6</v>
+      </c>
+      <c r="AY338">
+        <v>32</v>
+      </c>
+      <c r="AZ338">
+        <v>11</v>
+      </c>
+      <c r="BA338">
+        <v>8</v>
+      </c>
+      <c r="BB338">
+        <v>2</v>
+      </c>
+      <c r="BC338">
+        <v>10</v>
+      </c>
+      <c r="BD338">
+        <v>1.42</v>
+      </c>
+      <c r="BE338">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF338">
+        <v>3.62</v>
+      </c>
+      <c r="BG338">
+        <v>1.29</v>
+      </c>
+      <c r="BH338">
+        <v>3.04</v>
+      </c>
+      <c r="BI338">
+        <v>1.56</v>
+      </c>
+      <c r="BJ338">
+        <v>2.21</v>
+      </c>
+      <c r="BK338">
+        <v>1.99</v>
+      </c>
+      <c r="BL338">
+        <v>1.73</v>
+      </c>
+      <c r="BM338">
+        <v>2.6</v>
+      </c>
+      <c r="BN338">
+        <v>1.41</v>
+      </c>
+      <c r="BO338">
+        <v>3.5</v>
+      </c>
+      <c r="BP338">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="339" spans="1:68">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>7469591</v>
+      </c>
+      <c r="C339" t="s">
+        <v>68</v>
+      </c>
+      <c r="D339" t="s">
+        <v>69</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45781.5625</v>
+      </c>
+      <c r="F339">
+        <v>34</v>
+      </c>
+      <c r="G339" t="s">
+        <v>82</v>
+      </c>
+      <c r="H339" t="s">
+        <v>71</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>1</v>
+      </c>
+      <c r="L339">
+        <v>1</v>
+      </c>
+      <c r="M339">
+        <v>2</v>
+      </c>
+      <c r="N339">
+        <v>3</v>
+      </c>
+      <c r="O339" t="s">
+        <v>187</v>
+      </c>
+      <c r="P339" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q339">
+        <v>3.75</v>
+      </c>
+      <c r="R339">
+        <v>2.1</v>
+      </c>
+      <c r="S339">
+        <v>3</v>
+      </c>
+      <c r="T339">
+        <v>1.44</v>
+      </c>
+      <c r="U339">
+        <v>2.63</v>
+      </c>
+      <c r="V339">
+        <v>3.25</v>
+      </c>
+      <c r="W339">
+        <v>1.33</v>
+      </c>
+      <c r="X339">
+        <v>9</v>
+      </c>
+      <c r="Y339">
+        <v>1.07</v>
+      </c>
+      <c r="Z339">
+        <v>3.6</v>
+      </c>
+      <c r="AA339">
+        <v>3</v>
+      </c>
+      <c r="AB339">
+        <v>2.25</v>
+      </c>
+      <c r="AC339">
+        <v>1.08</v>
+      </c>
+      <c r="AD339">
+        <v>7.5</v>
+      </c>
+      <c r="AE339">
+        <v>1.38</v>
+      </c>
+      <c r="AF339">
+        <v>3</v>
+      </c>
+      <c r="AG339">
+        <v>2.2</v>
+      </c>
+      <c r="AH339">
+        <v>1.67</v>
+      </c>
+      <c r="AI339">
+        <v>1.91</v>
+      </c>
+      <c r="AJ339">
+        <v>1.91</v>
+      </c>
+      <c r="AK339">
+        <v>1.58</v>
+      </c>
+      <c r="AL339">
+        <v>1.35</v>
+      </c>
+      <c r="AM339">
+        <v>1.33</v>
+      </c>
+      <c r="AN339">
+        <v>1.69</v>
+      </c>
+      <c r="AO339">
+        <v>1.38</v>
+      </c>
+      <c r="AP339">
+        <v>1.59</v>
+      </c>
+      <c r="AQ339">
+        <v>1.47</v>
+      </c>
+      <c r="AR339">
+        <v>1.15</v>
+      </c>
+      <c r="AS339">
+        <v>1.35</v>
+      </c>
+      <c r="AT339">
+        <v>2.5</v>
+      </c>
+      <c r="AU339">
+        <v>6</v>
+      </c>
+      <c r="AV339">
+        <v>11</v>
+      </c>
+      <c r="AW339">
+        <v>6</v>
+      </c>
+      <c r="AX339">
+        <v>10</v>
+      </c>
+      <c r="AY339">
+        <v>15</v>
+      </c>
+      <c r="AZ339">
+        <v>28</v>
+      </c>
+      <c r="BA339">
+        <v>3</v>
+      </c>
+      <c r="BB339">
+        <v>7</v>
+      </c>
+      <c r="BC339">
+        <v>10</v>
+      </c>
+      <c r="BD339">
+        <v>2.71</v>
+      </c>
+      <c r="BE339">
+        <v>6.65</v>
+      </c>
+      <c r="BF339">
+        <v>1.76</v>
+      </c>
+      <c r="BG339">
+        <v>1.27</v>
+      </c>
+      <c r="BH339">
+        <v>3.14</v>
+      </c>
+      <c r="BI339">
+        <v>1.52</v>
+      </c>
+      <c r="BJ339">
+        <v>2.3</v>
+      </c>
+      <c r="BK339">
+        <v>1.9</v>
+      </c>
+      <c r="BL339">
+        <v>1.8</v>
+      </c>
+      <c r="BM339">
+        <v>2.48</v>
+      </c>
+      <c r="BN339">
+        <v>1.45</v>
+      </c>
+      <c r="BO339">
+        <v>3.34</v>
+      </c>
+      <c r="BP339">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="340" spans="1:68">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>7465322</v>
+      </c>
+      <c r="C340" t="s">
+        <v>68</v>
+      </c>
+      <c r="D340" t="s">
+        <v>69</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45781.66666666666</v>
+      </c>
+      <c r="F340">
+        <v>34</v>
+      </c>
+      <c r="G340" t="s">
+        <v>76</v>
+      </c>
+      <c r="H340" t="s">
+        <v>70</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340">
+        <v>0</v>
+      </c>
+      <c r="O340" t="s">
+        <v>104</v>
+      </c>
+      <c r="P340" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q340">
+        <v>3.1</v>
+      </c>
+      <c r="R340">
+        <v>1.95</v>
+      </c>
+      <c r="S340">
+        <v>4</v>
+      </c>
+      <c r="T340">
+        <v>1.53</v>
+      </c>
+      <c r="U340">
+        <v>2.38</v>
+      </c>
+      <c r="V340">
+        <v>3.5</v>
+      </c>
+      <c r="W340">
+        <v>1.29</v>
+      </c>
+      <c r="X340">
+        <v>11</v>
+      </c>
+      <c r="Y340">
+        <v>1.05</v>
+      </c>
+      <c r="Z340">
+        <v>2.38</v>
+      </c>
+      <c r="AA340">
+        <v>3</v>
+      </c>
+      <c r="AB340">
+        <v>3.3</v>
+      </c>
+      <c r="AC340">
+        <v>1.1</v>
+      </c>
+      <c r="AD340">
+        <v>6.5</v>
+      </c>
+      <c r="AE340">
+        <v>1.5</v>
+      </c>
+      <c r="AF340">
+        <v>2.55</v>
+      </c>
+      <c r="AG340">
+        <v>2.63</v>
+      </c>
+      <c r="AH340">
+        <v>1.5</v>
+      </c>
+      <c r="AI340">
+        <v>2.05</v>
+      </c>
+      <c r="AJ340">
+        <v>1.7</v>
+      </c>
+      <c r="AK340">
+        <v>1.35</v>
+      </c>
+      <c r="AL340">
+        <v>1.36</v>
+      </c>
+      <c r="AM340">
+        <v>1.55</v>
+      </c>
+      <c r="AN340">
+        <v>1.44</v>
+      </c>
+      <c r="AO340">
+        <v>1.5</v>
+      </c>
+      <c r="AP340">
+        <v>1.41</v>
+      </c>
+      <c r="AQ340">
+        <v>1.47</v>
+      </c>
+      <c r="AR340">
+        <v>1.43</v>
+      </c>
+      <c r="AS340">
+        <v>1.35</v>
+      </c>
+      <c r="AT340">
+        <v>2.78</v>
+      </c>
+      <c r="AU340">
+        <v>4</v>
+      </c>
+      <c r="AV340">
+        <v>2</v>
+      </c>
+      <c r="AW340">
+        <v>9</v>
+      </c>
+      <c r="AX340">
+        <v>2</v>
+      </c>
+      <c r="AY340">
+        <v>15</v>
+      </c>
+      <c r="AZ340">
+        <v>5</v>
+      </c>
+      <c r="BA340">
+        <v>7</v>
+      </c>
+      <c r="BB340">
+        <v>3</v>
+      </c>
+      <c r="BC340">
+        <v>10</v>
+      </c>
+      <c r="BD340">
+        <v>1.96</v>
+      </c>
+      <c r="BE340">
+        <v>6.5</v>
+      </c>
+      <c r="BF340">
+        <v>2.36</v>
+      </c>
+      <c r="BG340">
+        <v>1.28</v>
+      </c>
+      <c r="BH340">
+        <v>3.05</v>
+      </c>
+      <c r="BI340">
+        <v>1.55</v>
+      </c>
+      <c r="BJ340">
+        <v>2.23</v>
+      </c>
+      <c r="BK340">
+        <v>1.98</v>
+      </c>
+      <c r="BL340">
+        <v>1.74</v>
+      </c>
+      <c r="BM340">
+        <v>2.57</v>
+      </c>
+      <c r="BN340">
+        <v>1.42</v>
+      </c>
+      <c r="BO340">
+        <v>3.5</v>
+      </c>
+      <c r="BP340">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="418">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -907,6 +907,9 @@
     <t>['21', '70']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['25', '61']</t>
   </si>
   <si>
@@ -1082,9 +1085,6 @@
   </si>
   <si>
     <t>['39', '45', '56']</t>
-  </si>
-  <si>
-    <t>['10']</t>
   </si>
   <si>
     <t>['32', '47']</t>
@@ -1629,7 +1629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP340"/>
+  <dimension ref="A1:BP341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2506,7 +2506,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2712,7 +2712,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2918,7 +2918,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -3124,7 +3124,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3330,7 +3330,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3742,7 +3742,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -4154,7 +4154,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4441,7 +4441,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR14">
         <v>1.83</v>
@@ -6008,7 +6008,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6420,7 +6420,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -7244,7 +7244,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ29">
         <v>0.82</v>
@@ -8767,7 +8767,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -9098,7 +9098,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -9304,7 +9304,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -10128,7 +10128,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10334,7 +10334,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10746,7 +10746,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -11158,7 +11158,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11236,7 +11236,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ47">
         <v>2.29</v>
@@ -11364,7 +11364,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -12394,7 +12394,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -13012,7 +13012,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -14042,7 +14042,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14454,7 +14454,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14535,7 +14535,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -14866,7 +14866,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15072,7 +15072,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15356,7 +15356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ67">
         <v>1.18</v>
@@ -15690,7 +15690,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15896,7 +15896,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16308,7 +16308,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16389,7 +16389,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ72">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -17132,7 +17132,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -18162,7 +18162,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18655,7 +18655,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR83">
         <v>1.07</v>
@@ -19192,7 +19192,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19604,7 +19604,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19682,7 +19682,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ88">
         <v>1.47</v>
@@ -19810,7 +19810,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -20222,7 +20222,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20428,7 +20428,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20840,7 +20840,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21124,7 +21124,7 @@
         <v>1.25</v>
       </c>
       <c r="AP95">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ95">
         <v>1.12</v>
@@ -21252,7 +21252,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -22282,7 +22282,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22488,7 +22488,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22694,7 +22694,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23312,7 +23312,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -24136,7 +24136,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24629,7 +24629,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR112">
         <v>1.08</v>
@@ -24960,7 +24960,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -25038,7 +25038,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ114">
         <v>0.71</v>
@@ -25578,7 +25578,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -26196,7 +26196,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -27020,7 +27020,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -28256,7 +28256,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28668,7 +28668,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28749,7 +28749,7 @@
         <v>1</v>
       </c>
       <c r="AQ132">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -28952,7 +28952,7 @@
         <v>0.17</v>
       </c>
       <c r="AP133">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ133">
         <v>0.71</v>
@@ -29080,7 +29080,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29286,7 +29286,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29698,7 +29698,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -30934,7 +30934,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31140,7 +31140,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31552,7 +31552,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -32170,7 +32170,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -32376,7 +32376,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32663,7 +32663,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ151">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR151">
         <v>1.39</v>
@@ -32994,7 +32994,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33406,7 +33406,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33484,7 +33484,7 @@
         <v>1.71</v>
       </c>
       <c r="AP155">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ155">
         <v>1.88</v>
@@ -33612,7 +33612,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -34024,7 +34024,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34230,7 +34230,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -35466,7 +35466,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35878,7 +35878,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="Q167">
         <v>4.33</v>
@@ -36702,7 +36702,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -37192,7 +37192,7 @@
         <v>0.38</v>
       </c>
       <c r="AP173">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ173">
         <v>0.18</v>
@@ -37401,7 +37401,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ174">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR174">
         <v>1.33</v>
@@ -41312,7 +41312,7 @@
         <v>0.67</v>
       </c>
       <c r="AP193">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ193">
         <v>1</v>
@@ -42264,7 +42264,7 @@
         <v>229</v>
       </c>
       <c r="P198" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q198">
         <v>1.44</v>
@@ -42963,7 +42963,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ201">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR201">
         <v>1.52</v>
@@ -45148,7 +45148,7 @@
         <v>104</v>
       </c>
       <c r="P212" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q212">
         <v>3.75</v>
@@ -45847,7 +45847,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ215">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR215">
         <v>1.74</v>
@@ -47080,7 +47080,7 @@
         <v>1</v>
       </c>
       <c r="AP221">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ221">
         <v>0.88</v>
@@ -49346,7 +49346,7 @@
         <v>1</v>
       </c>
       <c r="AP232">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ232">
         <v>1.18</v>
@@ -52358,7 +52358,7 @@
         <v>250</v>
       </c>
       <c r="P247" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q247">
         <v>1.62</v>
@@ -53263,7 +53263,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ251">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR251">
         <v>1.43</v>
@@ -53388,7 +53388,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q252">
         <v>3.75</v>
@@ -53672,7 +53672,7 @@
         <v>0.5</v>
       </c>
       <c r="AP253">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ253">
         <v>0.76</v>
@@ -54006,7 +54006,7 @@
         <v>256</v>
       </c>
       <c r="P255" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="Q255">
         <v>4.33</v>
@@ -56272,7 +56272,7 @@
         <v>221</v>
       </c>
       <c r="P266" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -56353,7 +56353,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ266">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR266">
         <v>1.69</v>
@@ -57998,7 +57998,7 @@
         <v>0.46</v>
       </c>
       <c r="AP274">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ274">
         <v>0.82</v>
@@ -60679,7 +60679,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ287">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR287">
         <v>1.43</v>
@@ -61706,7 +61706,7 @@
         <v>0.73</v>
       </c>
       <c r="AP292">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ292">
         <v>0.88</v>
@@ -63769,7 +63769,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ302">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR302">
         <v>1.43</v>
@@ -67474,7 +67474,7 @@
         <v>1.27</v>
       </c>
       <c r="AP320">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ320">
         <v>1.47</v>
@@ -67889,7 +67889,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ322">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR322">
         <v>2.15</v>
@@ -69456,7 +69456,7 @@
         <v>291</v>
       </c>
       <c r="P330" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q330">
         <v>1.62</v>
@@ -71104,7 +71104,7 @@
         <v>296</v>
       </c>
       <c r="P338" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -71673,6 +71673,212 @@
       </c>
       <c r="BP340">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="341" spans="1:68">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>7465319</v>
+      </c>
+      <c r="C341" t="s">
+        <v>68</v>
+      </c>
+      <c r="D341" t="s">
+        <v>69</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45782.66666666666</v>
+      </c>
+      <c r="F341">
+        <v>34</v>
+      </c>
+      <c r="G341" t="s">
+        <v>89</v>
+      </c>
+      <c r="H341" t="s">
+        <v>77</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>1</v>
+      </c>
+      <c r="L341">
+        <v>1</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>1</v>
+      </c>
+      <c r="O341" t="s">
+        <v>297</v>
+      </c>
+      <c r="P341" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q341">
+        <v>2.75</v>
+      </c>
+      <c r="R341">
+        <v>2</v>
+      </c>
+      <c r="S341">
+        <v>4.75</v>
+      </c>
+      <c r="T341">
+        <v>1.5</v>
+      </c>
+      <c r="U341">
+        <v>2.5</v>
+      </c>
+      <c r="V341">
+        <v>3.5</v>
+      </c>
+      <c r="W341">
+        <v>1.29</v>
+      </c>
+      <c r="X341">
+        <v>11</v>
+      </c>
+      <c r="Y341">
+        <v>1.05</v>
+      </c>
+      <c r="Z341">
+        <v>2.04</v>
+      </c>
+      <c r="AA341">
+        <v>3.19</v>
+      </c>
+      <c r="AB341">
+        <v>4.31</v>
+      </c>
+      <c r="AC341">
+        <v>1.03</v>
+      </c>
+      <c r="AD341">
+        <v>7.6</v>
+      </c>
+      <c r="AE341">
+        <v>1.43</v>
+      </c>
+      <c r="AF341">
+        <v>2.67</v>
+      </c>
+      <c r="AG341">
+        <v>2.51</v>
+      </c>
+      <c r="AH341">
+        <v>1.62</v>
+      </c>
+      <c r="AI341">
+        <v>2.05</v>
+      </c>
+      <c r="AJ341">
+        <v>1.7</v>
+      </c>
+      <c r="AK341">
+        <v>1.25</v>
+      </c>
+      <c r="AL341">
+        <v>1.35</v>
+      </c>
+      <c r="AM341">
+        <v>1.72</v>
+      </c>
+      <c r="AN341">
+        <v>1.31</v>
+      </c>
+      <c r="AO341">
+        <v>1.25</v>
+      </c>
+      <c r="AP341">
+        <v>1.41</v>
+      </c>
+      <c r="AQ341">
+        <v>1.18</v>
+      </c>
+      <c r="AR341">
+        <v>1.47</v>
+      </c>
+      <c r="AS341">
+        <v>1.12</v>
+      </c>
+      <c r="AT341">
+        <v>2.59</v>
+      </c>
+      <c r="AU341">
+        <v>7</v>
+      </c>
+      <c r="AV341">
+        <v>2</v>
+      </c>
+      <c r="AW341">
+        <v>7</v>
+      </c>
+      <c r="AX341">
+        <v>8</v>
+      </c>
+      <c r="AY341">
+        <v>14</v>
+      </c>
+      <c r="AZ341">
+        <v>10</v>
+      </c>
+      <c r="BA341">
+        <v>5</v>
+      </c>
+      <c r="BB341">
+        <v>2</v>
+      </c>
+      <c r="BC341">
+        <v>7</v>
+      </c>
+      <c r="BD341">
+        <v>1.45</v>
+      </c>
+      <c r="BE341">
+        <v>6.75</v>
+      </c>
+      <c r="BF341">
+        <v>3.05</v>
+      </c>
+      <c r="BG341">
+        <v>1.43</v>
+      </c>
+      <c r="BH341">
+        <v>2.55</v>
+      </c>
+      <c r="BI341">
+        <v>1.72</v>
+      </c>
+      <c r="BJ341">
+        <v>1.98</v>
+      </c>
+      <c r="BK341">
+        <v>2.15</v>
+      </c>
+      <c r="BL341">
+        <v>1.61</v>
+      </c>
+      <c r="BM341">
+        <v>2.8</v>
+      </c>
+      <c r="BN341">
+        <v>1.37</v>
+      </c>
+      <c r="BO341">
+        <v>3.65</v>
+      </c>
+      <c r="BP341">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="418">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1629,7 +1629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP341"/>
+  <dimension ref="A1:BP342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -3205,7 +3205,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ8">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ17">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ30">
         <v>1.88</v>
@@ -8355,7 +8355,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ33">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -11442,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
         <v>1.47</v>
@@ -15359,7 +15359,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ67">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -15974,7 +15974,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ70">
         <v>1.47</v>
@@ -19064,7 +19064,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ85">
         <v>0.76</v>
@@ -19273,7 +19273,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ86">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR86">
         <v>1.15</v>
@@ -21539,7 +21539,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ97">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -23184,7 +23184,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ105">
         <v>0.82</v>
@@ -28746,7 +28746,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ132">
         <v>1.18</v>
@@ -29573,7 +29573,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ136">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR136">
         <v>1.38</v>
@@ -32866,7 +32866,7 @@
         <v>0.43</v>
       </c>
       <c r="AP152">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ152">
         <v>0.18</v>
@@ -33281,7 +33281,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ154">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR154">
         <v>1.29</v>
@@ -36989,7 +36989,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ172">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR172">
         <v>1.52</v>
@@ -38840,7 +38840,7 @@
         <v>0.13</v>
       </c>
       <c r="AP181">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ181">
         <v>0.71</v>
@@ -39049,7 +39049,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ182">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR182">
         <v>1.81</v>
@@ -40488,7 +40488,7 @@
         <v>0.25</v>
       </c>
       <c r="AP189">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ189">
         <v>1.18</v>
@@ -42551,7 +42551,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ199">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR199">
         <v>1.47</v>
@@ -43166,7 +43166,7 @@
         <v>0.78</v>
       </c>
       <c r="AP202">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ202">
         <v>0.82</v>
@@ -45229,7 +45229,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ212">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR212">
         <v>0.97</v>
@@ -47904,7 +47904,7 @@
         <v>1.64</v>
       </c>
       <c r="AP225">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ225">
         <v>1.76</v>
@@ -51203,7 +51203,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ241">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR241">
         <v>2.03</v>
@@ -52230,7 +52230,7 @@
         <v>2.08</v>
       </c>
       <c r="AP246">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ246">
         <v>2.29</v>
@@ -56147,7 +56147,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ265">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR265">
         <v>2.04</v>
@@ -57174,7 +57174,7 @@
         <v>0.71</v>
       </c>
       <c r="AP270">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ270">
         <v>0.88</v>
@@ -59855,7 +59855,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ283">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR283">
         <v>1.18</v>
@@ -62530,7 +62530,7 @@
         <v>1.07</v>
       </c>
       <c r="AP296">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ296">
         <v>1.12</v>
@@ -65211,7 +65211,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ309">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR309">
         <v>1.65</v>
@@ -66444,7 +66444,7 @@
         <v>1.73</v>
       </c>
       <c r="AP315">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ315">
         <v>1.59</v>
@@ -69331,7 +69331,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ329">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR329">
         <v>1.71</v>
@@ -70564,7 +70564,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP335">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ335">
         <v>0.82</v>
@@ -71879,6 +71879,212 @@
       </c>
       <c r="BP341">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="342" spans="1:68">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>7465334</v>
+      </c>
+      <c r="C342" t="s">
+        <v>68</v>
+      </c>
+      <c r="D342" t="s">
+        <v>69</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45786.66666666666</v>
+      </c>
+      <c r="F342">
+        <v>35</v>
+      </c>
+      <c r="G342" t="s">
+        <v>73</v>
+      </c>
+      <c r="H342" t="s">
+        <v>88</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+      <c r="M342">
+        <v>1</v>
+      </c>
+      <c r="N342">
+        <v>1</v>
+      </c>
+      <c r="O342" t="s">
+        <v>104</v>
+      </c>
+      <c r="P342" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q342">
+        <v>3</v>
+      </c>
+      <c r="R342">
+        <v>2.1</v>
+      </c>
+      <c r="S342">
+        <v>3.6</v>
+      </c>
+      <c r="T342">
+        <v>1.4</v>
+      </c>
+      <c r="U342">
+        <v>2.75</v>
+      </c>
+      <c r="V342">
+        <v>3</v>
+      </c>
+      <c r="W342">
+        <v>1.36</v>
+      </c>
+      <c r="X342">
+        <v>9</v>
+      </c>
+      <c r="Y342">
+        <v>1.07</v>
+      </c>
+      <c r="Z342">
+        <v>2.38</v>
+      </c>
+      <c r="AA342">
+        <v>3.2</v>
+      </c>
+      <c r="AB342">
+        <v>3</v>
+      </c>
+      <c r="AC342">
+        <v>1.07</v>
+      </c>
+      <c r="AD342">
+        <v>8</v>
+      </c>
+      <c r="AE342">
+        <v>1.36</v>
+      </c>
+      <c r="AF342">
+        <v>3.1</v>
+      </c>
+      <c r="AG342">
+        <v>2.1</v>
+      </c>
+      <c r="AH342">
+        <v>1.73</v>
+      </c>
+      <c r="AI342">
+        <v>1.8</v>
+      </c>
+      <c r="AJ342">
+        <v>1.95</v>
+      </c>
+      <c r="AK342">
+        <v>1.38</v>
+      </c>
+      <c r="AL342">
+        <v>1.32</v>
+      </c>
+      <c r="AM342">
+        <v>1.55</v>
+      </c>
+      <c r="AN342">
+        <v>1</v>
+      </c>
+      <c r="AO342">
+        <v>1.18</v>
+      </c>
+      <c r="AP342">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ342">
+        <v>1.28</v>
+      </c>
+      <c r="AR342">
+        <v>1.44</v>
+      </c>
+      <c r="AS342">
+        <v>1.24</v>
+      </c>
+      <c r="AT342">
+        <v>2.68</v>
+      </c>
+      <c r="AU342">
+        <v>3</v>
+      </c>
+      <c r="AV342">
+        <v>6</v>
+      </c>
+      <c r="AW342">
+        <v>8</v>
+      </c>
+      <c r="AX342">
+        <v>11</v>
+      </c>
+      <c r="AY342">
+        <v>13</v>
+      </c>
+      <c r="AZ342">
+        <v>20</v>
+      </c>
+      <c r="BA342">
+        <v>8</v>
+      </c>
+      <c r="BB342">
+        <v>8</v>
+      </c>
+      <c r="BC342">
+        <v>16</v>
+      </c>
+      <c r="BD342">
+        <v>1.92</v>
+      </c>
+      <c r="BE342">
+        <v>6.45</v>
+      </c>
+      <c r="BF342">
+        <v>2.43</v>
+      </c>
+      <c r="BG342">
+        <v>1.3</v>
+      </c>
+      <c r="BH342">
+        <v>2.97</v>
+      </c>
+      <c r="BI342">
+        <v>1.58</v>
+      </c>
+      <c r="BJ342">
+        <v>2.17</v>
+      </c>
+      <c r="BK342">
+        <v>2.02</v>
+      </c>
+      <c r="BL342">
+        <v>1.71</v>
+      </c>
+      <c r="BM342">
+        <v>2.64</v>
+      </c>
+      <c r="BN342">
+        <v>1.4</v>
+      </c>
+      <c r="BO342">
+        <v>3.58</v>
+      </c>
+      <c r="BP342">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="424">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -919,6 +919,9 @@
     <t>['28', '49']</t>
   </si>
   <si>
+    <t>['7', '10', '11', '30']</t>
+  </si>
+  <si>
     <t>['25', '61']</t>
   </si>
   <si>
@@ -1644,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP346"/>
+  <dimension ref="A1:BP347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2521,7 +2524,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2727,7 +2730,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2933,7 +2936,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -3139,7 +3142,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3345,7 +3348,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3757,7 +3760,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -4169,7 +4172,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4868,7 +4871,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ16">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5895,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ21">
         <v>0.82</v>
@@ -6023,7 +6026,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6435,7 +6438,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -7131,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ27">
         <v>0.71</v>
@@ -7259,7 +7262,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -9113,7 +9116,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -9319,7 +9322,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9606,7 +9609,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ39">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR39">
         <v>1.12</v>
@@ -10143,7 +10146,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10349,7 +10352,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10761,7 +10764,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -11173,7 +11176,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11379,7 +11382,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11663,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ49">
         <v>0.82</v>
@@ -12078,7 +12081,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR51">
         <v>1.4</v>
@@ -12409,7 +12412,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12902,7 +12905,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ55">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -13027,7 +13030,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -14057,7 +14060,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14469,7 +14472,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14881,7 +14884,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15087,7 +15090,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15705,7 +15708,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15911,7 +15914,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16323,7 +16326,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -17147,7 +17150,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -18049,7 +18052,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ80">
         <v>1.88</v>
@@ -18177,7 +18180,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -19207,7 +19210,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19619,7 +19622,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19825,7 +19828,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -20237,7 +20240,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20443,7 +20446,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20855,7 +20858,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21142,7 +21145,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ95">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR95">
         <v>1.38</v>
@@ -21267,7 +21270,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21757,7 +21760,7 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ98">
         <v>0.71</v>
@@ -22297,7 +22300,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22503,7 +22506,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22709,7 +22712,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23327,7 +23330,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -24151,7 +24154,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24975,7 +24978,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -25259,7 +25262,7 @@
         <v>0.6</v>
       </c>
       <c r="AP115">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ115">
         <v>0.88</v>
@@ -25593,7 +25596,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25674,7 +25677,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ117">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR117">
         <v>1.53</v>
@@ -26211,7 +26214,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -27035,7 +27038,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -28271,7 +28274,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28555,7 +28558,7 @@
         <v>0.43</v>
       </c>
       <c r="AP131">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ131">
         <v>0.88</v>
@@ -28683,7 +28686,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -29095,7 +29098,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29301,7 +29304,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29713,7 +29716,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -30000,7 +30003,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ138">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR138">
         <v>1.36</v>
@@ -30949,7 +30952,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31155,7 +31158,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31567,7 +31570,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -32185,7 +32188,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -32391,7 +32394,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -33009,7 +33012,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33421,7 +33424,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33627,7 +33630,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33708,7 +33711,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ156">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR156">
         <v>0.98</v>
@@ -34039,7 +34042,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34245,7 +34248,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34323,7 +34326,7 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ159">
         <v>0.9399999999999999</v>
@@ -35481,7 +35484,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35765,7 +35768,7 @@
         <v>0.29</v>
       </c>
       <c r="AP166">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ166">
         <v>1.11</v>
@@ -36305,7 +36308,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36717,7 +36720,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -37622,7 +37625,7 @@
         <v>2</v>
       </c>
       <c r="AQ175">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR175">
         <v>1.41</v>
@@ -37953,7 +37956,7 @@
         <v>215</v>
       </c>
       <c r="P177" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q177">
         <v>2.4</v>
@@ -38159,7 +38162,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38365,7 +38368,7 @@
         <v>217</v>
       </c>
       <c r="P179" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q179">
         <v>1.8</v>
@@ -38571,7 +38574,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q180">
         <v>4.33</v>
@@ -39189,7 +39192,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -39601,7 +39604,7 @@
         <v>104</v>
       </c>
       <c r="P185" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -40425,7 +40428,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40709,7 +40712,7 @@
         <v>0.88</v>
       </c>
       <c r="AP190">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ190">
         <v>0.82</v>
@@ -41249,7 +41252,7 @@
         <v>128</v>
       </c>
       <c r="P193" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41661,7 +41664,7 @@
         <v>187</v>
       </c>
       <c r="P195" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q195">
         <v>2.38</v>
@@ -42073,7 +42076,7 @@
         <v>228</v>
       </c>
       <c r="P197" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42279,7 +42282,7 @@
         <v>229</v>
       </c>
       <c r="P198" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q198">
         <v>1.44</v>
@@ -42772,7 +42775,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ200">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR200">
         <v>1.33</v>
@@ -43309,7 +43312,7 @@
         <v>104</v>
       </c>
       <c r="P203" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43593,7 +43596,7 @@
         <v>1.7</v>
       </c>
       <c r="AP204">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ204">
         <v>1.83</v>
@@ -43721,7 +43724,7 @@
         <v>190</v>
       </c>
       <c r="P205" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q205">
         <v>2.38</v>
@@ -43927,7 +43930,7 @@
         <v>104</v>
       </c>
       <c r="P206" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -44339,7 +44342,7 @@
         <v>104</v>
       </c>
       <c r="P208" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -45163,7 +45166,7 @@
         <v>104</v>
       </c>
       <c r="P212" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q212">
         <v>3.75</v>
@@ -45859,7 +45862,7 @@
         <v>1.5</v>
       </c>
       <c r="AP215">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ215">
         <v>1.18</v>
@@ -46686,7 +46689,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ219">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR219">
         <v>1.48</v>
@@ -46811,7 +46814,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47429,7 +47432,7 @@
         <v>240</v>
       </c>
       <c r="P223" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47841,7 +47844,7 @@
         <v>158</v>
       </c>
       <c r="P225" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q225">
         <v>4.5</v>
@@ -48871,7 +48874,7 @@
         <v>145</v>
       </c>
       <c r="P230" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -49283,7 +49286,7 @@
         <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49489,7 +49492,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49695,7 +49698,7 @@
         <v>221</v>
       </c>
       <c r="P234" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -49979,7 +49982,7 @@
         <v>0.45</v>
       </c>
       <c r="AP235">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ235">
         <v>0.76</v>
@@ -50313,7 +50316,7 @@
         <v>247</v>
       </c>
       <c r="P237" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50519,7 +50522,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -51012,7 +51015,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ240">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR240">
         <v>1.7</v>
@@ -51549,7 +51552,7 @@
         <v>104</v>
       </c>
       <c r="P243" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q243">
         <v>2.6</v>
@@ -51961,7 +51964,7 @@
         <v>104</v>
       </c>
       <c r="P245" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q245">
         <v>4.75</v>
@@ -52167,7 +52170,7 @@
         <v>104</v>
       </c>
       <c r="P246" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q246">
         <v>7.5</v>
@@ -52373,7 +52376,7 @@
         <v>250</v>
       </c>
       <c r="P247" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q247">
         <v>1.62</v>
@@ -52785,7 +52788,7 @@
         <v>178</v>
       </c>
       <c r="P249" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -53197,7 +53200,7 @@
         <v>253</v>
       </c>
       <c r="P251" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53403,7 +53406,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q252">
         <v>3.75</v>
@@ -53609,7 +53612,7 @@
         <v>255</v>
       </c>
       <c r="P253" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -54305,7 +54308,7 @@
         <v>1.67</v>
       </c>
       <c r="AP256">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ256">
         <v>1.47</v>
@@ -54720,7 +54723,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ258">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR258">
         <v>2</v>
@@ -55051,7 +55054,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55669,7 +55672,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q263">
         <v>1.95</v>
@@ -55875,7 +55878,7 @@
         <v>263</v>
       </c>
       <c r="P264" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q264">
         <v>5</v>
@@ -56287,7 +56290,7 @@
         <v>221</v>
       </c>
       <c r="P266" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -57111,7 +57114,7 @@
         <v>265</v>
       </c>
       <c r="P270" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q270">
         <v>3.75</v>
@@ -57729,7 +57732,7 @@
         <v>138</v>
       </c>
       <c r="P273" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q273">
         <v>3.6</v>
@@ -58141,7 +58144,7 @@
         <v>268</v>
       </c>
       <c r="P275" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58553,7 +58556,7 @@
         <v>269</v>
       </c>
       <c r="P277" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -58634,7 +58637,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ277">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR277">
         <v>1.72</v>
@@ -58759,7 +58762,7 @@
         <v>110</v>
       </c>
       <c r="P278" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q278">
         <v>3.2</v>
@@ -58965,7 +58968,7 @@
         <v>270</v>
       </c>
       <c r="P279" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q279">
         <v>3.4</v>
@@ -59043,7 +59046,7 @@
         <v>2.14</v>
       </c>
       <c r="AP279">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ279">
         <v>2.29</v>
@@ -59789,7 +59792,7 @@
         <v>104</v>
       </c>
       <c r="P283" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q283">
         <v>3.1</v>
@@ -59995,7 +59998,7 @@
         <v>273</v>
       </c>
       <c r="P284" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q284">
         <v>1.5</v>
@@ -60201,7 +60204,7 @@
         <v>274</v>
       </c>
       <c r="P285" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -61231,7 +61234,7 @@
         <v>253</v>
       </c>
       <c r="P290" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q290">
         <v>2.1</v>
@@ -61437,7 +61440,7 @@
         <v>104</v>
       </c>
       <c r="P291" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q291">
         <v>2.4</v>
@@ -61849,7 +61852,7 @@
         <v>157</v>
       </c>
       <c r="P293" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q293">
         <v>1.73</v>
@@ -62055,7 +62058,7 @@
         <v>277</v>
       </c>
       <c r="P294" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q294">
         <v>3.25</v>
@@ -62467,7 +62470,7 @@
         <v>166</v>
       </c>
       <c r="P296" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -62548,7 +62551,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ296">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR296">
         <v>1.42</v>
@@ -62673,7 +62676,7 @@
         <v>138</v>
       </c>
       <c r="P297" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -62879,7 +62882,7 @@
         <v>104</v>
       </c>
       <c r="P298" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q298">
         <v>5.5</v>
@@ -63703,7 +63706,7 @@
         <v>104</v>
       </c>
       <c r="P302" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q302">
         <v>2.5</v>
@@ -63909,7 +63912,7 @@
         <v>141</v>
       </c>
       <c r="P303" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q303">
         <v>2.35</v>
@@ -64115,7 +64118,7 @@
         <v>104</v>
       </c>
       <c r="P304" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q304">
         <v>2.25</v>
@@ -64321,7 +64324,7 @@
         <v>104</v>
       </c>
       <c r="P305" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64527,7 +64530,7 @@
         <v>279</v>
       </c>
       <c r="P306" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q306">
         <v>3.1</v>
@@ -64939,7 +64942,7 @@
         <v>280</v>
       </c>
       <c r="P308" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q308">
         <v>2.88</v>
@@ -65351,7 +65354,7 @@
         <v>282</v>
       </c>
       <c r="P310" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q310">
         <v>1.5</v>
@@ -65429,7 +65432,7 @@
         <v>0.2</v>
       </c>
       <c r="AP310">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ310">
         <v>0.17</v>
@@ -65763,7 +65766,7 @@
         <v>110</v>
       </c>
       <c r="P312" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q312">
         <v>3</v>
@@ -65969,7 +65972,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q313">
         <v>1.67</v>
@@ -66587,7 +66590,7 @@
         <v>285</v>
       </c>
       <c r="P316" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66793,7 +66796,7 @@
         <v>286</v>
       </c>
       <c r="P317" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q317">
         <v>2.3</v>
@@ -66874,7 +66877,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ317">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR317">
         <v>1.71</v>
@@ -67411,7 +67414,7 @@
         <v>149</v>
       </c>
       <c r="P320" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q320">
         <v>3.5</v>
@@ -67617,7 +67620,7 @@
         <v>121</v>
       </c>
       <c r="P321" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q321">
         <v>2.38</v>
@@ -68522,7 +68525,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ325">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR325">
         <v>1.26</v>
@@ -69343,7 +69346,7 @@
         <v>1.25</v>
       </c>
       <c r="AP329">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ329">
         <v>1.28</v>
@@ -69471,7 +69474,7 @@
         <v>291</v>
       </c>
       <c r="P330" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q330">
         <v>1.62</v>
@@ -70295,7 +70298,7 @@
         <v>293</v>
       </c>
       <c r="P334" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q334">
         <v>2.05</v>
@@ -70501,7 +70504,7 @@
         <v>294</v>
       </c>
       <c r="P335" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q335">
         <v>3.2</v>
@@ -70707,7 +70710,7 @@
         <v>91</v>
       </c>
       <c r="P336" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q336">
         <v>11</v>
@@ -70913,7 +70916,7 @@
         <v>295</v>
       </c>
       <c r="P337" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q337">
         <v>1.73</v>
@@ -71119,7 +71122,7 @@
         <v>296</v>
       </c>
       <c r="P338" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -71325,7 +71328,7 @@
         <v>187</v>
       </c>
       <c r="P339" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q339">
         <v>3.75</v>
@@ -72355,7 +72358,7 @@
         <v>299</v>
       </c>
       <c r="P344" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q344">
         <v>2.4</v>
@@ -72561,7 +72564,7 @@
         <v>104</v>
       </c>
       <c r="P345" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q345">
         <v>3.5</v>
@@ -72924,6 +72927,212 @@
       </c>
       <c r="BP346">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="347" spans="1:68">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>7465328</v>
+      </c>
+      <c r="C347" t="s">
+        <v>68</v>
+      </c>
+      <c r="D347" t="s">
+        <v>69</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45787.66666666666</v>
+      </c>
+      <c r="F347">
+        <v>35</v>
+      </c>
+      <c r="G347" t="s">
+        <v>87</v>
+      </c>
+      <c r="H347" t="s">
+        <v>76</v>
+      </c>
+      <c r="I347">
+        <v>4</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>4</v>
+      </c>
+      <c r="L347">
+        <v>4</v>
+      </c>
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <v>4</v>
+      </c>
+      <c r="O347" t="s">
+        <v>301</v>
+      </c>
+      <c r="P347" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q347">
+        <v>2.2</v>
+      </c>
+      <c r="R347">
+        <v>2.2</v>
+      </c>
+      <c r="S347">
+        <v>5.5</v>
+      </c>
+      <c r="T347">
+        <v>1.4</v>
+      </c>
+      <c r="U347">
+        <v>2.75</v>
+      </c>
+      <c r="V347">
+        <v>2.75</v>
+      </c>
+      <c r="W347">
+        <v>1.4</v>
+      </c>
+      <c r="X347">
+        <v>8</v>
+      </c>
+      <c r="Y347">
+        <v>1.08</v>
+      </c>
+      <c r="Z347">
+        <v>1.62</v>
+      </c>
+      <c r="AA347">
+        <v>3.75</v>
+      </c>
+      <c r="AB347">
+        <v>5.5</v>
+      </c>
+      <c r="AC347">
+        <v>1.05</v>
+      </c>
+      <c r="AD347">
+        <v>9</v>
+      </c>
+      <c r="AE347">
+        <v>1.3</v>
+      </c>
+      <c r="AF347">
+        <v>3.35</v>
+      </c>
+      <c r="AG347">
+        <v>2</v>
+      </c>
+      <c r="AH347">
+        <v>1.8</v>
+      </c>
+      <c r="AI347">
+        <v>1.95</v>
+      </c>
+      <c r="AJ347">
+        <v>1.8</v>
+      </c>
+      <c r="AK347">
+        <v>1.15</v>
+      </c>
+      <c r="AL347">
+        <v>1.24</v>
+      </c>
+      <c r="AM347">
+        <v>2.25</v>
+      </c>
+      <c r="AN347">
+        <v>2.35</v>
+      </c>
+      <c r="AO347">
+        <v>1.12</v>
+      </c>
+      <c r="AP347">
+        <v>2.39</v>
+      </c>
+      <c r="AQ347">
+        <v>1.06</v>
+      </c>
+      <c r="AR347">
+        <v>1.69</v>
+      </c>
+      <c r="AS347">
+        <v>1.03</v>
+      </c>
+      <c r="AT347">
+        <v>2.72</v>
+      </c>
+      <c r="AU347">
+        <v>-1</v>
+      </c>
+      <c r="AV347">
+        <v>-1</v>
+      </c>
+      <c r="AW347">
+        <v>-1</v>
+      </c>
+      <c r="AX347">
+        <v>-1</v>
+      </c>
+      <c r="AY347">
+        <v>-1</v>
+      </c>
+      <c r="AZ347">
+        <v>-1</v>
+      </c>
+      <c r="BA347">
+        <v>-1</v>
+      </c>
+      <c r="BB347">
+        <v>-1</v>
+      </c>
+      <c r="BC347">
+        <v>-1</v>
+      </c>
+      <c r="BD347">
+        <v>1.42</v>
+      </c>
+      <c r="BE347">
+        <v>9.5</v>
+      </c>
+      <c r="BF347">
+        <v>3.6</v>
+      </c>
+      <c r="BG347">
+        <v>1.25</v>
+      </c>
+      <c r="BH347">
+        <v>3.28</v>
+      </c>
+      <c r="BI347">
+        <v>1.49</v>
+      </c>
+      <c r="BJ347">
+        <v>2.38</v>
+      </c>
+      <c r="BK347">
+        <v>1.87</v>
+      </c>
+      <c r="BL347">
+        <v>1.83</v>
+      </c>
+      <c r="BM347">
+        <v>2.4</v>
+      </c>
+      <c r="BN347">
+        <v>1.48</v>
+      </c>
+      <c r="BO347">
+        <v>3.2</v>
+      </c>
+      <c r="BP347">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -73069,31 +73069,31 @@
         <v>2.72</v>
       </c>
       <c r="AU347">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV347">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW347">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX347">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY347">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ347">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA347">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB347">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC347">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD347">
         <v>1.42</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="428">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -922,6 +922,12 @@
     <t>['7', '10', '11', '30']</t>
   </si>
   <si>
+    <t>['33', '41', '63']</t>
+  </si>
+  <si>
+    <t>['19', '32', '34', '45']</t>
+  </si>
+  <si>
     <t>['25', '61']</t>
   </si>
   <si>
@@ -1287,6 +1293,12 @@
   <si>
     <t>['89']</t>
   </si>
+  <si>
+    <t>['79', '90+8']</t>
+  </si>
+  <si>
+    <t>['5', '14', '70']</t>
+  </si>
 </sst>
 </file>
 
@@ -1647,7 +1659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP347"/>
+  <dimension ref="A1:BP349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2524,7 +2536,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2730,7 +2742,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2936,7 +2948,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -3142,7 +3154,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3348,7 +3360,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3429,7 +3441,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3635,7 +3647,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ10">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3760,7 +3772,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -4172,7 +4184,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4662,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ15">
         <v>1.47</v>
@@ -5486,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19">
         <v>0.88</v>
@@ -6026,7 +6038,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6438,7 +6450,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -7137,7 +7149,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ27">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
         <v>1.31</v>
@@ -7262,7 +7274,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7755,7 +7767,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ30">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7958,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ31">
         <v>0.17</v>
@@ -8782,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ35">
         <v>1.18</v>
@@ -9116,7 +9128,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -9322,7 +9334,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -10146,7 +10158,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10352,7 +10364,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10764,7 +10776,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10845,7 +10857,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ45">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR45">
         <v>1.14</v>
@@ -11176,7 +11188,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11382,7 +11394,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -12412,7 +12424,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12490,7 +12502,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ53">
         <v>1.47</v>
@@ -13030,7 +13042,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13523,7 +13535,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ58">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>2.01</v>
@@ -14060,7 +14072,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14472,7 +14484,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14884,7 +14896,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15090,7 +15102,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15580,7 +15592,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ68">
         <v>1.11</v>
@@ -15708,7 +15720,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15914,7 +15926,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16326,7 +16338,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -17150,7 +17162,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17849,7 +17861,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ79">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -18055,7 +18067,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ80">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -18180,7 +18192,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18464,7 +18476,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ82">
         <v>0.82</v>
@@ -19210,7 +19222,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19622,7 +19634,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19828,7 +19840,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -20240,7 +20252,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20446,7 +20458,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20733,7 +20745,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ93">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR93">
         <v>1.22</v>
@@ -20858,7 +20870,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21270,7 +21282,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21351,7 +21363,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -22172,7 +22184,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ100">
         <v>0.9399999999999999</v>
@@ -22300,7 +22312,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22506,7 +22518,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22712,7 +22724,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23330,7 +23342,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23614,7 +23626,7 @@
         <v>0.75</v>
       </c>
       <c r="AP107">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ107">
         <v>0.76</v>
@@ -24154,7 +24166,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24978,7 +24990,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -25468,10 +25480,10 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ116">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR116">
         <v>1.93</v>
@@ -25596,7 +25608,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -26214,7 +26226,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26910,7 +26922,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ123">
         <v>0.9399999999999999</v>
@@ -27038,7 +27050,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -28274,7 +28286,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28686,7 +28698,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28973,7 +28985,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ133">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -29098,7 +29110,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29304,7 +29316,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29716,7 +29728,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29794,10 +29806,10 @@
         <v>1.8</v>
       </c>
       <c r="AP137">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ137">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR137">
         <v>1.07</v>
@@ -30412,7 +30424,7 @@
         <v>0.86</v>
       </c>
       <c r="AP140">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ140">
         <v>0.88</v>
@@ -30952,7 +30964,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31158,7 +31170,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31570,7 +31582,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -32188,7 +32200,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -32394,7 +32406,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32475,7 +32487,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ150">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -33012,7 +33024,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33424,7 +33436,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33505,7 +33517,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR155">
         <v>1.38</v>
@@ -33630,7 +33642,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33708,7 +33720,7 @@
         <v>1.57</v>
       </c>
       <c r="AP156">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ156">
         <v>1.06</v>
@@ -34042,7 +34054,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34248,7 +34260,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34535,7 +34547,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ160">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR160">
         <v>1.3</v>
@@ -35484,7 +35496,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35565,7 +35577,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ165">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR165">
         <v>1.64</v>
@@ -36308,7 +36320,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36592,7 +36604,7 @@
         <v>0.63</v>
       </c>
       <c r="AP170">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ170">
         <v>0.71</v>
@@ -36720,7 +36732,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -37956,7 +37968,7 @@
         <v>215</v>
       </c>
       <c r="P177" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q177">
         <v>2.4</v>
@@ -38034,7 +38046,7 @@
         <v>1.88</v>
       </c>
       <c r="AP177">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ177">
         <v>1.59</v>
@@ -38162,7 +38174,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38368,7 +38380,7 @@
         <v>217</v>
       </c>
       <c r="P179" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q179">
         <v>1.8</v>
@@ -38574,7 +38586,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q180">
         <v>4.33</v>
@@ -38652,7 +38664,7 @@
         <v>1.75</v>
       </c>
       <c r="AP180">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ180">
         <v>1.83</v>
@@ -38861,7 +38873,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ181">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR181">
         <v>1.34</v>
@@ -39192,7 +39204,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -39273,7 +39285,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ183">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39604,7 +39616,7 @@
         <v>104</v>
       </c>
       <c r="P185" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -40428,7 +40440,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -41252,7 +41264,7 @@
         <v>128</v>
       </c>
       <c r="P193" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41536,7 +41548,7 @@
         <v>2</v>
       </c>
       <c r="AP194">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ194">
         <v>1.59</v>
@@ -41664,7 +41676,7 @@
         <v>187</v>
       </c>
       <c r="P195" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q195">
         <v>2.38</v>
@@ -42076,7 +42088,7 @@
         <v>228</v>
       </c>
       <c r="P197" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42282,7 +42294,7 @@
         <v>229</v>
       </c>
       <c r="P198" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q198">
         <v>1.44</v>
@@ -43312,7 +43324,7 @@
         <v>104</v>
       </c>
       <c r="P203" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43724,7 +43736,7 @@
         <v>190</v>
       </c>
       <c r="P205" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q205">
         <v>2.38</v>
@@ -43805,7 +43817,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ205">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR205">
         <v>1.35</v>
@@ -43930,7 +43942,7 @@
         <v>104</v>
       </c>
       <c r="P206" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -44011,7 +44023,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ206">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR206">
         <v>1.01</v>
@@ -44342,7 +44354,7 @@
         <v>104</v>
       </c>
       <c r="P208" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -44832,7 +44844,7 @@
         <v>0.4</v>
       </c>
       <c r="AP210">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ210">
         <v>0.82</v>
@@ -45166,7 +45178,7 @@
         <v>104</v>
       </c>
       <c r="P212" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q212">
         <v>3.75</v>
@@ -45244,7 +45256,7 @@
         <v>1.27</v>
       </c>
       <c r="AP212">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ212">
         <v>1.28</v>
@@ -46071,7 +46083,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ216">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR216">
         <v>1.18</v>
@@ -46274,7 +46286,7 @@
         <v>0.73</v>
       </c>
       <c r="AP217">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ217">
         <v>0.88</v>
@@ -46814,7 +46826,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47432,7 +47444,7 @@
         <v>240</v>
       </c>
       <c r="P223" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47844,7 +47856,7 @@
         <v>158</v>
       </c>
       <c r="P225" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q225">
         <v>4.5</v>
@@ -48749,7 +48761,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ229">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR229">
         <v>1.42</v>
@@ -48874,7 +48886,7 @@
         <v>145</v>
       </c>
       <c r="P230" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -49286,7 +49298,7 @@
         <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49492,7 +49504,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49570,7 +49582,7 @@
         <v>0.67</v>
       </c>
       <c r="AP233">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ233">
         <v>0.88</v>
@@ -49698,7 +49710,7 @@
         <v>221</v>
       </c>
       <c r="P234" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -49779,7 +49791,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ234">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR234">
         <v>1.47</v>
@@ -50316,7 +50328,7 @@
         <v>247</v>
       </c>
       <c r="P237" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50522,7 +50534,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -51218,7 +51230,7 @@
         <v>1.42</v>
       </c>
       <c r="AP241">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ241">
         <v>1.28</v>
@@ -51552,7 +51564,7 @@
         <v>104</v>
       </c>
       <c r="P243" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q243">
         <v>2.6</v>
@@ -51633,7 +51645,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ243">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR243">
         <v>1.16</v>
@@ -51964,7 +51976,7 @@
         <v>104</v>
       </c>
       <c r="P245" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q245">
         <v>4.75</v>
@@ -52170,7 +52182,7 @@
         <v>104</v>
       </c>
       <c r="P246" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q246">
         <v>7.5</v>
@@ -52376,7 +52388,7 @@
         <v>250</v>
       </c>
       <c r="P247" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q247">
         <v>1.62</v>
@@ -52788,7 +52800,7 @@
         <v>178</v>
       </c>
       <c r="P249" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -53200,7 +53212,7 @@
         <v>253</v>
       </c>
       <c r="P251" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53406,7 +53418,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q252">
         <v>3.75</v>
@@ -53612,7 +53624,7 @@
         <v>255</v>
       </c>
       <c r="P253" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -54105,7 +54117,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ255">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR255">
         <v>1.79</v>
@@ -54514,7 +54526,7 @@
         <v>1.17</v>
       </c>
       <c r="AP257">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ257">
         <v>1.11</v>
@@ -54720,7 +54732,7 @@
         <v>1.17</v>
       </c>
       <c r="AP258">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ258">
         <v>1.06</v>
@@ -55054,7 +55066,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55672,7 +55684,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q263">
         <v>1.95</v>
@@ -55878,7 +55890,7 @@
         <v>263</v>
       </c>
       <c r="P264" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q264">
         <v>5</v>
@@ -56290,7 +56302,7 @@
         <v>221</v>
       </c>
       <c r="P266" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -57114,7 +57126,7 @@
         <v>265</v>
       </c>
       <c r="P270" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q270">
         <v>3.75</v>
@@ -57607,7 +57619,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ272">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR272">
         <v>1.3</v>
@@ -57732,7 +57744,7 @@
         <v>138</v>
       </c>
       <c r="P273" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q273">
         <v>3.6</v>
@@ -57813,7 +57825,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ273">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR273">
         <v>1.64</v>
@@ -58144,7 +58156,7 @@
         <v>268</v>
       </c>
       <c r="P275" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58222,7 +58234,7 @@
         <v>1.15</v>
       </c>
       <c r="AP275">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ275">
         <v>1.47</v>
@@ -58556,7 +58568,7 @@
         <v>269</v>
       </c>
       <c r="P277" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -58762,7 +58774,7 @@
         <v>110</v>
       </c>
       <c r="P278" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q278">
         <v>3.2</v>
@@ -58968,7 +58980,7 @@
         <v>270</v>
       </c>
       <c r="P279" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q279">
         <v>3.4</v>
@@ -59252,7 +59264,7 @@
         <v>0.75</v>
       </c>
       <c r="AP280">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ280">
         <v>0.82</v>
@@ -59792,7 +59804,7 @@
         <v>104</v>
       </c>
       <c r="P283" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q283">
         <v>3.1</v>
@@ -59998,7 +60010,7 @@
         <v>273</v>
       </c>
       <c r="P284" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q284">
         <v>1.5</v>
@@ -60204,7 +60216,7 @@
         <v>274</v>
       </c>
       <c r="P285" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60488,7 +60500,7 @@
         <v>0.93</v>
       </c>
       <c r="AP286">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ286">
         <v>0.82</v>
@@ -61234,7 +61246,7 @@
         <v>253</v>
       </c>
       <c r="P290" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q290">
         <v>2.1</v>
@@ -61440,7 +61452,7 @@
         <v>104</v>
       </c>
       <c r="P291" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q291">
         <v>2.4</v>
@@ -61521,7 +61533,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ291">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR291">
         <v>1.69</v>
@@ -61852,7 +61864,7 @@
         <v>157</v>
       </c>
       <c r="P293" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q293">
         <v>1.73</v>
@@ -62058,7 +62070,7 @@
         <v>277</v>
       </c>
       <c r="P294" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q294">
         <v>3.25</v>
@@ -62342,7 +62354,7 @@
         <v>1.29</v>
       </c>
       <c r="AP295">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ295">
         <v>1.47</v>
@@ -62470,7 +62482,7 @@
         <v>166</v>
       </c>
       <c r="P296" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -62676,7 +62688,7 @@
         <v>138</v>
       </c>
       <c r="P297" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -62882,7 +62894,7 @@
         <v>104</v>
       </c>
       <c r="P298" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q298">
         <v>5.5</v>
@@ -63372,7 +63384,7 @@
         <v>0.71</v>
       </c>
       <c r="AP300">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ300">
         <v>0.82</v>
@@ -63706,7 +63718,7 @@
         <v>104</v>
       </c>
       <c r="P302" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q302">
         <v>2.5</v>
@@ -63912,7 +63924,7 @@
         <v>141</v>
       </c>
       <c r="P303" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q303">
         <v>2.35</v>
@@ -64118,7 +64130,7 @@
         <v>104</v>
       </c>
       <c r="P304" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q304">
         <v>2.25</v>
@@ -64199,7 +64211,7 @@
         <v>2</v>
       </c>
       <c r="AQ304">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR304">
         <v>1.42</v>
@@ -64324,7 +64336,7 @@
         <v>104</v>
       </c>
       <c r="P305" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64402,7 +64414,7 @@
         <v>2.2</v>
       </c>
       <c r="AP305">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ305">
         <v>2.29</v>
@@ -64530,7 +64542,7 @@
         <v>279</v>
       </c>
       <c r="P306" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q306">
         <v>3.1</v>
@@ -64817,7 +64829,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ307">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR307">
         <v>1.21</v>
@@ -64942,7 +64954,7 @@
         <v>280</v>
       </c>
       <c r="P308" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q308">
         <v>2.88</v>
@@ -65354,7 +65366,7 @@
         <v>282</v>
       </c>
       <c r="P310" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q310">
         <v>1.5</v>
@@ -65766,7 +65778,7 @@
         <v>110</v>
       </c>
       <c r="P312" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q312">
         <v>3</v>
@@ -65972,7 +65984,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q313">
         <v>1.67</v>
@@ -66050,7 +66062,7 @@
         <v>0.87</v>
       </c>
       <c r="AP313">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ313">
         <v>0.76</v>
@@ -66590,7 +66602,7 @@
         <v>285</v>
       </c>
       <c r="P316" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66796,7 +66808,7 @@
         <v>286</v>
       </c>
       <c r="P317" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q317">
         <v>2.3</v>
@@ -67414,7 +67426,7 @@
         <v>149</v>
       </c>
       <c r="P320" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q320">
         <v>3.5</v>
@@ -67620,7 +67632,7 @@
         <v>121</v>
       </c>
       <c r="P321" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q321">
         <v>2.38</v>
@@ -67701,7 +67713,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ321">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR321">
         <v>1.39</v>
@@ -67904,7 +67916,7 @@
         <v>1.33</v>
       </c>
       <c r="AP322">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ322">
         <v>1.18</v>
@@ -68731,7 +68743,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ326">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR326">
         <v>1.34</v>
@@ -68934,7 +68946,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP327">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AQ327">
         <v>0.82</v>
@@ -69474,7 +69486,7 @@
         <v>291</v>
       </c>
       <c r="P330" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q330">
         <v>1.62</v>
@@ -69761,7 +69773,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ331">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR331">
         <v>1.74</v>
@@ -70298,7 +70310,7 @@
         <v>293</v>
       </c>
       <c r="P334" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q334">
         <v>2.05</v>
@@ -70504,7 +70516,7 @@
         <v>294</v>
       </c>
       <c r="P335" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q335">
         <v>3.2</v>
@@ -70710,7 +70722,7 @@
         <v>91</v>
       </c>
       <c r="P336" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q336">
         <v>11</v>
@@ -70916,7 +70928,7 @@
         <v>295</v>
       </c>
       <c r="P337" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q337">
         <v>1.73</v>
@@ -71122,7 +71134,7 @@
         <v>296</v>
       </c>
       <c r="P338" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -71328,7 +71340,7 @@
         <v>187</v>
       </c>
       <c r="P339" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q339">
         <v>3.75</v>
@@ -72358,7 +72370,7 @@
         <v>299</v>
       </c>
       <c r="P344" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q344">
         <v>2.4</v>
@@ -72564,7 +72576,7 @@
         <v>104</v>
       </c>
       <c r="P345" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q345">
         <v>3.5</v>
@@ -73133,6 +73145,418 @@
       </c>
       <c r="BP347">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="348" spans="1:68">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>7469690</v>
+      </c>
+      <c r="C348" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" t="s">
+        <v>69</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45788.375</v>
+      </c>
+      <c r="F348">
+        <v>35</v>
+      </c>
+      <c r="G348" t="s">
+        <v>85</v>
+      </c>
+      <c r="H348" t="s">
+        <v>82</v>
+      </c>
+      <c r="I348">
+        <v>2</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>2</v>
+      </c>
+      <c r="L348">
+        <v>3</v>
+      </c>
+      <c r="M348">
+        <v>2</v>
+      </c>
+      <c r="N348">
+        <v>5</v>
+      </c>
+      <c r="O348" t="s">
+        <v>302</v>
+      </c>
+      <c r="P348" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q348">
+        <v>3.2</v>
+      </c>
+      <c r="R348">
+        <v>1.95</v>
+      </c>
+      <c r="S348">
+        <v>4</v>
+      </c>
+      <c r="T348">
+        <v>1.53</v>
+      </c>
+      <c r="U348">
+        <v>2.38</v>
+      </c>
+      <c r="V348">
+        <v>3.75</v>
+      </c>
+      <c r="W348">
+        <v>1.25</v>
+      </c>
+      <c r="X348">
+        <v>11</v>
+      </c>
+      <c r="Y348">
+        <v>1.05</v>
+      </c>
+      <c r="Z348">
+        <v>2.45</v>
+      </c>
+      <c r="AA348">
+        <v>3.12</v>
+      </c>
+      <c r="AB348">
+        <v>3.28</v>
+      </c>
+      <c r="AC348">
+        <v>1.1</v>
+      </c>
+      <c r="AD348">
+        <v>6.5</v>
+      </c>
+      <c r="AE348">
+        <v>1.51</v>
+      </c>
+      <c r="AF348">
+        <v>2.4</v>
+      </c>
+      <c r="AG348">
+        <v>2.63</v>
+      </c>
+      <c r="AH348">
+        <v>1.5</v>
+      </c>
+      <c r="AI348">
+        <v>2.05</v>
+      </c>
+      <c r="AJ348">
+        <v>1.7</v>
+      </c>
+      <c r="AK348">
+        <v>1.33</v>
+      </c>
+      <c r="AL348">
+        <v>1.36</v>
+      </c>
+      <c r="AM348">
+        <v>1.57</v>
+      </c>
+      <c r="AN348">
+        <v>1.12</v>
+      </c>
+      <c r="AO348">
+        <v>0.71</v>
+      </c>
+      <c r="AP348">
+        <v>1.22</v>
+      </c>
+      <c r="AQ348">
+        <v>0.67</v>
+      </c>
+      <c r="AR348">
+        <v>0.99</v>
+      </c>
+      <c r="AS348">
+        <v>0.91</v>
+      </c>
+      <c r="AT348">
+        <v>1.9</v>
+      </c>
+      <c r="AU348">
+        <v>6</v>
+      </c>
+      <c r="AV348">
+        <v>7</v>
+      </c>
+      <c r="AW348">
+        <v>9</v>
+      </c>
+      <c r="AX348">
+        <v>6</v>
+      </c>
+      <c r="AY348">
+        <v>16</v>
+      </c>
+      <c r="AZ348">
+        <v>16</v>
+      </c>
+      <c r="BA348">
+        <v>3</v>
+      </c>
+      <c r="BB348">
+        <v>8</v>
+      </c>
+      <c r="BC348">
+        <v>11</v>
+      </c>
+      <c r="BD348">
+        <v>1.72</v>
+      </c>
+      <c r="BE348">
+        <v>8.4</v>
+      </c>
+      <c r="BF348">
+        <v>2.58</v>
+      </c>
+      <c r="BG348">
+        <v>1.31</v>
+      </c>
+      <c r="BH348">
+        <v>2.92</v>
+      </c>
+      <c r="BI348">
+        <v>1.59</v>
+      </c>
+      <c r="BJ348">
+        <v>2.16</v>
+      </c>
+      <c r="BK348">
+        <v>2.03</v>
+      </c>
+      <c r="BL348">
+        <v>1.7</v>
+      </c>
+      <c r="BM348">
+        <v>2.67</v>
+      </c>
+      <c r="BN348">
+        <v>1.39</v>
+      </c>
+      <c r="BO348">
+        <v>3.68</v>
+      </c>
+      <c r="BP348">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:68">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>7465329</v>
+      </c>
+      <c r="C349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>69</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45788.46875</v>
+      </c>
+      <c r="F349">
+        <v>35</v>
+      </c>
+      <c r="G349" t="s">
+        <v>81</v>
+      </c>
+      <c r="H349" t="s">
+        <v>84</v>
+      </c>
+      <c r="I349">
+        <v>4</v>
+      </c>
+      <c r="J349">
+        <v>2</v>
+      </c>
+      <c r="K349">
+        <v>6</v>
+      </c>
+      <c r="L349">
+        <v>4</v>
+      </c>
+      <c r="M349">
+        <v>3</v>
+      </c>
+      <c r="N349">
+        <v>7</v>
+      </c>
+      <c r="O349" t="s">
+        <v>303</v>
+      </c>
+      <c r="P349" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q349">
+        <v>2.4</v>
+      </c>
+      <c r="R349">
+        <v>2.63</v>
+      </c>
+      <c r="S349">
+        <v>3.5</v>
+      </c>
+      <c r="T349">
+        <v>1.2</v>
+      </c>
+      <c r="U349">
+        <v>4.33</v>
+      </c>
+      <c r="V349">
+        <v>1.91</v>
+      </c>
+      <c r="W349">
+        <v>1.8</v>
+      </c>
+      <c r="X349">
+        <v>4</v>
+      </c>
+      <c r="Y349">
+        <v>1.22</v>
+      </c>
+      <c r="Z349">
+        <v>1.92</v>
+      </c>
+      <c r="AA349">
+        <v>4.09</v>
+      </c>
+      <c r="AB349">
+        <v>3.54</v>
+      </c>
+      <c r="AC349">
+        <v>1.01</v>
+      </c>
+      <c r="AD349">
+        <v>17</v>
+      </c>
+      <c r="AE349">
+        <v>1.12</v>
+      </c>
+      <c r="AF349">
+        <v>6</v>
+      </c>
+      <c r="AG349">
+        <v>1.36</v>
+      </c>
+      <c r="AH349">
+        <v>3.2</v>
+      </c>
+      <c r="AI349">
+        <v>1.36</v>
+      </c>
+      <c r="AJ349">
+        <v>3</v>
+      </c>
+      <c r="AK349">
+        <v>1.32</v>
+      </c>
+      <c r="AL349">
+        <v>1.24</v>
+      </c>
+      <c r="AM349">
+        <v>1.78</v>
+      </c>
+      <c r="AN349">
+        <v>2.35</v>
+      </c>
+      <c r="AO349">
+        <v>1.88</v>
+      </c>
+      <c r="AP349">
+        <v>2.39</v>
+      </c>
+      <c r="AQ349">
+        <v>1.78</v>
+      </c>
+      <c r="AR349">
+        <v>2.27</v>
+      </c>
+      <c r="AS349">
+        <v>1.66</v>
+      </c>
+      <c r="AT349">
+        <v>3.93</v>
+      </c>
+      <c r="AU349">
+        <v>10</v>
+      </c>
+      <c r="AV349">
+        <v>6</v>
+      </c>
+      <c r="AW349">
+        <v>14</v>
+      </c>
+      <c r="AX349">
+        <v>4</v>
+      </c>
+      <c r="AY349">
+        <v>28</v>
+      </c>
+      <c r="AZ349">
+        <v>11</v>
+      </c>
+      <c r="BA349">
+        <v>10</v>
+      </c>
+      <c r="BB349">
+        <v>2</v>
+      </c>
+      <c r="BC349">
+        <v>12</v>
+      </c>
+      <c r="BD349">
+        <v>1.64</v>
+      </c>
+      <c r="BE349">
+        <v>9.1</v>
+      </c>
+      <c r="BF349">
+        <v>2.72</v>
+      </c>
+      <c r="BG349">
+        <v>1.17</v>
+      </c>
+      <c r="BH349">
+        <v>3.98</v>
+      </c>
+      <c r="BI349">
+        <v>1.36</v>
+      </c>
+      <c r="BJ349">
+        <v>2.79</v>
+      </c>
+      <c r="BK349">
+        <v>1.66</v>
+      </c>
+      <c r="BL349">
+        <v>2.09</v>
+      </c>
+      <c r="BM349">
+        <v>2.05</v>
+      </c>
+      <c r="BN349">
+        <v>1.65</v>
+      </c>
+      <c r="BO349">
+        <v>2.69</v>
+      </c>
+      <c r="BP349">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="428">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1659,7 +1659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP349"/>
+  <dimension ref="A1:BP351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ2">
         <v>1.11</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3">
         <v>0.82</v>
@@ -2411,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ25">
         <v>0.82</v>
@@ -7355,7 +7355,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ28">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR28">
         <v>1.36</v>
@@ -7561,7 +7561,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32">
         <v>1.59</v>
@@ -10030,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ41">
         <v>0.71</v>
@@ -10445,7 +10445,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ43">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR43">
         <v>1.17</v>
@@ -11887,7 +11887,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ50">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -12296,7 +12296,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ52">
         <v>1.11</v>
@@ -13944,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ60">
         <v>0.76</v>
@@ -14562,7 +14562,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ63">
         <v>1.18</v>
@@ -14771,7 +14771,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ64">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -15183,7 +15183,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ66">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR66">
         <v>2.43</v>
@@ -16625,7 +16625,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ73">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR73">
         <v>1.15</v>
@@ -17652,7 +17652,7 @@
         <v>0.67</v>
       </c>
       <c r="AP78">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ78">
         <v>0.9399999999999999</v>
@@ -17858,7 +17858,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79">
         <v>0.67</v>
@@ -18891,7 +18891,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ84">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR84">
         <v>1.3</v>
@@ -20742,7 +20742,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ93">
         <v>0.67</v>
@@ -23011,7 +23011,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ104">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR104">
         <v>1.49</v>
@@ -24038,7 +24038,7 @@
         <v>1.8</v>
       </c>
       <c r="AP109">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ109">
         <v>1.59</v>
@@ -24247,7 +24247,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ110">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR110">
         <v>1.42</v>
@@ -25892,7 +25892,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ118">
         <v>1.47</v>
@@ -26513,7 +26513,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ121">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR121">
         <v>1.83</v>
@@ -26719,7 +26719,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ122">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR122">
         <v>1.57</v>
@@ -27128,7 +27128,7 @@
         <v>0.6</v>
       </c>
       <c r="AP124">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ124">
         <v>0.76</v>
@@ -28573,7 +28573,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ131">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR131">
         <v>1.72</v>
@@ -30012,7 +30012,7 @@
         <v>1.83</v>
       </c>
       <c r="AP138">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ138">
         <v>1.06</v>
@@ -32075,7 +32075,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ148">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR148">
         <v>1.35</v>
@@ -32484,7 +32484,7 @@
         <v>2</v>
       </c>
       <c r="AP150">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ150">
         <v>1.78</v>
@@ -33102,7 +33102,7 @@
         <v>2.2</v>
       </c>
       <c r="AP153">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ153">
         <v>2.29</v>
@@ -33926,7 +33926,7 @@
         <v>2</v>
       </c>
       <c r="AP157">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ157">
         <v>1.83</v>
@@ -34135,7 +34135,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ158">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR158">
         <v>1.47</v>
@@ -34959,7 +34959,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ162">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR162">
         <v>1.12</v>
@@ -38255,7 +38255,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ178">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR178">
         <v>1.38</v>
@@ -39076,7 +39076,7 @@
         <v>1.33</v>
       </c>
       <c r="AP182">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ182">
         <v>1.28</v>
@@ -40727,7 +40727,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ190">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR190">
         <v>1.72</v>
@@ -41754,10 +41754,10 @@
         <v>0.5</v>
       </c>
       <c r="AP195">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ195">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR195">
         <v>1.78</v>
@@ -43199,7 +43199,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ202">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR202">
         <v>1.36</v>
@@ -44638,7 +44638,7 @@
         <v>0.9</v>
       </c>
       <c r="AP209">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ209">
         <v>0.71</v>
@@ -46289,7 +46289,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ217">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR217">
         <v>2.09</v>
@@ -46904,7 +46904,7 @@
         <v>1.8</v>
       </c>
       <c r="AP220">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ220">
         <v>1.47</v>
@@ -47728,7 +47728,7 @@
         <v>1.09</v>
       </c>
       <c r="AP224">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ224">
         <v>0.82</v>
@@ -49173,7 +49173,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ231">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR231">
         <v>1.25</v>
@@ -49585,7 +49585,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ233">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR233">
         <v>0.95</v>
@@ -51024,7 +51024,7 @@
         <v>1.27</v>
       </c>
       <c r="AP240">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ240">
         <v>1.06</v>
@@ -51439,7 +51439,7 @@
         <v>2</v>
       </c>
       <c r="AQ242">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR242">
         <v>1.38</v>
@@ -52466,7 +52466,7 @@
         <v>0.25</v>
       </c>
       <c r="AP247">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ247">
         <v>0.17</v>
@@ -54114,7 +54114,7 @@
         <v>1.77</v>
       </c>
       <c r="AP255">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ255">
         <v>1.78</v>
@@ -54941,7 +54941,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ259">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR259">
         <v>1.28</v>
@@ -56380,7 +56380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP266">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ266">
         <v>1.18</v>
@@ -56586,7 +56586,7 @@
         <v>0.85</v>
       </c>
       <c r="AP267">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ267">
         <v>0.88</v>
@@ -57207,7 +57207,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ270">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR270">
         <v>1.38</v>
@@ -59267,7 +59267,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ280">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR280">
         <v>2.14</v>
@@ -60912,10 +60912,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP288">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ288">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR288">
         <v>1.65</v>
@@ -61118,7 +61118,7 @@
         <v>1.21</v>
       </c>
       <c r="AP289">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ289">
         <v>0.9399999999999999</v>
@@ -61739,7 +61739,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ292">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR292">
         <v>1.44</v>
@@ -63387,7 +63387,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ300">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR300">
         <v>0.97</v>
@@ -65032,7 +65032,7 @@
         <v>1.8</v>
       </c>
       <c r="AP308">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ308">
         <v>1.83</v>
@@ -65238,7 +65238,7 @@
         <v>1.33</v>
       </c>
       <c r="AP309">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ309">
         <v>1.28</v>
@@ -66683,7 +66683,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ316">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR316">
         <v>1.06</v>
@@ -67095,7 +67095,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ318">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR318">
         <v>1.47</v>
@@ -68122,7 +68122,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP323">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ323">
         <v>0.88</v>
@@ -69564,7 +69564,7 @@
         <v>0.19</v>
       </c>
       <c r="AP330">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ330">
         <v>0.17</v>
@@ -70391,7 +70391,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ334">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR334">
         <v>1.75</v>
@@ -73557,6 +73557,418 @@
       </c>
       <c r="BP349">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="350" spans="1:68">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>7465336</v>
+      </c>
+      <c r="C350" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350" t="s">
+        <v>69</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45788.5625</v>
+      </c>
+      <c r="F350">
+        <v>35</v>
+      </c>
+      <c r="G350" t="s">
+        <v>70</v>
+      </c>
+      <c r="H350" t="s">
+        <v>86</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>1</v>
+      </c>
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <v>1</v>
+      </c>
+      <c r="O350" t="s">
+        <v>239</v>
+      </c>
+      <c r="P350" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q350">
+        <v>2.6</v>
+      </c>
+      <c r="R350">
+        <v>2</v>
+      </c>
+      <c r="S350">
+        <v>5.5</v>
+      </c>
+      <c r="T350">
+        <v>1.53</v>
+      </c>
+      <c r="U350">
+        <v>2.38</v>
+      </c>
+      <c r="V350">
+        <v>3.75</v>
+      </c>
+      <c r="W350">
+        <v>1.25</v>
+      </c>
+      <c r="X350">
+        <v>11</v>
+      </c>
+      <c r="Y350">
+        <v>1.05</v>
+      </c>
+      <c r="Z350">
+        <v>1.89</v>
+      </c>
+      <c r="AA350">
+        <v>3.3</v>
+      </c>
+      <c r="AB350">
+        <v>4.91</v>
+      </c>
+      <c r="AC350">
+        <v>1.1</v>
+      </c>
+      <c r="AD350">
+        <v>6.5</v>
+      </c>
+      <c r="AE350">
+        <v>1.5</v>
+      </c>
+      <c r="AF350">
+        <v>2.55</v>
+      </c>
+      <c r="AG350">
+        <v>2.63</v>
+      </c>
+      <c r="AH350">
+        <v>1.5</v>
+      </c>
+      <c r="AI350">
+        <v>2.2</v>
+      </c>
+      <c r="AJ350">
+        <v>1.62</v>
+      </c>
+      <c r="AK350">
+        <v>1.2</v>
+      </c>
+      <c r="AL350">
+        <v>1.33</v>
+      </c>
+      <c r="AM350">
+        <v>1.87</v>
+      </c>
+      <c r="AN350">
+        <v>2.12</v>
+      </c>
+      <c r="AO350">
+        <v>0.88</v>
+      </c>
+      <c r="AP350">
+        <v>2.17</v>
+      </c>
+      <c r="AQ350">
+        <v>0.83</v>
+      </c>
+      <c r="AR350">
+        <v>1.64</v>
+      </c>
+      <c r="AS350">
+        <v>1.25</v>
+      </c>
+      <c r="AT350">
+        <v>2.89</v>
+      </c>
+      <c r="AU350">
+        <v>4</v>
+      </c>
+      <c r="AV350">
+        <v>2</v>
+      </c>
+      <c r="AW350">
+        <v>8</v>
+      </c>
+      <c r="AX350">
+        <v>2</v>
+      </c>
+      <c r="AY350">
+        <v>13</v>
+      </c>
+      <c r="AZ350">
+        <v>5</v>
+      </c>
+      <c r="BA350">
+        <v>9</v>
+      </c>
+      <c r="BB350">
+        <v>2</v>
+      </c>
+      <c r="BC350">
+        <v>11</v>
+      </c>
+      <c r="BD350">
+        <v>1.53</v>
+      </c>
+      <c r="BE350">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF350">
+        <v>3.12</v>
+      </c>
+      <c r="BG350">
+        <v>1.3</v>
+      </c>
+      <c r="BH350">
+        <v>2.97</v>
+      </c>
+      <c r="BI350">
+        <v>1.58</v>
+      </c>
+      <c r="BJ350">
+        <v>2.17</v>
+      </c>
+      <c r="BK350">
+        <v>2</v>
+      </c>
+      <c r="BL350">
+        <v>1.72</v>
+      </c>
+      <c r="BM350">
+        <v>2.64</v>
+      </c>
+      <c r="BN350">
+        <v>1.4</v>
+      </c>
+      <c r="BO350">
+        <v>3.58</v>
+      </c>
+      <c r="BP350">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="351" spans="1:68">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>7465330</v>
+      </c>
+      <c r="C351" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" t="s">
+        <v>69</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45788.66666666666</v>
+      </c>
+      <c r="F351">
+        <v>35</v>
+      </c>
+      <c r="G351" t="s">
+        <v>71</v>
+      </c>
+      <c r="H351" t="s">
+        <v>74</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>1</v>
+      </c>
+      <c r="M351">
+        <v>1</v>
+      </c>
+      <c r="N351">
+        <v>2</v>
+      </c>
+      <c r="O351" t="s">
+        <v>267</v>
+      </c>
+      <c r="P351" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q351">
+        <v>2.1</v>
+      </c>
+      <c r="R351">
+        <v>2.3</v>
+      </c>
+      <c r="S351">
+        <v>5.5</v>
+      </c>
+      <c r="T351">
+        <v>1.33</v>
+      </c>
+      <c r="U351">
+        <v>3.25</v>
+      </c>
+      <c r="V351">
+        <v>2.63</v>
+      </c>
+      <c r="W351">
+        <v>1.44</v>
+      </c>
+      <c r="X351">
+        <v>6.5</v>
+      </c>
+      <c r="Y351">
+        <v>1.11</v>
+      </c>
+      <c r="Z351">
+        <v>1.61</v>
+      </c>
+      <c r="AA351">
+        <v>4.24</v>
+      </c>
+      <c r="AB351">
+        <v>5.53</v>
+      </c>
+      <c r="AC351">
+        <v>1.05</v>
+      </c>
+      <c r="AD351">
+        <v>9.5</v>
+      </c>
+      <c r="AE351">
+        <v>1.25</v>
+      </c>
+      <c r="AF351">
+        <v>3.75</v>
+      </c>
+      <c r="AG351">
+        <v>1.84</v>
+      </c>
+      <c r="AH351">
+        <v>2.06</v>
+      </c>
+      <c r="AI351">
+        <v>1.8</v>
+      </c>
+      <c r="AJ351">
+        <v>1.95</v>
+      </c>
+      <c r="AK351">
+        <v>1.16</v>
+      </c>
+      <c r="AL351">
+        <v>1.24</v>
+      </c>
+      <c r="AM351">
+        <v>2.25</v>
+      </c>
+      <c r="AN351">
+        <v>1.88</v>
+      </c>
+      <c r="AO351">
+        <v>0.82</v>
+      </c>
+      <c r="AP351">
+        <v>1.83</v>
+      </c>
+      <c r="AQ351">
+        <v>0.83</v>
+      </c>
+      <c r="AR351">
+        <v>1.85</v>
+      </c>
+      <c r="AS351">
+        <v>1.09</v>
+      </c>
+      <c r="AT351">
+        <v>2.94</v>
+      </c>
+      <c r="AU351">
+        <v>6</v>
+      </c>
+      <c r="AV351">
+        <v>6</v>
+      </c>
+      <c r="AW351">
+        <v>5</v>
+      </c>
+      <c r="AX351">
+        <v>12</v>
+      </c>
+      <c r="AY351">
+        <v>14</v>
+      </c>
+      <c r="AZ351">
+        <v>20</v>
+      </c>
+      <c r="BA351">
+        <v>6</v>
+      </c>
+      <c r="BB351">
+        <v>7</v>
+      </c>
+      <c r="BC351">
+        <v>13</v>
+      </c>
+      <c r="BD351">
+        <v>1.42</v>
+      </c>
+      <c r="BE351">
+        <v>9.5</v>
+      </c>
+      <c r="BF351">
+        <v>3.6</v>
+      </c>
+      <c r="BG351">
+        <v>1.26</v>
+      </c>
+      <c r="BH351">
+        <v>3.22</v>
+      </c>
+      <c r="BI351">
+        <v>1.51</v>
+      </c>
+      <c r="BJ351">
+        <v>2.32</v>
+      </c>
+      <c r="BK351">
+        <v>1.88</v>
+      </c>
+      <c r="BL351">
+        <v>1.82</v>
+      </c>
+      <c r="BM351">
+        <v>2.42</v>
+      </c>
+      <c r="BN351">
+        <v>1.47</v>
+      </c>
+      <c r="BO351">
+        <v>3.28</v>
+      </c>
+      <c r="BP351">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="428">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1659,7 +1659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP351"/>
+  <dimension ref="A1:BP353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2205,7 +2205,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>1.28</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ10">
         <v>0.67</v>
@@ -5913,7 +5913,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ21">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6119,7 +6119,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ22">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR22">
         <v>1.08</v>
@@ -6940,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ26">
         <v>0.71</v>
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
         <v>0.83</v>
@@ -9209,7 +9209,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ37">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -9415,7 +9415,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ38">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -10854,7 +10854,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
         <v>1.78</v>
@@ -12914,7 +12914,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ55">
         <v>1.06</v>
@@ -13329,7 +13329,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ57">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
         <v>1.38</v>
@@ -13947,7 +13947,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ60">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -16416,7 +16416,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ72">
         <v>1.18</v>
@@ -17034,7 +17034,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
         <v>0.82</v>
@@ -17449,7 +17449,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR77">
         <v>1.31</v>
@@ -19097,7 +19097,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ85">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR85">
         <v>1.24</v>
@@ -19300,7 +19300,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ86">
         <v>1.28</v>
@@ -20330,7 +20330,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ91">
         <v>1.59</v>
@@ -22802,7 +22802,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ103">
         <v>1.83</v>
@@ -23217,7 +23217,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ105">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR105">
         <v>1.4</v>
@@ -23629,7 +23629,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ107">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR107">
         <v>1.1</v>
@@ -24244,7 +24244,7 @@
         <v>0.5</v>
       </c>
       <c r="AP110">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ110">
         <v>0.83</v>
@@ -27131,7 +27131,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ124">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR124">
         <v>1.82</v>
@@ -27543,7 +27543,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ126">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27746,7 +27746,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ127">
         <v>1.47</v>
@@ -27952,7 +27952,7 @@
         <v>2.57</v>
       </c>
       <c r="AP128">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ128">
         <v>2.29</v>
@@ -30839,7 +30839,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ142">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR142">
         <v>1.12</v>
@@ -31042,7 +31042,7 @@
         <v>1.71</v>
       </c>
       <c r="AP143">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ143">
         <v>1.59</v>
@@ -31251,7 +31251,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ144">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR144">
         <v>1.51</v>
@@ -31866,7 +31866,7 @@
         <v>0.86</v>
       </c>
       <c r="AP147">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ147">
         <v>1.47</v>
@@ -34750,7 +34750,7 @@
         <v>0.29</v>
       </c>
       <c r="AP161">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ161">
         <v>0.82</v>
@@ -35165,7 +35165,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ163">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR163">
         <v>1.23</v>
@@ -35371,7 +35371,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ164">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR164">
         <v>1.37</v>
@@ -36192,7 +36192,7 @@
         <v>1.13</v>
       </c>
       <c r="AP168">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ168">
         <v>0.88</v>
@@ -39491,7 +39491,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ184">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR184">
         <v>1.61</v>
@@ -39697,7 +39697,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ185">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR185">
         <v>1.15</v>
@@ -39900,7 +39900,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ186">
         <v>1.47</v>
@@ -40930,7 +40930,7 @@
         <v>1.89</v>
       </c>
       <c r="AP191">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ191">
         <v>1.83</v>
@@ -44020,7 +44020,7 @@
         <v>1.9</v>
       </c>
       <c r="AP206">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ206">
         <v>1.78</v>
@@ -44229,7 +44229,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ207">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR207">
         <v>1.57</v>
@@ -44432,7 +44432,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP208">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ208">
         <v>1.11</v>
@@ -45053,7 +45053,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ211">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR211">
         <v>1.16</v>
@@ -46495,7 +46495,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ218">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR218">
         <v>1.3</v>
@@ -47731,7 +47731,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ224">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR224">
         <v>1.44</v>
@@ -48758,7 +48758,7 @@
         <v>0.2</v>
       </c>
       <c r="AP229">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ229">
         <v>0.67</v>
@@ -49997,7 +49997,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ235">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR235">
         <v>1.76</v>
@@ -50612,7 +50612,7 @@
         <v>0.91</v>
       </c>
       <c r="AP238">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ238">
         <v>0.9399999999999999</v>
@@ -52675,7 +52675,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ248">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR248">
         <v>2.01</v>
@@ -53084,7 +53084,7 @@
         <v>0.83</v>
       </c>
       <c r="AP250">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ250">
         <v>0.71</v>
@@ -53496,7 +53496,7 @@
         <v>0.83</v>
       </c>
       <c r="AP252">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ252">
         <v>0.88</v>
@@ -53705,7 +53705,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ253">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR253">
         <v>1.4</v>
@@ -56792,7 +56792,7 @@
         <v>1.08</v>
       </c>
       <c r="AP268">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ268">
         <v>0.9399999999999999</v>
@@ -57001,7 +57001,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ269">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR269">
         <v>1.16</v>
@@ -57410,10 +57410,10 @@
         <v>0.54</v>
       </c>
       <c r="AP271">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ271">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR271">
         <v>1.11</v>
@@ -59470,7 +59470,7 @@
         <v>0.21</v>
       </c>
       <c r="AP281">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ281">
         <v>0.17</v>
@@ -60503,7 +60503,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ286">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR286">
         <v>2.13</v>
@@ -62151,7 +62151,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ294">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR294">
         <v>1.34</v>
@@ -62972,7 +62972,7 @@
         <v>1.21</v>
       </c>
       <c r="AP298">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ298">
         <v>1.11</v>
@@ -63796,7 +63796,7 @@
         <v>1.21</v>
       </c>
       <c r="AP302">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ302">
         <v>1.18</v>
@@ -64623,7 +64623,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ306">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR306">
         <v>1.48</v>
@@ -66065,7 +66065,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ313">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR313">
         <v>2.14</v>
@@ -66680,7 +66680,7 @@
         <v>0.73</v>
       </c>
       <c r="AP316">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ316">
         <v>0.83</v>
@@ -68949,7 +68949,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ327">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR327">
         <v>1.01</v>
@@ -70800,7 +70800,7 @@
         <v>2.25</v>
       </c>
       <c r="AP336">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ336">
         <v>2.29</v>
@@ -71009,7 +71009,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ337">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR337">
         <v>2.12</v>
@@ -71624,7 +71624,7 @@
         <v>1.5</v>
       </c>
       <c r="AP340">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ340">
         <v>1.47</v>
@@ -73969,6 +73969,418 @@
       </c>
       <c r="BP351">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="352" spans="1:68">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>7465342</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>69</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45790.58333333334</v>
+      </c>
+      <c r="F352">
+        <v>36</v>
+      </c>
+      <c r="G352" t="s">
+        <v>78</v>
+      </c>
+      <c r="H352" t="s">
+        <v>89</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="M352">
+        <v>1</v>
+      </c>
+      <c r="N352">
+        <v>1</v>
+      </c>
+      <c r="O352" t="s">
+        <v>104</v>
+      </c>
+      <c r="P352" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q352">
+        <v>5</v>
+      </c>
+      <c r="R352">
+        <v>2.3</v>
+      </c>
+      <c r="S352">
+        <v>2.25</v>
+      </c>
+      <c r="T352">
+        <v>1.33</v>
+      </c>
+      <c r="U352">
+        <v>3.25</v>
+      </c>
+      <c r="V352">
+        <v>2.63</v>
+      </c>
+      <c r="W352">
+        <v>1.44</v>
+      </c>
+      <c r="X352">
+        <v>6.5</v>
+      </c>
+      <c r="Y352">
+        <v>1.11</v>
+      </c>
+      <c r="Z352">
+        <v>4.75</v>
+      </c>
+      <c r="AA352">
+        <v>3.8</v>
+      </c>
+      <c r="AB352">
+        <v>1.7</v>
+      </c>
+      <c r="AC352">
+        <v>1.05</v>
+      </c>
+      <c r="AD352">
+        <v>9.5</v>
+      </c>
+      <c r="AE352">
+        <v>1.25</v>
+      </c>
+      <c r="AF352">
+        <v>3.8</v>
+      </c>
+      <c r="AG352">
+        <v>1.8</v>
+      </c>
+      <c r="AH352">
+        <v>2</v>
+      </c>
+      <c r="AI352">
+        <v>1.8</v>
+      </c>
+      <c r="AJ352">
+        <v>1.95</v>
+      </c>
+      <c r="AK352">
+        <v>2.1</v>
+      </c>
+      <c r="AL352">
+        <v>1.2</v>
+      </c>
+      <c r="AM352">
+        <v>1.18</v>
+      </c>
+      <c r="AN352">
+        <v>0.76</v>
+      </c>
+      <c r="AO352">
+        <v>0.82</v>
+      </c>
+      <c r="AP352">
+        <v>0.72</v>
+      </c>
+      <c r="AQ352">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR352">
+        <v>1.07</v>
+      </c>
+      <c r="AS352">
+        <v>1.17</v>
+      </c>
+      <c r="AT352">
+        <v>2.24</v>
+      </c>
+      <c r="AU352">
+        <v>5</v>
+      </c>
+      <c r="AV352">
+        <v>6</v>
+      </c>
+      <c r="AW352">
+        <v>7</v>
+      </c>
+      <c r="AX352">
+        <v>8</v>
+      </c>
+      <c r="AY352">
+        <v>12</v>
+      </c>
+      <c r="AZ352">
+        <v>15</v>
+      </c>
+      <c r="BA352">
+        <v>6</v>
+      </c>
+      <c r="BB352">
+        <v>4</v>
+      </c>
+      <c r="BC352">
+        <v>10</v>
+      </c>
+      <c r="BD352">
+        <v>3.05</v>
+      </c>
+      <c r="BE352">
+        <v>6.4</v>
+      </c>
+      <c r="BF352">
+        <v>1.48</v>
+      </c>
+      <c r="BG352">
+        <v>1.37</v>
+      </c>
+      <c r="BH352">
+        <v>2.8</v>
+      </c>
+      <c r="BI352">
+        <v>1.65</v>
+      </c>
+      <c r="BJ352">
+        <v>2.08</v>
+      </c>
+      <c r="BK352">
+        <v>2.07</v>
+      </c>
+      <c r="BL352">
+        <v>1.66</v>
+      </c>
+      <c r="BM352">
+        <v>2.65</v>
+      </c>
+      <c r="BN352">
+        <v>1.41</v>
+      </c>
+      <c r="BO352">
+        <v>3.45</v>
+      </c>
+      <c r="BP352">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="353" spans="1:68">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>7465341</v>
+      </c>
+      <c r="C353" t="s">
+        <v>68</v>
+      </c>
+      <c r="D353" t="s">
+        <v>69</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45790.625</v>
+      </c>
+      <c r="F353">
+        <v>36</v>
+      </c>
+      <c r="G353" t="s">
+        <v>76</v>
+      </c>
+      <c r="H353" t="s">
+        <v>72</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+      <c r="M353">
+        <v>1</v>
+      </c>
+      <c r="N353">
+        <v>1</v>
+      </c>
+      <c r="O353" t="s">
+        <v>104</v>
+      </c>
+      <c r="P353" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q353">
+        <v>3</v>
+      </c>
+      <c r="R353">
+        <v>2.1</v>
+      </c>
+      <c r="S353">
+        <v>3.6</v>
+      </c>
+      <c r="T353">
+        <v>1.4</v>
+      </c>
+      <c r="U353">
+        <v>2.75</v>
+      </c>
+      <c r="V353">
+        <v>3</v>
+      </c>
+      <c r="W353">
+        <v>1.36</v>
+      </c>
+      <c r="X353">
+        <v>8</v>
+      </c>
+      <c r="Y353">
+        <v>1.08</v>
+      </c>
+      <c r="Z353">
+        <v>2.3</v>
+      </c>
+      <c r="AA353">
+        <v>3.3</v>
+      </c>
+      <c r="AB353">
+        <v>3.1</v>
+      </c>
+      <c r="AC353">
+        <v>1.06</v>
+      </c>
+      <c r="AD353">
+        <v>8.5</v>
+      </c>
+      <c r="AE353">
+        <v>1.33</v>
+      </c>
+      <c r="AF353">
+        <v>3.25</v>
+      </c>
+      <c r="AG353">
+        <v>2</v>
+      </c>
+      <c r="AH353">
+        <v>1.8</v>
+      </c>
+      <c r="AI353">
+        <v>1.8</v>
+      </c>
+      <c r="AJ353">
+        <v>1.95</v>
+      </c>
+      <c r="AK353">
+        <v>1.36</v>
+      </c>
+      <c r="AL353">
+        <v>1.28</v>
+      </c>
+      <c r="AM353">
+        <v>1.6</v>
+      </c>
+      <c r="AN353">
+        <v>1.41</v>
+      </c>
+      <c r="AO353">
+        <v>0.76</v>
+      </c>
+      <c r="AP353">
+        <v>1.33</v>
+      </c>
+      <c r="AQ353">
+        <v>0.89</v>
+      </c>
+      <c r="AR353">
+        <v>1.43</v>
+      </c>
+      <c r="AS353">
+        <v>1.33</v>
+      </c>
+      <c r="AT353">
+        <v>2.76</v>
+      </c>
+      <c r="AU353">
+        <v>6</v>
+      </c>
+      <c r="AV353">
+        <v>3</v>
+      </c>
+      <c r="AW353">
+        <v>10</v>
+      </c>
+      <c r="AX353">
+        <v>4</v>
+      </c>
+      <c r="AY353">
+        <v>19</v>
+      </c>
+      <c r="AZ353">
+        <v>8</v>
+      </c>
+      <c r="BA353">
+        <v>14</v>
+      </c>
+      <c r="BB353">
+        <v>1</v>
+      </c>
+      <c r="BC353">
+        <v>15</v>
+      </c>
+      <c r="BD353">
+        <v>1.67</v>
+      </c>
+      <c r="BE353">
+        <v>6.5</v>
+      </c>
+      <c r="BF353">
+        <v>2.48</v>
+      </c>
+      <c r="BG353">
+        <v>1.37</v>
+      </c>
+      <c r="BH353">
+        <v>2.8</v>
+      </c>
+      <c r="BI353">
+        <v>1.64</v>
+      </c>
+      <c r="BJ353">
+        <v>2.1</v>
+      </c>
+      <c r="BK353">
+        <v>2.02</v>
+      </c>
+      <c r="BL353">
+        <v>1.68</v>
+      </c>
+      <c r="BM353">
+        <v>2.55</v>
+      </c>
+      <c r="BN353">
+        <v>1.43</v>
+      </c>
+      <c r="BO353">
+        <v>3.4</v>
+      </c>
+      <c r="BP353">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="428">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1659,7 +1659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP353"/>
+  <dimension ref="A1:BP354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.83</v>
@@ -5501,7 +5501,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ19">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ36">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR36">
         <v>0.71</v>
@@ -9412,7 +9412,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
         <v>0.9399999999999999</v>
@@ -10648,7 +10648,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44">
         <v>1.11</v>
@@ -13123,7 +13123,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ56">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR56">
         <v>1.5</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
         <v>0.17</v>
@@ -18273,7 +18273,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ81">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -20124,7 +20124,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ90">
         <v>1.47</v>
@@ -22393,7 +22393,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ101">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR101">
         <v>1.21</v>
@@ -25277,7 +25277,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ115">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR115">
         <v>1.74</v>
@@ -25686,7 +25686,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117">
         <v>1.06</v>
@@ -26307,7 +26307,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ120">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR120">
         <v>1.55</v>
@@ -29600,7 +29600,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ136">
         <v>1.28</v>
@@ -30427,7 +30427,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ140">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR140">
         <v>1.94</v>
@@ -32072,7 +32072,7 @@
         <v>0.83</v>
       </c>
       <c r="AP148">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ148">
         <v>0.83</v>
@@ -35368,7 +35368,7 @@
         <v>0.57</v>
       </c>
       <c r="AP164">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ164">
         <v>0.89</v>
@@ -36195,7 +36195,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ168">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR168">
         <v>1.43</v>
@@ -40312,7 +40312,7 @@
         <v>0.33</v>
       </c>
       <c r="AP188">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ188">
         <v>0.82</v>
@@ -42375,7 +42375,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ198">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR198">
         <v>1.8</v>
@@ -43814,7 +43814,7 @@
         <v>0.11</v>
       </c>
       <c r="AP205">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ205">
         <v>0.67</v>
@@ -47113,7 +47113,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ221">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR221">
         <v>1.35</v>
@@ -48964,7 +48964,7 @@
         <v>2</v>
       </c>
       <c r="AP230">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ230">
         <v>2.29</v>
@@ -50821,7 +50821,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ239">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR239">
         <v>1.24</v>
@@ -53290,7 +53290,7 @@
         <v>1.36</v>
       </c>
       <c r="AP251">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ251">
         <v>1.18</v>
@@ -53499,7 +53499,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ252">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR252">
         <v>0.99</v>
@@ -56589,7 +56589,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ267">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR267">
         <v>1.79</v>
@@ -58440,7 +58440,7 @@
         <v>1.54</v>
       </c>
       <c r="AP276">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ276">
         <v>1.47</v>
@@ -61327,7 +61327,7 @@
         <v>2</v>
       </c>
       <c r="AQ290">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR290">
         <v>1.36</v>
@@ -62766,7 +62766,7 @@
         <v>1.64</v>
       </c>
       <c r="AP297">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ297">
         <v>1.59</v>
@@ -64005,7 +64005,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ303">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR303">
         <v>1.34</v>
@@ -67092,7 +67092,7 @@
         <v>0.88</v>
       </c>
       <c r="AP318">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ318">
         <v>0.83</v>
@@ -68125,7 +68125,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ323">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR323">
         <v>1.65</v>
@@ -71212,7 +71212,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP338">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ338">
         <v>0.71</v>
@@ -74381,6 +74381,212 @@
       </c>
       <c r="BP353">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="354" spans="1:68">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>7465344</v>
+      </c>
+      <c r="C354" t="s">
+        <v>68</v>
+      </c>
+      <c r="D354" t="s">
+        <v>69</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45790.6875</v>
+      </c>
+      <c r="F354">
+        <v>36</v>
+      </c>
+      <c r="G354" t="s">
+        <v>80</v>
+      </c>
+      <c r="H354" t="s">
+        <v>73</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>1</v>
+      </c>
+      <c r="M354">
+        <v>0</v>
+      </c>
+      <c r="N354">
+        <v>1</v>
+      </c>
+      <c r="O354" t="s">
+        <v>292</v>
+      </c>
+      <c r="P354" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q354">
+        <v>2.3</v>
+      </c>
+      <c r="R354">
+        <v>2.2</v>
+      </c>
+      <c r="S354">
+        <v>5.5</v>
+      </c>
+      <c r="T354">
+        <v>1.4</v>
+      </c>
+      <c r="U354">
+        <v>2.75</v>
+      </c>
+      <c r="V354">
+        <v>2.75</v>
+      </c>
+      <c r="W354">
+        <v>1.4</v>
+      </c>
+      <c r="X354">
+        <v>8</v>
+      </c>
+      <c r="Y354">
+        <v>1.08</v>
+      </c>
+      <c r="Z354">
+        <v>1.7</v>
+      </c>
+      <c r="AA354">
+        <v>3.8</v>
+      </c>
+      <c r="AB354">
+        <v>4.75</v>
+      </c>
+      <c r="AC354">
+        <v>1.05</v>
+      </c>
+      <c r="AD354">
+        <v>9</v>
+      </c>
+      <c r="AE354">
+        <v>1.3</v>
+      </c>
+      <c r="AF354">
+        <v>3.35</v>
+      </c>
+      <c r="AG354">
+        <v>2</v>
+      </c>
+      <c r="AH354">
+        <v>1.8</v>
+      </c>
+      <c r="AI354">
+        <v>1.95</v>
+      </c>
+      <c r="AJ354">
+        <v>1.8</v>
+      </c>
+      <c r="AK354">
+        <v>1.17</v>
+      </c>
+      <c r="AL354">
+        <v>1.22</v>
+      </c>
+      <c r="AM354">
+        <v>2.1</v>
+      </c>
+      <c r="AN354">
+        <v>1.24</v>
+      </c>
+      <c r="AO354">
+        <v>0.88</v>
+      </c>
+      <c r="AP354">
+        <v>1.33</v>
+      </c>
+      <c r="AQ354">
+        <v>0.83</v>
+      </c>
+      <c r="AR354">
+        <v>1.52</v>
+      </c>
+      <c r="AS354">
+        <v>1.04</v>
+      </c>
+      <c r="AT354">
+        <v>2.56</v>
+      </c>
+      <c r="AU354">
+        <v>4</v>
+      </c>
+      <c r="AV354">
+        <v>4</v>
+      </c>
+      <c r="AW354">
+        <v>7</v>
+      </c>
+      <c r="AX354">
+        <v>11</v>
+      </c>
+      <c r="AY354">
+        <v>14</v>
+      </c>
+      <c r="AZ354">
+        <v>16</v>
+      </c>
+      <c r="BA354">
+        <v>4</v>
+      </c>
+      <c r="BB354">
+        <v>2</v>
+      </c>
+      <c r="BC354">
+        <v>6</v>
+      </c>
+      <c r="BD354">
+        <v>1.45</v>
+      </c>
+      <c r="BE354">
+        <v>7</v>
+      </c>
+      <c r="BF354">
+        <v>3.05</v>
+      </c>
+      <c r="BG354">
+        <v>1.36</v>
+      </c>
+      <c r="BH354">
+        <v>2.8</v>
+      </c>
+      <c r="BI354">
+        <v>1.6</v>
+      </c>
+      <c r="BJ354">
+        <v>2.17</v>
+      </c>
+      <c r="BK354">
+        <v>1.98</v>
+      </c>
+      <c r="BL354">
+        <v>1.72</v>
+      </c>
+      <c r="BM354">
+        <v>2.55</v>
+      </c>
+      <c r="BN354">
+        <v>1.44</v>
+      </c>
+      <c r="BO354">
+        <v>3.3</v>
+      </c>
+      <c r="BP354">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="430">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -928,6 +928,12 @@
     <t>['19', '32', '34', '45']</t>
   </si>
   <si>
+    <t>['23', '31', '45']</t>
+  </si>
+  <si>
+    <t>['68', '90+5']</t>
+  </si>
+  <si>
     <t>['25', '61']</t>
   </si>
   <si>
@@ -1659,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP354"/>
+  <dimension ref="A1:BP357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2536,7 +2542,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2742,7 +2748,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2823,7 +2829,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ6">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2948,7 +2954,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -3154,7 +3160,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3360,7 +3366,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3772,7 +3778,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3850,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ11">
         <v>1.59</v>
@@ -4059,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR12">
         <v>1.07</v>
@@ -4184,7 +4190,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4471,7 +4477,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ14">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR14">
         <v>1.83</v>
@@ -5292,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ18">
         <v>0.17</v>
@@ -5704,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ20">
         <v>1.47</v>
@@ -6038,7 +6044,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6116,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ22">
         <v>0.89</v>
@@ -6450,7 +6456,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6737,7 +6743,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ25">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR25">
         <v>0.96</v>
@@ -6943,7 +6949,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ26">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -7274,7 +7280,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -8797,7 +8803,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ35">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -9000,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ36">
         <v>0.83</v>
@@ -9128,7 +9134,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -9334,7 +9340,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9824,7 +9830,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ40">
         <v>1.47</v>
@@ -10033,7 +10039,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ41">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR41">
         <v>1.59</v>
@@ -10158,7 +10164,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10364,7 +10370,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10776,7 +10782,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -11188,7 +11194,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11394,7 +11400,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11681,7 +11687,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ49">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR49">
         <v>1.74</v>
@@ -12424,7 +12430,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12708,7 +12714,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ54">
         <v>0.9399999999999999</v>
@@ -13042,7 +13048,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13532,7 +13538,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -13741,7 +13747,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ59">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
         <v>1.14</v>
@@ -14072,7 +14078,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14150,7 +14156,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ61">
         <v>2.29</v>
@@ -14484,7 +14490,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14565,7 +14571,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ63">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -14896,7 +14902,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15102,7 +15108,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15180,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ66">
         <v>0.83</v>
@@ -15720,7 +15726,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15926,7 +15932,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16338,7 +16344,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16419,7 +16425,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ72">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -16831,7 +16837,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.48</v>
@@ -17037,7 +17043,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR75">
         <v>1.11</v>
@@ -17162,7 +17168,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -18192,7 +18198,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18270,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ81">
         <v>0.83</v>
@@ -18479,7 +18485,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ82">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18685,7 +18691,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ83">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR83">
         <v>1.07</v>
@@ -19222,7 +19228,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19506,7 +19512,7 @@
         <v>2.5</v>
       </c>
       <c r="AP87">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ87">
         <v>1.83</v>
@@ -19634,7 +19640,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19840,7 +19846,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19918,7 +19924,7 @@
         <v>2.4</v>
       </c>
       <c r="AP89">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ89">
         <v>2.29</v>
@@ -20252,7 +20258,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20458,7 +20464,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20536,7 +20542,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ92">
         <v>0.17</v>
@@ -20870,7 +20876,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -21282,7 +21288,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21775,7 +21781,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ98">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR98">
         <v>1.58</v>
@@ -21978,7 +21984,7 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ99">
         <v>1.11</v>
@@ -22312,7 +22318,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22518,7 +22524,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22724,7 +22730,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23342,7 +23348,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23420,7 +23426,7 @@
         <v>2.5</v>
       </c>
       <c r="AP106">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ106">
         <v>2.29</v>
@@ -23835,7 +23841,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ108">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR108">
         <v>1.27</v>
@@ -24166,7 +24172,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24656,10 +24662,10 @@
         <v>1.8</v>
       </c>
       <c r="AP112">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ112">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR112">
         <v>1.08</v>
@@ -24990,7 +24996,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -25071,7 +25077,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR114">
         <v>1.33</v>
@@ -25608,7 +25614,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -26226,7 +26232,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26510,7 +26516,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ121">
         <v>0.83</v>
@@ -26716,7 +26722,7 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ122">
         <v>0.83</v>
@@ -27050,7 +27056,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -28286,7 +28292,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28698,7 +28704,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28779,7 +28785,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ132">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -29110,7 +29116,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29316,7 +29322,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29728,7 +29734,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -30221,7 +30227,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR139">
         <v>1.33</v>
@@ -30630,10 +30636,10 @@
         <v>0.57</v>
       </c>
       <c r="AP141">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ141">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR141">
         <v>1.08</v>
@@ -30964,7 +30970,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31170,7 +31176,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31248,7 +31254,7 @@
         <v>1.14</v>
       </c>
       <c r="AP144">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ144">
         <v>0.9399999999999999</v>
@@ -31454,7 +31460,7 @@
         <v>0.33</v>
       </c>
       <c r="AP145">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ145">
         <v>1.11</v>
@@ -31582,7 +31588,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -32200,7 +32206,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -32406,7 +32412,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32693,7 +32699,7 @@
         <v>2</v>
       </c>
       <c r="AQ151">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR151">
         <v>1.39</v>
@@ -33024,7 +33030,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33436,7 +33442,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33642,7 +33648,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -34054,7 +34060,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34260,7 +34266,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34753,7 +34759,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ161">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR161">
         <v>1.1</v>
@@ -35496,7 +35502,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35986,7 +35992,7 @@
         <v>1.57</v>
       </c>
       <c r="AP167">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ167">
         <v>1.47</v>
@@ -36320,7 +36326,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36398,7 +36404,7 @@
         <v>0.75</v>
       </c>
       <c r="AP169">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ169">
         <v>1.47</v>
@@ -36607,7 +36613,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ170">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR170">
         <v>1.98</v>
@@ -36732,7 +36738,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36813,7 +36819,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ171">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR171">
         <v>1.12</v>
@@ -37016,7 +37022,7 @@
         <v>1.38</v>
       </c>
       <c r="AP172">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ172">
         <v>1.28</v>
@@ -37431,7 +37437,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ174">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR174">
         <v>1.33</v>
@@ -37968,7 +37974,7 @@
         <v>215</v>
       </c>
       <c r="P177" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q177">
         <v>2.4</v>
@@ -38174,7 +38180,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38380,7 +38386,7 @@
         <v>217</v>
       </c>
       <c r="P179" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q179">
         <v>1.8</v>
@@ -38458,7 +38464,7 @@
         <v>0.75</v>
       </c>
       <c r="AP179">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ179">
         <v>0.9399999999999999</v>
@@ -38586,7 +38592,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q180">
         <v>4.33</v>
@@ -39204,7 +39210,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -39616,7 +39622,7 @@
         <v>104</v>
       </c>
       <c r="P185" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39694,7 +39700,7 @@
         <v>1</v>
       </c>
       <c r="AP185">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ185">
         <v>0.9399999999999999</v>
@@ -40109,7 +40115,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ187">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR187">
         <v>1.12</v>
@@ -40315,7 +40321,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ188">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR188">
         <v>1.34</v>
@@ -40440,7 +40446,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -41264,7 +41270,7 @@
         <v>128</v>
       </c>
       <c r="P193" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41676,7 +41682,7 @@
         <v>187</v>
       </c>
       <c r="P195" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q195">
         <v>2.38</v>
@@ -42088,7 +42094,7 @@
         <v>228</v>
       </c>
       <c r="P197" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42294,7 +42300,7 @@
         <v>229</v>
       </c>
       <c r="P198" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q198">
         <v>1.44</v>
@@ -42372,7 +42378,7 @@
         <v>1.11</v>
       </c>
       <c r="AP198">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ198">
         <v>0.83</v>
@@ -42990,10 +42996,10 @@
         <v>1.67</v>
       </c>
       <c r="AP201">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ201">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR201">
         <v>1.52</v>
@@ -43324,7 +43330,7 @@
         <v>104</v>
       </c>
       <c r="P203" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43736,7 +43742,7 @@
         <v>190</v>
       </c>
       <c r="P205" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q205">
         <v>2.38</v>
@@ -43942,7 +43948,7 @@
         <v>104</v>
       </c>
       <c r="P206" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -44354,7 +44360,7 @@
         <v>104</v>
       </c>
       <c r="P208" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -44641,7 +44647,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ209">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR209">
         <v>1.31</v>
@@ -44847,7 +44853,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ210">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR210">
         <v>2.02</v>
@@ -45050,7 +45056,7 @@
         <v>0.44</v>
       </c>
       <c r="AP211">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ211">
         <v>0.89</v>
@@ -45178,7 +45184,7 @@
         <v>104</v>
       </c>
       <c r="P212" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q212">
         <v>3.75</v>
@@ -45668,7 +45674,7 @@
         <v>0.3</v>
       </c>
       <c r="AP214">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ214">
         <v>0.17</v>
@@ -45877,7 +45883,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ215">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR215">
         <v>1.74</v>
@@ -46826,7 +46832,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47444,7 +47450,7 @@
         <v>240</v>
       </c>
       <c r="P223" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47856,7 +47862,7 @@
         <v>158</v>
       </c>
       <c r="P225" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q225">
         <v>4.5</v>
@@ -48140,7 +48146,7 @@
         <v>1.8</v>
       </c>
       <c r="AP226">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ226">
         <v>1.59</v>
@@ -48346,7 +48352,7 @@
         <v>0.8</v>
       </c>
       <c r="AP227">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ227">
         <v>1.11</v>
@@ -48555,7 +48561,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ228">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR228">
         <v>1.3</v>
@@ -48886,7 +48892,7 @@
         <v>145</v>
       </c>
       <c r="P230" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -49298,7 +49304,7 @@
         <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49504,7 +49510,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49710,7 +49716,7 @@
         <v>221</v>
       </c>
       <c r="P234" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -50200,10 +50206,10 @@
         <v>0.36</v>
       </c>
       <c r="AP236">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ236">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR236">
         <v>1.64</v>
@@ -50328,7 +50334,7 @@
         <v>247</v>
       </c>
       <c r="P237" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50534,7 +50540,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -51564,7 +51570,7 @@
         <v>104</v>
       </c>
       <c r="P243" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q243">
         <v>2.6</v>
@@ -51642,7 +51648,7 @@
         <v>0.18</v>
       </c>
       <c r="AP243">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ243">
         <v>0.67</v>
@@ -51976,7 +51982,7 @@
         <v>104</v>
       </c>
       <c r="P245" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q245">
         <v>4.75</v>
@@ -52182,7 +52188,7 @@
         <v>104</v>
       </c>
       <c r="P246" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q246">
         <v>7.5</v>
@@ -52388,7 +52394,7 @@
         <v>250</v>
       </c>
       <c r="P247" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q247">
         <v>1.62</v>
@@ -52672,7 +52678,7 @@
         <v>1</v>
       </c>
       <c r="AP248">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ248">
         <v>0.9399999999999999</v>
@@ -52800,7 +52806,7 @@
         <v>178</v>
       </c>
       <c r="P249" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -53087,7 +53093,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ250">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR250">
         <v>1.44</v>
@@ -53212,7 +53218,7 @@
         <v>253</v>
       </c>
       <c r="P251" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53293,7 +53299,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ251">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR251">
         <v>1.43</v>
@@ -53418,7 +53424,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q252">
         <v>3.75</v>
@@ -53624,7 +53630,7 @@
         <v>255</v>
       </c>
       <c r="P253" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -55066,7 +55072,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55147,7 +55153,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ260">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR260">
         <v>1.48</v>
@@ -55353,7 +55359,7 @@
         <v>2</v>
       </c>
       <c r="AQ261">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR261">
         <v>1.39</v>
@@ -55556,7 +55562,7 @@
         <v>1.85</v>
       </c>
       <c r="AP262">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ262">
         <v>1.83</v>
@@ -55684,7 +55690,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q263">
         <v>1.95</v>
@@ -55890,7 +55896,7 @@
         <v>263</v>
       </c>
       <c r="P264" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q264">
         <v>5</v>
@@ -56174,7 +56180,7 @@
         <v>1.31</v>
       </c>
       <c r="AP265">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ265">
         <v>1.28</v>
@@ -56302,7 +56308,7 @@
         <v>221</v>
       </c>
       <c r="P266" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -56383,7 +56389,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ266">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR266">
         <v>1.69</v>
@@ -57126,7 +57132,7 @@
         <v>265</v>
       </c>
       <c r="P270" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q270">
         <v>3.75</v>
@@ -57744,7 +57750,7 @@
         <v>138</v>
       </c>
       <c r="P273" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q273">
         <v>3.6</v>
@@ -57822,7 +57828,7 @@
         <v>1.64</v>
       </c>
       <c r="AP273">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ273">
         <v>1.78</v>
@@ -58031,7 +58037,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ274">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR274">
         <v>1.4</v>
@@ -58156,7 +58162,7 @@
         <v>268</v>
       </c>
       <c r="P275" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58568,7 +58574,7 @@
         <v>269</v>
       </c>
       <c r="P277" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -58774,7 +58780,7 @@
         <v>110</v>
       </c>
       <c r="P278" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q278">
         <v>3.2</v>
@@ -58980,7 +58986,7 @@
         <v>270</v>
       </c>
       <c r="P279" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q279">
         <v>3.4</v>
@@ -59804,7 +59810,7 @@
         <v>104</v>
       </c>
       <c r="P283" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q283">
         <v>3.1</v>
@@ -59882,7 +59888,7 @@
         <v>1.21</v>
       </c>
       <c r="AP283">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ283">
         <v>1.28</v>
@@ -60010,7 +60016,7 @@
         <v>273</v>
       </c>
       <c r="P284" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q284">
         <v>1.5</v>
@@ -60088,10 +60094,10 @@
         <v>0.71</v>
       </c>
       <c r="AP284">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ284">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR284">
         <v>1.99</v>
@@ -60216,7 +60222,7 @@
         <v>274</v>
       </c>
       <c r="P285" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60709,7 +60715,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ287">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR287">
         <v>1.43</v>
@@ -61246,7 +61252,7 @@
         <v>253</v>
       </c>
       <c r="P290" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q290">
         <v>2.1</v>
@@ -61452,7 +61458,7 @@
         <v>104</v>
       </c>
       <c r="P291" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q291">
         <v>2.4</v>
@@ -61864,7 +61870,7 @@
         <v>157</v>
       </c>
       <c r="P293" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q293">
         <v>1.73</v>
@@ -61942,10 +61948,10 @@
         <v>0.5</v>
       </c>
       <c r="AP293">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ293">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR293">
         <v>2.06</v>
@@ -62070,7 +62076,7 @@
         <v>277</v>
       </c>
       <c r="P294" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q294">
         <v>3.25</v>
@@ -62482,7 +62488,7 @@
         <v>166</v>
       </c>
       <c r="P296" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -62688,7 +62694,7 @@
         <v>138</v>
       </c>
       <c r="P297" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -62894,7 +62900,7 @@
         <v>104</v>
       </c>
       <c r="P298" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q298">
         <v>5.5</v>
@@ -63178,7 +63184,7 @@
         <v>1.64</v>
       </c>
       <c r="AP299">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ299">
         <v>1.47</v>
@@ -63718,7 +63724,7 @@
         <v>104</v>
       </c>
       <c r="P302" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q302">
         <v>2.5</v>
@@ -63799,7 +63805,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ302">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR302">
         <v>1.43</v>
@@ -63924,7 +63930,7 @@
         <v>141</v>
       </c>
       <c r="P303" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q303">
         <v>2.35</v>
@@ -64130,7 +64136,7 @@
         <v>104</v>
       </c>
       <c r="P304" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q304">
         <v>2.25</v>
@@ -64336,7 +64342,7 @@
         <v>104</v>
       </c>
       <c r="P305" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64542,7 +64548,7 @@
         <v>279</v>
       </c>
       <c r="P306" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q306">
         <v>3.1</v>
@@ -64826,7 +64832,7 @@
         <v>1.73</v>
       </c>
       <c r="AP307">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ307">
         <v>1.78</v>
@@ -64954,7 +64960,7 @@
         <v>280</v>
       </c>
       <c r="P308" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q308">
         <v>2.88</v>
@@ -65366,7 +65372,7 @@
         <v>282</v>
       </c>
       <c r="P310" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q310">
         <v>1.5</v>
@@ -65778,7 +65784,7 @@
         <v>110</v>
       </c>
       <c r="P312" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q312">
         <v>3</v>
@@ -65859,7 +65865,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ312">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR312">
         <v>1.71</v>
@@ -65984,7 +65990,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q313">
         <v>1.67</v>
@@ -66271,7 +66277,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ314">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR314">
         <v>1.31</v>
@@ -66602,7 +66608,7 @@
         <v>285</v>
       </c>
       <c r="P316" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66808,7 +66814,7 @@
         <v>286</v>
       </c>
       <c r="P317" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q317">
         <v>2.3</v>
@@ -66886,7 +66892,7 @@
         <v>1.2</v>
       </c>
       <c r="AP317">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ317">
         <v>1.06</v>
@@ -67298,7 +67304,7 @@
         <v>1.6</v>
       </c>
       <c r="AP319">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ319">
         <v>1.47</v>
@@ -67426,7 +67432,7 @@
         <v>149</v>
       </c>
       <c r="P320" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q320">
         <v>3.5</v>
@@ -67632,7 +67638,7 @@
         <v>121</v>
       </c>
       <c r="P321" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q321">
         <v>2.38</v>
@@ -67919,7 +67925,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ322">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR322">
         <v>2.15</v>
@@ -68534,7 +68540,7 @@
         <v>1.19</v>
       </c>
       <c r="AP325">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ325">
         <v>1.06</v>
@@ -69486,7 +69492,7 @@
         <v>291</v>
       </c>
       <c r="P330" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q330">
         <v>1.62</v>
@@ -69770,7 +69776,7 @@
         <v>0.75</v>
       </c>
       <c r="AP331">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ331">
         <v>0.67</v>
@@ -70182,7 +70188,7 @@
         <v>1.63</v>
       </c>
       <c r="AP333">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ333">
         <v>1.59</v>
@@ -70310,7 +70316,7 @@
         <v>293</v>
       </c>
       <c r="P334" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q334">
         <v>2.05</v>
@@ -70388,7 +70394,7 @@
         <v>0.88</v>
       </c>
       <c r="AP334">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ334">
         <v>0.83</v>
@@ -70516,7 +70522,7 @@
         <v>294</v>
       </c>
       <c r="P335" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q335">
         <v>3.2</v>
@@ -70597,7 +70603,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ335">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR335">
         <v>1.42</v>
@@ -70722,7 +70728,7 @@
         <v>91</v>
       </c>
       <c r="P336" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q336">
         <v>11</v>
@@ -70928,7 +70934,7 @@
         <v>295</v>
       </c>
       <c r="P337" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q337">
         <v>1.73</v>
@@ -71006,7 +71012,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP337">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ337">
         <v>0.89</v>
@@ -71134,7 +71140,7 @@
         <v>296</v>
       </c>
       <c r="P338" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -71215,7 +71221,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ338">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR338">
         <v>1.45</v>
@@ -71340,7 +71346,7 @@
         <v>187</v>
       </c>
       <c r="P339" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q339">
         <v>3.75</v>
@@ -71833,7 +71839,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ341">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR341">
         <v>1.47</v>
@@ -72370,7 +72376,7 @@
         <v>299</v>
       </c>
       <c r="P344" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q344">
         <v>2.4</v>
@@ -72576,7 +72582,7 @@
         <v>104</v>
       </c>
       <c r="P345" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q345">
         <v>3.5</v>
@@ -73194,7 +73200,7 @@
         <v>302</v>
       </c>
       <c r="P348" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q348">
         <v>3.2</v>
@@ -73400,7 +73406,7 @@
         <v>303</v>
       </c>
       <c r="P349" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q349">
         <v>2.4</v>
@@ -73812,7 +73818,7 @@
         <v>267</v>
       </c>
       <c r="P351" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q351">
         <v>2.1</v>
@@ -74587,6 +74593,624 @@
       </c>
       <c r="BP354">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="355" spans="1:68">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>7465337</v>
+      </c>
+      <c r="C355" t="s">
+        <v>68</v>
+      </c>
+      <c r="D355" t="s">
+        <v>69</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45791.58333333334</v>
+      </c>
+      <c r="F355">
+        <v>36</v>
+      </c>
+      <c r="G355" t="s">
+        <v>86</v>
+      </c>
+      <c r="H355" t="s">
+        <v>75</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+      <c r="M355">
+        <v>0</v>
+      </c>
+      <c r="N355">
+        <v>1</v>
+      </c>
+      <c r="O355" t="s">
+        <v>94</v>
+      </c>
+      <c r="P355" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q355">
+        <v>2.75</v>
+      </c>
+      <c r="R355">
+        <v>2</v>
+      </c>
+      <c r="S355">
+        <v>4.33</v>
+      </c>
+      <c r="T355">
+        <v>1.5</v>
+      </c>
+      <c r="U355">
+        <v>2.5</v>
+      </c>
+      <c r="V355">
+        <v>3.5</v>
+      </c>
+      <c r="W355">
+        <v>1.29</v>
+      </c>
+      <c r="X355">
+        <v>10</v>
+      </c>
+      <c r="Y355">
+        <v>1.06</v>
+      </c>
+      <c r="Z355">
+        <v>2.1</v>
+      </c>
+      <c r="AA355">
+        <v>3.2</v>
+      </c>
+      <c r="AB355">
+        <v>3.7</v>
+      </c>
+      <c r="AC355">
+        <v>1.09</v>
+      </c>
+      <c r="AD355">
+        <v>7</v>
+      </c>
+      <c r="AE355">
+        <v>1.45</v>
+      </c>
+      <c r="AF355">
+        <v>2.7</v>
+      </c>
+      <c r="AG355">
+        <v>2.38</v>
+      </c>
+      <c r="AH355">
+        <v>1.57</v>
+      </c>
+      <c r="AI355">
+        <v>2.05</v>
+      </c>
+      <c r="AJ355">
+        <v>1.7</v>
+      </c>
+      <c r="AK355">
+        <v>1.25</v>
+      </c>
+      <c r="AL355">
+        <v>1.28</v>
+      </c>
+      <c r="AM355">
+        <v>1.73</v>
+      </c>
+      <c r="AN355">
+        <v>1.18</v>
+      </c>
+      <c r="AO355">
+        <v>0.82</v>
+      </c>
+      <c r="AP355">
+        <v>1.28</v>
+      </c>
+      <c r="AQ355">
+        <v>0.78</v>
+      </c>
+      <c r="AR355">
+        <v>1.23</v>
+      </c>
+      <c r="AS355">
+        <v>1.07</v>
+      </c>
+      <c r="AT355">
+        <v>2.3</v>
+      </c>
+      <c r="AU355">
+        <v>6</v>
+      </c>
+      <c r="AV355">
+        <v>4</v>
+      </c>
+      <c r="AW355">
+        <v>6</v>
+      </c>
+      <c r="AX355">
+        <v>7</v>
+      </c>
+      <c r="AY355">
+        <v>12</v>
+      </c>
+      <c r="AZ355">
+        <v>13</v>
+      </c>
+      <c r="BA355">
+        <v>9</v>
+      </c>
+      <c r="BB355">
+        <v>4</v>
+      </c>
+      <c r="BC355">
+        <v>13</v>
+      </c>
+      <c r="BD355">
+        <v>1.52</v>
+      </c>
+      <c r="BE355">
+        <v>6.75</v>
+      </c>
+      <c r="BF355">
+        <v>2.8</v>
+      </c>
+      <c r="BG355">
+        <v>1.3</v>
+      </c>
+      <c r="BH355">
+        <v>3.05</v>
+      </c>
+      <c r="BI355">
+        <v>1.53</v>
+      </c>
+      <c r="BJ355">
+        <v>2.32</v>
+      </c>
+      <c r="BK355">
+        <v>1.86</v>
+      </c>
+      <c r="BL355">
+        <v>1.82</v>
+      </c>
+      <c r="BM355">
+        <v>2.33</v>
+      </c>
+      <c r="BN355">
+        <v>1.5</v>
+      </c>
+      <c r="BO355">
+        <v>3.05</v>
+      </c>
+      <c r="BP355">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>7465345</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45791.58333333334</v>
+      </c>
+      <c r="F356">
+        <v>36</v>
+      </c>
+      <c r="G356" t="s">
+        <v>79</v>
+      </c>
+      <c r="H356" t="s">
+        <v>85</v>
+      </c>
+      <c r="I356">
+        <v>3</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>3</v>
+      </c>
+      <c r="L356">
+        <v>3</v>
+      </c>
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356">
+        <v>3</v>
+      </c>
+      <c r="O356" t="s">
+        <v>304</v>
+      </c>
+      <c r="P356" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q356">
+        <v>1.73</v>
+      </c>
+      <c r="R356">
+        <v>2.6</v>
+      </c>
+      <c r="S356">
+        <v>8</v>
+      </c>
+      <c r="T356">
+        <v>1.29</v>
+      </c>
+      <c r="U356">
+        <v>3.5</v>
+      </c>
+      <c r="V356">
+        <v>2.38</v>
+      </c>
+      <c r="W356">
+        <v>1.53</v>
+      </c>
+      <c r="X356">
+        <v>5.5</v>
+      </c>
+      <c r="Y356">
+        <v>1.14</v>
+      </c>
+      <c r="Z356">
+        <v>1.33</v>
+      </c>
+      <c r="AA356">
+        <v>5</v>
+      </c>
+      <c r="AB356">
+        <v>8.5</v>
+      </c>
+      <c r="AC356">
+        <v>1.03</v>
+      </c>
+      <c r="AD356">
+        <v>11</v>
+      </c>
+      <c r="AE356">
+        <v>1.2</v>
+      </c>
+      <c r="AF356">
+        <v>4.5</v>
+      </c>
+      <c r="AG356">
+        <v>1.62</v>
+      </c>
+      <c r="AH356">
+        <v>2.3</v>
+      </c>
+      <c r="AI356">
+        <v>1.95</v>
+      </c>
+      <c r="AJ356">
+        <v>1.8</v>
+      </c>
+      <c r="AK356">
+        <v>1.07</v>
+      </c>
+      <c r="AL356">
+        <v>1.12</v>
+      </c>
+      <c r="AM356">
+        <v>3.1</v>
+      </c>
+      <c r="AN356">
+        <v>1.65</v>
+      </c>
+      <c r="AO356">
+        <v>0.71</v>
+      </c>
+      <c r="AP356">
+        <v>1.72</v>
+      </c>
+      <c r="AQ356">
+        <v>0.67</v>
+      </c>
+      <c r="AR356">
+        <v>1.74</v>
+      </c>
+      <c r="AS356">
+        <v>1.05</v>
+      </c>
+      <c r="AT356">
+        <v>2.79</v>
+      </c>
+      <c r="AU356">
+        <v>8</v>
+      </c>
+      <c r="AV356">
+        <v>7</v>
+      </c>
+      <c r="AW356">
+        <v>10</v>
+      </c>
+      <c r="AX356">
+        <v>17</v>
+      </c>
+      <c r="AY356">
+        <v>23</v>
+      </c>
+      <c r="AZ356">
+        <v>27</v>
+      </c>
+      <c r="BA356">
+        <v>3</v>
+      </c>
+      <c r="BB356">
+        <v>6</v>
+      </c>
+      <c r="BC356">
+        <v>9</v>
+      </c>
+      <c r="BD356">
+        <v>1.28</v>
+      </c>
+      <c r="BE356">
+        <v>7.5</v>
+      </c>
+      <c r="BF356">
+        <v>4.1</v>
+      </c>
+      <c r="BG356">
+        <v>1.3</v>
+      </c>
+      <c r="BH356">
+        <v>3.05</v>
+      </c>
+      <c r="BI356">
+        <v>1.53</v>
+      </c>
+      <c r="BJ356">
+        <v>2.3</v>
+      </c>
+      <c r="BK356">
+        <v>1.88</v>
+      </c>
+      <c r="BL356">
+        <v>1.81</v>
+      </c>
+      <c r="BM356">
+        <v>2.35</v>
+      </c>
+      <c r="BN356">
+        <v>1.5</v>
+      </c>
+      <c r="BO356">
+        <v>3.05</v>
+      </c>
+      <c r="BP356">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="357" spans="1:68">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>7465343</v>
+      </c>
+      <c r="C357" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45791.6875</v>
+      </c>
+      <c r="F357">
+        <v>36</v>
+      </c>
+      <c r="G357" t="s">
+        <v>84</v>
+      </c>
+      <c r="H357" t="s">
+        <v>77</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>1</v>
+      </c>
+      <c r="K357">
+        <v>1</v>
+      </c>
+      <c r="L357">
+        <v>2</v>
+      </c>
+      <c r="M357">
+        <v>1</v>
+      </c>
+      <c r="N357">
+        <v>3</v>
+      </c>
+      <c r="O357" t="s">
+        <v>305</v>
+      </c>
+      <c r="P357" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q357">
+        <v>1.62</v>
+      </c>
+      <c r="R357">
+        <v>2.75</v>
+      </c>
+      <c r="S357">
+        <v>10</v>
+      </c>
+      <c r="T357">
+        <v>1.25</v>
+      </c>
+      <c r="U357">
+        <v>3.75</v>
+      </c>
+      <c r="V357">
+        <v>2.2</v>
+      </c>
+      <c r="W357">
+        <v>1.62</v>
+      </c>
+      <c r="X357">
+        <v>5</v>
+      </c>
+      <c r="Y357">
+        <v>1.17</v>
+      </c>
+      <c r="Z357">
+        <v>1.22</v>
+      </c>
+      <c r="AA357">
+        <v>6.5</v>
+      </c>
+      <c r="AB357">
+        <v>11</v>
+      </c>
+      <c r="AC357">
+        <v>1.03</v>
+      </c>
+      <c r="AD357">
+        <v>11</v>
+      </c>
+      <c r="AE357">
+        <v>1.17</v>
+      </c>
+      <c r="AF357">
+        <v>5</v>
+      </c>
+      <c r="AG357">
+        <v>1.57</v>
+      </c>
+      <c r="AH357">
+        <v>2.38</v>
+      </c>
+      <c r="AI357">
+        <v>2.1</v>
+      </c>
+      <c r="AJ357">
+        <v>1.67</v>
+      </c>
+      <c r="AK357">
+        <v>1.04</v>
+      </c>
+      <c r="AL357">
+        <v>1.11</v>
+      </c>
+      <c r="AM357">
+        <v>3.9</v>
+      </c>
+      <c r="AN357">
+        <v>2.53</v>
+      </c>
+      <c r="AO357">
+        <v>1.18</v>
+      </c>
+      <c r="AP357">
+        <v>2.56</v>
+      </c>
+      <c r="AQ357">
+        <v>1.11</v>
+      </c>
+      <c r="AR357">
+        <v>2.11</v>
+      </c>
+      <c r="AS357">
+        <v>1.11</v>
+      </c>
+      <c r="AT357">
+        <v>3.22</v>
+      </c>
+      <c r="AU357">
+        <v>14</v>
+      </c>
+      <c r="AV357">
+        <v>3</v>
+      </c>
+      <c r="AW357">
+        <v>27</v>
+      </c>
+      <c r="AX357">
+        <v>2</v>
+      </c>
+      <c r="AY357">
+        <v>51</v>
+      </c>
+      <c r="AZ357">
+        <v>5</v>
+      </c>
+      <c r="BA357">
+        <v>26</v>
+      </c>
+      <c r="BB357">
+        <v>0</v>
+      </c>
+      <c r="BC357">
+        <v>26</v>
+      </c>
+      <c r="BD357">
+        <v>1.17</v>
+      </c>
+      <c r="BE357">
+        <v>9</v>
+      </c>
+      <c r="BF357">
+        <v>5.3</v>
+      </c>
+      <c r="BG357">
+        <v>1.24</v>
+      </c>
+      <c r="BH357">
+        <v>3.55</v>
+      </c>
+      <c r="BI357">
+        <v>1.41</v>
+      </c>
+      <c r="BJ357">
+        <v>2.65</v>
+      </c>
+      <c r="BK357">
+        <v>1.66</v>
+      </c>
+      <c r="BL357">
+        <v>2.06</v>
+      </c>
+      <c r="BM357">
+        <v>2.04</v>
+      </c>
+      <c r="BN357">
+        <v>1.68</v>
+      </c>
+      <c r="BO357">
+        <v>2.55</v>
+      </c>
+      <c r="BP357">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="435">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -934,6 +934,12 @@
     <t>['68', '90+5']</t>
   </si>
   <si>
+    <t>['25', '82']</t>
+  </si>
+  <si>
+    <t>['37', '45+6']</t>
+  </si>
+  <si>
     <t>['25', '61']</t>
   </si>
   <si>
@@ -1305,6 +1311,15 @@
   <si>
     <t>['5', '14', '70']</t>
   </si>
+  <si>
+    <t>['51', '61']</t>
+  </si>
+  <si>
+    <t>['76', '89']</t>
+  </si>
+  <si>
+    <t>['53', '90+5']</t>
+  </si>
 </sst>
 </file>
 
@@ -1665,7 +1680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP357"/>
+  <dimension ref="A1:BP361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2542,7 +2557,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2748,7 +2763,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2826,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2954,7 +2969,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -3035,7 +3050,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ7">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3160,7 +3175,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3366,7 +3381,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3778,7 +3793,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3859,7 +3874,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ11">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4190,7 +4205,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4474,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14">
         <v>1.11</v>
@@ -4683,7 +4698,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ15">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4886,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1.06</v>
@@ -5092,7 +5107,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ17">
         <v>1.28</v>
@@ -5713,7 +5728,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ20">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6044,7 +6059,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6456,7 +6471,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6534,10 +6549,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ24">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -7280,7 +7295,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -8185,7 +8200,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ32">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.11</v>
@@ -8388,7 +8403,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>1.28</v>
@@ -9134,7 +9149,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -9212,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37">
         <v>0.89</v>
@@ -9340,7 +9355,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9624,7 +9639,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ39">
         <v>1.06</v>
@@ -9833,7 +9848,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ40">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR40">
         <v>2.11</v>
@@ -10164,7 +10179,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10370,7 +10385,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10448,7 +10463,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>0.83</v>
@@ -10782,7 +10797,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -11194,7 +11209,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11275,7 +11290,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR47">
         <v>1.41</v>
@@ -11400,7 +11415,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11481,7 +11496,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11890,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ50">
         <v>0.83</v>
@@ -12430,7 +12445,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12511,7 +12526,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ53">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -13048,7 +13063,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13126,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ56">
         <v>0.83</v>
@@ -13744,7 +13759,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ59">
         <v>0.67</v>
@@ -14078,7 +14093,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14159,7 +14174,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ61">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR61">
         <v>1.71</v>
@@ -14362,10 +14377,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ62">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -14490,7 +14505,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14902,7 +14917,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15108,7 +15123,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15726,7 +15741,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15804,7 +15819,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>1.83</v>
@@ -15932,7 +15947,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16013,7 +16028,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ70">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR70">
         <v>1.36</v>
@@ -16219,7 +16234,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
         <v>1.29</v>
@@ -16344,7 +16359,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16628,7 +16643,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ73">
         <v>0.83</v>
@@ -16834,7 +16849,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -17168,7 +17183,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17246,10 +17261,10 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ76">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR76">
         <v>1.49</v>
@@ -18198,7 +18213,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18688,7 +18703,7 @@
         <v>2.25</v>
       </c>
       <c r="AP83">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>1.11</v>
@@ -18894,7 +18909,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ84">
         <v>0.83</v>
@@ -19228,7 +19243,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19640,7 +19655,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19721,7 +19736,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ88">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -19846,7 +19861,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19927,7 +19942,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ89">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR89">
         <v>1.08</v>
@@ -20133,7 +20148,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ90">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -20258,7 +20273,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20339,7 +20354,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ91">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.21</v>
@@ -20464,7 +20479,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20876,7 +20891,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20954,10 +20969,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ94">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR94">
         <v>1.49</v>
@@ -21288,7 +21303,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -22318,7 +22333,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22524,7 +22539,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22602,7 +22617,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
         <v>0.9399999999999999</v>
@@ -22730,7 +22745,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23014,7 +23029,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ104">
         <v>0.83</v>
@@ -23348,7 +23363,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23429,7 +23444,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ106">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR106">
         <v>1.96</v>
@@ -23838,7 +23853,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ108">
         <v>0.78</v>
@@ -24047,7 +24062,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ109">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR109">
         <v>1.79</v>
@@ -24172,7 +24187,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24459,7 +24474,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24868,7 +24883,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ113">
         <v>0.17</v>
@@ -24996,7 +25011,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -25614,7 +25629,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25901,7 +25916,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ118">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -26232,7 +26247,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26310,7 +26325,7 @@
         <v>0.5</v>
       </c>
       <c r="AP120">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ120">
         <v>0.83</v>
@@ -27056,7 +27071,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27343,7 +27358,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR125">
         <v>1.29</v>
@@ -27546,7 +27561,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ126">
         <v>0.9399999999999999</v>
@@ -27755,7 +27770,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ127">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27961,7 +27976,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ128">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR128">
         <v>1.58</v>
@@ -28164,7 +28179,7 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ129">
         <v>0.17</v>
@@ -28292,7 +28307,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28373,7 +28388,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ130">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR130">
         <v>1.31</v>
@@ -28704,7 +28719,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -29116,7 +29131,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29197,7 +29212,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR134">
         <v>1.32</v>
@@ -29322,7 +29337,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29400,7 +29415,7 @@
         <v>2.17</v>
       </c>
       <c r="AP135">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ135">
         <v>1.83</v>
@@ -29734,7 +29749,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -30842,7 +30857,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ142">
         <v>0.89</v>
@@ -30970,7 +30985,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31051,7 +31066,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ143">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR143">
         <v>1.13</v>
@@ -31176,7 +31191,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31588,7 +31603,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31666,10 +31681,10 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ146">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR146">
         <v>1.72</v>
@@ -31875,7 +31890,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ147">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR147">
         <v>1.56</v>
@@ -32206,7 +32221,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -32287,7 +32302,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ149">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR149">
         <v>1.29</v>
@@ -32412,7 +32427,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -33030,7 +33045,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33111,7 +33126,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ153">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR153">
         <v>1.84</v>
@@ -33442,7 +33457,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33648,7 +33663,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -34060,7 +34075,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34138,7 +34153,7 @@
         <v>0.38</v>
       </c>
       <c r="AP158">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ158">
         <v>0.83</v>
@@ -34266,7 +34281,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34550,7 +34565,7 @@
         <v>0.14</v>
       </c>
       <c r="AP160">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ160">
         <v>0.67</v>
@@ -34962,7 +34977,7 @@
         <v>0.86</v>
       </c>
       <c r="AP162">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ162">
         <v>0.83</v>
@@ -35502,7 +35517,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35580,7 +35595,7 @@
         <v>1.88</v>
       </c>
       <c r="AP165">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ165">
         <v>1.78</v>
@@ -35995,7 +36010,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ167">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR167">
         <v>1.17</v>
@@ -36326,7 +36341,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36407,7 +36422,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ169">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR169">
         <v>1.46</v>
@@ -36738,7 +36753,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36816,7 +36831,7 @@
         <v>0.25</v>
       </c>
       <c r="AP171">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171">
         <v>0.78</v>
@@ -37434,7 +37449,7 @@
         <v>1.5</v>
       </c>
       <c r="AP174">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ174">
         <v>1.11</v>
@@ -37846,10 +37861,10 @@
         <v>1.5</v>
       </c>
       <c r="AP176">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ176">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR176">
         <v>1.53</v>
@@ -37974,7 +37989,7 @@
         <v>215</v>
       </c>
       <c r="P177" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q177">
         <v>2.4</v>
@@ -38055,7 +38070,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ177">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR177">
         <v>2</v>
@@ -38180,7 +38195,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38386,7 +38401,7 @@
         <v>217</v>
       </c>
       <c r="P179" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q179">
         <v>1.8</v>
@@ -38592,7 +38607,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q180">
         <v>4.33</v>
@@ -39210,7 +39225,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -39494,7 +39509,7 @@
         <v>0.5</v>
       </c>
       <c r="AP184">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ184">
         <v>0.89</v>
@@ -39622,7 +39637,7 @@
         <v>104</v>
       </c>
       <c r="P185" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39909,7 +39924,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ186">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR186">
         <v>1.03</v>
@@ -40112,7 +40127,7 @@
         <v>0.89</v>
       </c>
       <c r="AP187">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ187">
         <v>0.67</v>
@@ -40446,7 +40461,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -41142,7 +41157,7 @@
         <v>0.33</v>
       </c>
       <c r="AP192">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ192">
         <v>0.17</v>
@@ -41270,7 +41285,7 @@
         <v>128</v>
       </c>
       <c r="P193" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41557,7 +41572,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ194">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR194">
         <v>0.96</v>
@@ -41682,7 +41697,7 @@
         <v>187</v>
       </c>
       <c r="P195" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q195">
         <v>2.38</v>
@@ -41966,10 +41981,10 @@
         <v>2.09</v>
       </c>
       <c r="AP196">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ196">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR196">
         <v>1.38</v>
@@ -42094,7 +42109,7 @@
         <v>228</v>
       </c>
       <c r="P197" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42175,7 +42190,7 @@
         <v>2</v>
       </c>
       <c r="AQ197">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR197">
         <v>1.41</v>
@@ -42300,7 +42315,7 @@
         <v>229</v>
       </c>
       <c r="P198" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q198">
         <v>1.44</v>
@@ -42584,7 +42599,7 @@
         <v>1.3</v>
       </c>
       <c r="AP199">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ199">
         <v>1.28</v>
@@ -43330,7 +43345,7 @@
         <v>104</v>
       </c>
       <c r="P203" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43411,7 +43426,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ203">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR203">
         <v>1.2</v>
@@ -43742,7 +43757,7 @@
         <v>190</v>
       </c>
       <c r="P205" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q205">
         <v>2.38</v>
@@ -43948,7 +43963,7 @@
         <v>104</v>
       </c>
       <c r="P206" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -44232,7 +44247,7 @@
         <v>1.2</v>
       </c>
       <c r="AP207">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ207">
         <v>0.9399999999999999</v>
@@ -44360,7 +44375,7 @@
         <v>104</v>
       </c>
       <c r="P208" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -45184,7 +45199,7 @@
         <v>104</v>
       </c>
       <c r="P212" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q212">
         <v>3.75</v>
@@ -45468,7 +45483,7 @@
         <v>0.9</v>
       </c>
       <c r="AP213">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ213">
         <v>0.9399999999999999</v>
@@ -46086,7 +46101,7 @@
         <v>2</v>
       </c>
       <c r="AP216">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ216">
         <v>1.78</v>
@@ -46704,7 +46719,7 @@
         <v>1.4</v>
       </c>
       <c r="AP219">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ219">
         <v>1.06</v>
@@ -46832,7 +46847,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -46913,7 +46928,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ220">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR220">
         <v>1.72</v>
@@ -47322,7 +47337,7 @@
         <v>0.27</v>
       </c>
       <c r="AP222">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ222">
         <v>0.17</v>
@@ -47450,7 +47465,7 @@
         <v>240</v>
       </c>
       <c r="P223" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47531,7 +47546,7 @@
         <v>2</v>
       </c>
       <c r="AQ223">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR223">
         <v>1.34</v>
@@ -47862,7 +47877,7 @@
         <v>158</v>
       </c>
       <c r="P225" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q225">
         <v>4.5</v>
@@ -48149,7 +48164,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ226">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR226">
         <v>1.93</v>
@@ -48892,7 +48907,7 @@
         <v>145</v>
       </c>
       <c r="P230" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -48973,7 +48988,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ230">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR230">
         <v>1.46</v>
@@ -49304,7 +49319,7 @@
         <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49510,7 +49525,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49716,7 +49731,7 @@
         <v>221</v>
       </c>
       <c r="P234" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -49794,7 +49809,7 @@
         <v>1.83</v>
       </c>
       <c r="AP234">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ234">
         <v>1.78</v>
@@ -50334,7 +50349,7 @@
         <v>247</v>
       </c>
       <c r="P237" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50412,10 +50427,10 @@
         <v>1.73</v>
       </c>
       <c r="AP237">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ237">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR237">
         <v>1.14</v>
@@ -50540,7 +50555,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -51570,7 +51585,7 @@
         <v>104</v>
       </c>
       <c r="P243" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q243">
         <v>2.6</v>
@@ -51854,7 +51869,7 @@
         <v>1.75</v>
       </c>
       <c r="AP244">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ244">
         <v>1.83</v>
@@ -51982,7 +51997,7 @@
         <v>104</v>
       </c>
       <c r="P245" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q245">
         <v>4.75</v>
@@ -52063,7 +52078,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ245">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR245">
         <v>1.34</v>
@@ -52188,7 +52203,7 @@
         <v>104</v>
       </c>
       <c r="P246" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q246">
         <v>7.5</v>
@@ -52269,7 +52284,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ246">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR246">
         <v>1.41</v>
@@ -52394,7 +52409,7 @@
         <v>250</v>
       </c>
       <c r="P247" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q247">
         <v>1.62</v>
@@ -52806,7 +52821,7 @@
         <v>178</v>
       </c>
       <c r="P249" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -52884,10 +52899,10 @@
         <v>1</v>
       </c>
       <c r="AP249">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ249">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR249">
         <v>1.32</v>
@@ -53218,7 +53233,7 @@
         <v>253</v>
       </c>
       <c r="P251" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53424,7 +53439,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q252">
         <v>3.75</v>
@@ -53630,7 +53645,7 @@
         <v>255</v>
       </c>
       <c r="P253" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -53914,7 +53929,7 @@
         <v>1.08</v>
       </c>
       <c r="AP254">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ254">
         <v>0.9399999999999999</v>
@@ -54329,7 +54344,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ256">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR256">
         <v>1.71</v>
@@ -55072,7 +55087,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55150,7 +55165,7 @@
         <v>0.42</v>
       </c>
       <c r="AP260">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ260">
         <v>0.78</v>
@@ -55690,7 +55705,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q263">
         <v>1.95</v>
@@ -55896,7 +55911,7 @@
         <v>263</v>
       </c>
       <c r="P264" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q264">
         <v>5</v>
@@ -55974,10 +55989,10 @@
         <v>1.83</v>
       </c>
       <c r="AP264">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ264">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR264">
         <v>1.32</v>
@@ -56308,7 +56323,7 @@
         <v>221</v>
       </c>
       <c r="P266" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -57004,7 +57019,7 @@
         <v>0.92</v>
       </c>
       <c r="AP269">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ269">
         <v>0.9399999999999999</v>
@@ -57132,7 +57147,7 @@
         <v>265</v>
       </c>
       <c r="P270" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q270">
         <v>3.75</v>
@@ -57750,7 +57765,7 @@
         <v>138</v>
       </c>
       <c r="P273" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q273">
         <v>3.6</v>
@@ -58162,7 +58177,7 @@
         <v>268</v>
       </c>
       <c r="P275" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58243,7 +58258,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ275">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR275">
         <v>0.95</v>
@@ -58449,7 +58464,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ276">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR276">
         <v>1.47</v>
@@ -58574,7 +58589,7 @@
         <v>269</v>
       </c>
       <c r="P277" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -58652,7 +58667,7 @@
         <v>1.08</v>
       </c>
       <c r="AP277">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ277">
         <v>1.06</v>
@@ -58780,7 +58795,7 @@
         <v>110</v>
       </c>
       <c r="P278" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q278">
         <v>3.2</v>
@@ -58858,7 +58873,7 @@
         <v>1.08</v>
       </c>
       <c r="AP278">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ278">
         <v>1.11</v>
@@ -58986,7 +59001,7 @@
         <v>270</v>
       </c>
       <c r="P279" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q279">
         <v>3.4</v>
@@ -59067,7 +59082,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ279">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR279">
         <v>1.69</v>
@@ -59682,10 +59697,10 @@
         <v>1.69</v>
       </c>
       <c r="AP282">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ282">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR282">
         <v>1.15</v>
@@ -59810,7 +59825,7 @@
         <v>104</v>
       </c>
       <c r="P283" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q283">
         <v>3.1</v>
@@ -60016,7 +60031,7 @@
         <v>273</v>
       </c>
       <c r="P284" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q284">
         <v>1.5</v>
@@ -60222,7 +60237,7 @@
         <v>274</v>
       </c>
       <c r="P285" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60300,7 +60315,7 @@
         <v>1.71</v>
       </c>
       <c r="AP285">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ285">
         <v>1.83</v>
@@ -61252,7 +61267,7 @@
         <v>253</v>
       </c>
       <c r="P290" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q290">
         <v>2.1</v>
@@ -61458,7 +61473,7 @@
         <v>104</v>
       </c>
       <c r="P291" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q291">
         <v>2.4</v>
@@ -61536,7 +61551,7 @@
         <v>0.38</v>
       </c>
       <c r="AP291">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ291">
         <v>0.67</v>
@@ -61870,7 +61885,7 @@
         <v>157</v>
       </c>
       <c r="P293" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q293">
         <v>1.73</v>
@@ -62076,7 +62091,7 @@
         <v>277</v>
       </c>
       <c r="P294" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q294">
         <v>3.25</v>
@@ -62363,7 +62378,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ295">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR295">
         <v>2.15</v>
@@ -62488,7 +62503,7 @@
         <v>166</v>
       </c>
       <c r="P296" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -62694,7 +62709,7 @@
         <v>138</v>
       </c>
       <c r="P297" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -62775,7 +62790,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ297">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR297">
         <v>1.47</v>
@@ -62900,7 +62915,7 @@
         <v>104</v>
       </c>
       <c r="P298" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q298">
         <v>5.5</v>
@@ -63187,7 +63202,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ299">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR299">
         <v>1.73</v>
@@ -63724,7 +63739,7 @@
         <v>104</v>
       </c>
       <c r="P302" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q302">
         <v>2.5</v>
@@ -63930,7 +63945,7 @@
         <v>141</v>
       </c>
       <c r="P303" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q303">
         <v>2.35</v>
@@ -64008,7 +64023,7 @@
         <v>0.8</v>
       </c>
       <c r="AP303">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ303">
         <v>0.83</v>
@@ -64136,7 +64151,7 @@
         <v>104</v>
       </c>
       <c r="P304" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q304">
         <v>2.25</v>
@@ -64342,7 +64357,7 @@
         <v>104</v>
       </c>
       <c r="P305" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64423,7 +64438,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ305">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR305">
         <v>1.02</v>
@@ -64548,7 +64563,7 @@
         <v>279</v>
       </c>
       <c r="P306" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q306">
         <v>3.1</v>
@@ -64626,7 +64641,7 @@
         <v>0.87</v>
       </c>
       <c r="AP306">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ306">
         <v>0.9399999999999999</v>
@@ -64960,7 +64975,7 @@
         <v>280</v>
       </c>
       <c r="P308" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q308">
         <v>2.88</v>
@@ -65372,7 +65387,7 @@
         <v>282</v>
       </c>
       <c r="P310" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q310">
         <v>1.5</v>
@@ -65656,7 +65671,7 @@
         <v>1.33</v>
       </c>
       <c r="AP311">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ311">
         <v>1.11</v>
@@ -65784,7 +65799,7 @@
         <v>110</v>
       </c>
       <c r="P312" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q312">
         <v>3</v>
@@ -65862,7 +65877,7 @@
         <v>0.67</v>
       </c>
       <c r="AP312">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ312">
         <v>0.78</v>
@@ -65990,7 +66005,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q313">
         <v>1.67</v>
@@ -66483,7 +66498,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ315">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR315">
         <v>1.45</v>
@@ -66608,7 +66623,7 @@
         <v>285</v>
       </c>
       <c r="P316" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66814,7 +66829,7 @@
         <v>286</v>
       </c>
       <c r="P317" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q317">
         <v>2.3</v>
@@ -67307,7 +67322,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ319">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR319">
         <v>2.1</v>
@@ -67432,7 +67447,7 @@
         <v>149</v>
       </c>
       <c r="P320" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q320">
         <v>3.5</v>
@@ -67513,7 +67528,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ320">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR320">
         <v>1.45</v>
@@ -67638,7 +67653,7 @@
         <v>121</v>
       </c>
       <c r="P321" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q321">
         <v>2.38</v>
@@ -68746,7 +68761,7 @@
         <v>1.81</v>
       </c>
       <c r="AP326">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ326">
         <v>1.78</v>
@@ -69158,7 +69173,7 @@
         <v>1.06</v>
       </c>
       <c r="AP328">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ328">
         <v>0.9399999999999999</v>
@@ -69492,7 +69507,7 @@
         <v>291</v>
       </c>
       <c r="P330" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q330">
         <v>1.62</v>
@@ -69982,7 +69997,7 @@
         <v>1.25</v>
       </c>
       <c r="AP332">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ332">
         <v>1.11</v>
@@ -70191,7 +70206,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ333">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR333">
         <v>1.25</v>
@@ -70316,7 +70331,7 @@
         <v>293</v>
       </c>
       <c r="P334" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q334">
         <v>2.05</v>
@@ -70522,7 +70537,7 @@
         <v>294</v>
       </c>
       <c r="P335" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q335">
         <v>3.2</v>
@@ -70728,7 +70743,7 @@
         <v>91</v>
       </c>
       <c r="P336" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q336">
         <v>11</v>
@@ -70809,7 +70824,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ336">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AR336">
         <v>1.09</v>
@@ -70934,7 +70949,7 @@
         <v>295</v>
       </c>
       <c r="P337" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q337">
         <v>1.73</v>
@@ -71140,7 +71155,7 @@
         <v>296</v>
       </c>
       <c r="P338" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -71346,7 +71361,7 @@
         <v>187</v>
       </c>
       <c r="P339" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q339">
         <v>3.75</v>
@@ -71424,10 +71439,10 @@
         <v>1.38</v>
       </c>
       <c r="AP339">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ339">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR339">
         <v>1.15</v>
@@ -71633,7 +71648,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ340">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR340">
         <v>1.43</v>
@@ -72376,7 +72391,7 @@
         <v>299</v>
       </c>
       <c r="P344" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q344">
         <v>2.4</v>
@@ -72582,7 +72597,7 @@
         <v>104</v>
       </c>
       <c r="P345" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q345">
         <v>3.5</v>
@@ -73200,7 +73215,7 @@
         <v>302</v>
       </c>
       <c r="P348" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q348">
         <v>3.2</v>
@@ -73406,7 +73421,7 @@
         <v>303</v>
       </c>
       <c r="P349" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q349">
         <v>2.4</v>
@@ -73818,7 +73833,7 @@
         <v>267</v>
       </c>
       <c r="P351" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q351">
         <v>2.1</v>
@@ -75153,13 +75168,13 @@
         <v>3</v>
       </c>
       <c r="AW357">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AX357">
         <v>2</v>
       </c>
       <c r="AY357">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AZ357">
         <v>5</v>
@@ -75211,6 +75226,830 @@
       </c>
       <c r="BP357">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="358" spans="1:68">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>7465339</v>
+      </c>
+      <c r="C358" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45792.58333333334</v>
+      </c>
+      <c r="F358">
+        <v>36</v>
+      </c>
+      <c r="G358" t="s">
+        <v>74</v>
+      </c>
+      <c r="H358" t="s">
+        <v>87</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>1</v>
+      </c>
+      <c r="L358">
+        <v>2</v>
+      </c>
+      <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358">
+        <v>2</v>
+      </c>
+      <c r="O358" t="s">
+        <v>306</v>
+      </c>
+      <c r="P358" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q358">
+        <v>4</v>
+      </c>
+      <c r="R358">
+        <v>2.1</v>
+      </c>
+      <c r="S358">
+        <v>2.75</v>
+      </c>
+      <c r="T358">
+        <v>1.44</v>
+      </c>
+      <c r="U358">
+        <v>2.63</v>
+      </c>
+      <c r="V358">
+        <v>3</v>
+      </c>
+      <c r="W358">
+        <v>1.36</v>
+      </c>
+      <c r="X358">
+        <v>9</v>
+      </c>
+      <c r="Y358">
+        <v>1.07</v>
+      </c>
+      <c r="Z358">
+        <v>3.6</v>
+      </c>
+      <c r="AA358">
+        <v>3.3</v>
+      </c>
+      <c r="AB358">
+        <v>2.1</v>
+      </c>
+      <c r="AC358">
+        <v>1.07</v>
+      </c>
+      <c r="AD358">
+        <v>8</v>
+      </c>
+      <c r="AE358">
+        <v>1.36</v>
+      </c>
+      <c r="AF358">
+        <v>3.1</v>
+      </c>
+      <c r="AG358">
+        <v>2.1</v>
+      </c>
+      <c r="AH358">
+        <v>1.73</v>
+      </c>
+      <c r="AI358">
+        <v>1.91</v>
+      </c>
+      <c r="AJ358">
+        <v>1.91</v>
+      </c>
+      <c r="AK358">
+        <v>1.7</v>
+      </c>
+      <c r="AL358">
+        <v>1.25</v>
+      </c>
+      <c r="AM358">
+        <v>1.28</v>
+      </c>
+      <c r="AN358">
+        <v>1.76</v>
+      </c>
+      <c r="AO358">
+        <v>1.59</v>
+      </c>
+      <c r="AP358">
+        <v>1.83</v>
+      </c>
+      <c r="AQ358">
+        <v>1.5</v>
+      </c>
+      <c r="AR358">
+        <v>1.48</v>
+      </c>
+      <c r="AS358">
+        <v>1.2</v>
+      </c>
+      <c r="AT358">
+        <v>2.68</v>
+      </c>
+      <c r="AU358">
+        <v>4</v>
+      </c>
+      <c r="AV358">
+        <v>6</v>
+      </c>
+      <c r="AW358">
+        <v>6</v>
+      </c>
+      <c r="AX358">
+        <v>4</v>
+      </c>
+      <c r="AY358">
+        <v>12</v>
+      </c>
+      <c r="AZ358">
+        <v>11</v>
+      </c>
+      <c r="BA358">
+        <v>3</v>
+      </c>
+      <c r="BB358">
+        <v>5</v>
+      </c>
+      <c r="BC358">
+        <v>8</v>
+      </c>
+      <c r="BD358">
+        <v>2.23</v>
+      </c>
+      <c r="BE358">
+        <v>6.4</v>
+      </c>
+      <c r="BF358">
+        <v>1.8</v>
+      </c>
+      <c r="BG358">
+        <v>1.32</v>
+      </c>
+      <c r="BH358">
+        <v>3.05</v>
+      </c>
+      <c r="BI358">
+        <v>1.55</v>
+      </c>
+      <c r="BJ358">
+        <v>2.28</v>
+      </c>
+      <c r="BK358">
+        <v>1.9</v>
+      </c>
+      <c r="BL358">
+        <v>1.79</v>
+      </c>
+      <c r="BM358">
+        <v>2.4</v>
+      </c>
+      <c r="BN358">
+        <v>1.49</v>
+      </c>
+      <c r="BO358">
+        <v>3.15</v>
+      </c>
+      <c r="BP358">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:68">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>7465340</v>
+      </c>
+      <c r="C359" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45792.58333333334</v>
+      </c>
+      <c r="F359">
+        <v>36</v>
+      </c>
+      <c r="G359" t="s">
+        <v>88</v>
+      </c>
+      <c r="H359" t="s">
+        <v>71</v>
+      </c>
+      <c r="I359">
+        <v>2</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>2</v>
+      </c>
+      <c r="L359">
+        <v>2</v>
+      </c>
+      <c r="M359">
+        <v>2</v>
+      </c>
+      <c r="N359">
+        <v>4</v>
+      </c>
+      <c r="O359" t="s">
+        <v>307</v>
+      </c>
+      <c r="P359" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q359">
+        <v>3.4</v>
+      </c>
+      <c r="R359">
+        <v>2.2</v>
+      </c>
+      <c r="S359">
+        <v>3</v>
+      </c>
+      <c r="T359">
+        <v>1.36</v>
+      </c>
+      <c r="U359">
+        <v>3</v>
+      </c>
+      <c r="V359">
+        <v>2.75</v>
+      </c>
+      <c r="W359">
+        <v>1.4</v>
+      </c>
+      <c r="X359">
+        <v>7</v>
+      </c>
+      <c r="Y359">
+        <v>1.1</v>
+      </c>
+      <c r="Z359">
+        <v>3</v>
+      </c>
+      <c r="AA359">
+        <v>3.3</v>
+      </c>
+      <c r="AB359">
+        <v>2.35</v>
+      </c>
+      <c r="AC359">
+        <v>1.06</v>
+      </c>
+      <c r="AD359">
+        <v>8.5</v>
+      </c>
+      <c r="AE359">
+        <v>1.3</v>
+      </c>
+      <c r="AF359">
+        <v>3.35</v>
+      </c>
+      <c r="AG359">
+        <v>1.91</v>
+      </c>
+      <c r="AH359">
+        <v>1.91</v>
+      </c>
+      <c r="AI359">
+        <v>1.7</v>
+      </c>
+      <c r="AJ359">
+        <v>2.05</v>
+      </c>
+      <c r="AK359">
+        <v>1.57</v>
+      </c>
+      <c r="AL359">
+        <v>1.25</v>
+      </c>
+      <c r="AM359">
+        <v>1.38</v>
+      </c>
+      <c r="AN359">
+        <v>1.41</v>
+      </c>
+      <c r="AO359">
+        <v>1.47</v>
+      </c>
+      <c r="AP359">
+        <v>1.39</v>
+      </c>
+      <c r="AQ359">
+        <v>1.44</v>
+      </c>
+      <c r="AR359">
+        <v>1.71</v>
+      </c>
+      <c r="AS359">
+        <v>1.42</v>
+      </c>
+      <c r="AT359">
+        <v>3.13</v>
+      </c>
+      <c r="AU359">
+        <v>7</v>
+      </c>
+      <c r="AV359">
+        <v>4</v>
+      </c>
+      <c r="AW359">
+        <v>14</v>
+      </c>
+      <c r="AX359">
+        <v>7</v>
+      </c>
+      <c r="AY359">
+        <v>22</v>
+      </c>
+      <c r="AZ359">
+        <v>14</v>
+      </c>
+      <c r="BA359">
+        <v>10</v>
+      </c>
+      <c r="BB359">
+        <v>7</v>
+      </c>
+      <c r="BC359">
+        <v>17</v>
+      </c>
+      <c r="BD359">
+        <v>1.93</v>
+      </c>
+      <c r="BE359">
+        <v>6.5</v>
+      </c>
+      <c r="BF359">
+        <v>2.05</v>
+      </c>
+      <c r="BG359">
+        <v>1.27</v>
+      </c>
+      <c r="BH359">
+        <v>3.3</v>
+      </c>
+      <c r="BI359">
+        <v>1.48</v>
+      </c>
+      <c r="BJ359">
+        <v>2.45</v>
+      </c>
+      <c r="BK359">
+        <v>1.76</v>
+      </c>
+      <c r="BL359">
+        <v>1.93</v>
+      </c>
+      <c r="BM359">
+        <v>2.18</v>
+      </c>
+      <c r="BN359">
+        <v>1.58</v>
+      </c>
+      <c r="BO359">
+        <v>2.8</v>
+      </c>
+      <c r="BP359">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="360" spans="1:68">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>7465338</v>
+      </c>
+      <c r="C360" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45792.6875</v>
+      </c>
+      <c r="F360">
+        <v>36</v>
+      </c>
+      <c r="G360" t="s">
+        <v>83</v>
+      </c>
+      <c r="H360" t="s">
+        <v>70</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+      <c r="M360">
+        <v>2</v>
+      </c>
+      <c r="N360">
+        <v>2</v>
+      </c>
+      <c r="O360" t="s">
+        <v>104</v>
+      </c>
+      <c r="P360" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q360">
+        <v>4</v>
+      </c>
+      <c r="R360">
+        <v>1.83</v>
+      </c>
+      <c r="S360">
+        <v>3.4</v>
+      </c>
+      <c r="T360">
+        <v>1.62</v>
+      </c>
+      <c r="U360">
+        <v>2.2</v>
+      </c>
+      <c r="V360">
+        <v>4</v>
+      </c>
+      <c r="W360">
+        <v>1.22</v>
+      </c>
+      <c r="X360">
+        <v>13</v>
+      </c>
+      <c r="Y360">
+        <v>1.04</v>
+      </c>
+      <c r="Z360">
+        <v>3.4</v>
+      </c>
+      <c r="AA360">
+        <v>2.75</v>
+      </c>
+      <c r="AB360">
+        <v>2.55</v>
+      </c>
+      <c r="AC360">
+        <v>1.14</v>
+      </c>
+      <c r="AD360">
+        <v>5.5</v>
+      </c>
+      <c r="AE360">
+        <v>1.6</v>
+      </c>
+      <c r="AF360">
+        <v>2.3</v>
+      </c>
+      <c r="AG360">
+        <v>3</v>
+      </c>
+      <c r="AH360">
+        <v>1.4</v>
+      </c>
+      <c r="AI360">
+        <v>2.25</v>
+      </c>
+      <c r="AJ360">
+        <v>1.57</v>
+      </c>
+      <c r="AK360">
+        <v>1.48</v>
+      </c>
+      <c r="AL360">
+        <v>1.4</v>
+      </c>
+      <c r="AM360">
+        <v>1.3</v>
+      </c>
+      <c r="AN360">
+        <v>1.12</v>
+      </c>
+      <c r="AO360">
+        <v>1.47</v>
+      </c>
+      <c r="AP360">
+        <v>1.06</v>
+      </c>
+      <c r="AQ360">
+        <v>1.56</v>
+      </c>
+      <c r="AR360">
+        <v>1.39</v>
+      </c>
+      <c r="AS360">
+        <v>1.31</v>
+      </c>
+      <c r="AT360">
+        <v>2.7</v>
+      </c>
+      <c r="AU360">
+        <v>2</v>
+      </c>
+      <c r="AV360">
+        <v>3</v>
+      </c>
+      <c r="AW360">
+        <v>10</v>
+      </c>
+      <c r="AX360">
+        <v>7</v>
+      </c>
+      <c r="AY360">
+        <v>14</v>
+      </c>
+      <c r="AZ360">
+        <v>12</v>
+      </c>
+      <c r="BA360">
+        <v>2</v>
+      </c>
+      <c r="BB360">
+        <v>5</v>
+      </c>
+      <c r="BC360">
+        <v>7</v>
+      </c>
+      <c r="BD360">
+        <v>2.32</v>
+      </c>
+      <c r="BE360">
+        <v>6.4</v>
+      </c>
+      <c r="BF360">
+        <v>1.74</v>
+      </c>
+      <c r="BG360">
+        <v>1.49</v>
+      </c>
+      <c r="BH360">
+        <v>2.4</v>
+      </c>
+      <c r="BI360">
+        <v>1.82</v>
+      </c>
+      <c r="BJ360">
+        <v>1.86</v>
+      </c>
+      <c r="BK360">
+        <v>2.32</v>
+      </c>
+      <c r="BL360">
+        <v>1.52</v>
+      </c>
+      <c r="BM360">
+        <v>3</v>
+      </c>
+      <c r="BN360">
+        <v>1.32</v>
+      </c>
+      <c r="BO360">
+        <v>4</v>
+      </c>
+      <c r="BP360">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="361" spans="1:68">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>7469592</v>
+      </c>
+      <c r="C361" t="s">
+        <v>68</v>
+      </c>
+      <c r="D361" t="s">
+        <v>69</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45792.6875</v>
+      </c>
+      <c r="F361">
+        <v>36</v>
+      </c>
+      <c r="G361" t="s">
+        <v>82</v>
+      </c>
+      <c r="H361" t="s">
+        <v>81</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+      <c r="L361">
+        <v>0</v>
+      </c>
+      <c r="M361">
+        <v>2</v>
+      </c>
+      <c r="N361">
+        <v>2</v>
+      </c>
+      <c r="O361" t="s">
+        <v>104</v>
+      </c>
+      <c r="P361" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q361">
+        <v>8</v>
+      </c>
+      <c r="R361">
+        <v>2.75</v>
+      </c>
+      <c r="S361">
+        <v>1.67</v>
+      </c>
+      <c r="T361">
+        <v>1.22</v>
+      </c>
+      <c r="U361">
+        <v>4</v>
+      </c>
+      <c r="V361">
+        <v>2.1</v>
+      </c>
+      <c r="W361">
+        <v>1.67</v>
+      </c>
+      <c r="X361">
+        <v>4.5</v>
+      </c>
+      <c r="Y361">
+        <v>1.18</v>
+      </c>
+      <c r="Z361">
+        <v>10</v>
+      </c>
+      <c r="AA361">
+        <v>5.5</v>
+      </c>
+      <c r="AB361">
+        <v>1.29</v>
+      </c>
+      <c r="AC361">
+        <v>1.01</v>
+      </c>
+      <c r="AD361">
+        <v>17</v>
+      </c>
+      <c r="AE361">
+        <v>1.14</v>
+      </c>
+      <c r="AF361">
+        <v>5.5</v>
+      </c>
+      <c r="AG361">
+        <v>1.5</v>
+      </c>
+      <c r="AH361">
+        <v>2.63</v>
+      </c>
+      <c r="AI361">
+        <v>1.8</v>
+      </c>
+      <c r="AJ361">
+        <v>1.95</v>
+      </c>
+      <c r="AK361">
+        <v>3.4</v>
+      </c>
+      <c r="AL361">
+        <v>1.1</v>
+      </c>
+      <c r="AM361">
+        <v>1.06</v>
+      </c>
+      <c r="AN361">
+        <v>1.59</v>
+      </c>
+      <c r="AO361">
+        <v>2.29</v>
+      </c>
+      <c r="AP361">
+        <v>1.5</v>
+      </c>
+      <c r="AQ361">
+        <v>2.33</v>
+      </c>
+      <c r="AR361">
+        <v>1.17</v>
+      </c>
+      <c r="AS361">
+        <v>1.77</v>
+      </c>
+      <c r="AT361">
+        <v>2.94</v>
+      </c>
+      <c r="AU361">
+        <v>2</v>
+      </c>
+      <c r="AV361">
+        <v>5</v>
+      </c>
+      <c r="AW361">
+        <v>8</v>
+      </c>
+      <c r="AX361">
+        <v>8</v>
+      </c>
+      <c r="AY361">
+        <v>14</v>
+      </c>
+      <c r="AZ361">
+        <v>15</v>
+      </c>
+      <c r="BA361">
+        <v>3</v>
+      </c>
+      <c r="BB361">
+        <v>3</v>
+      </c>
+      <c r="BC361">
+        <v>6</v>
+      </c>
+      <c r="BD361">
+        <v>4.3</v>
+      </c>
+      <c r="BE361">
+        <v>8</v>
+      </c>
+      <c r="BF361">
+        <v>1.25</v>
+      </c>
+      <c r="BG361">
+        <v>1.28</v>
+      </c>
+      <c r="BH361">
+        <v>3.2</v>
+      </c>
+      <c r="BI361">
+        <v>1.49</v>
+      </c>
+      <c r="BJ361">
+        <v>2.4</v>
+      </c>
+      <c r="BK361">
+        <v>1.81</v>
+      </c>
+      <c r="BL361">
+        <v>1.88</v>
+      </c>
+      <c r="BM361">
+        <v>2.23</v>
+      </c>
+      <c r="BN361">
+        <v>1.56</v>
+      </c>
+      <c r="BO361">
+        <v>2.9</v>
+      </c>
+      <c r="BP361">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -1318,7 +1318,7 @@
     <t>['76', '89']</t>
   </si>
   <si>
-    <t>['53', '90+5']</t>
+    <t>['53', '90+6']</t>
   </si>
 </sst>
 </file>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="445">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -940,6 +940,18 @@
     <t>['37', '45+6']</t>
   </si>
   <si>
+    <t>['5', '20', '90+1']</t>
+  </si>
+  <si>
+    <t>['17', '90+1']</t>
+  </si>
+  <si>
+    <t>['38', '45+5']</t>
+  </si>
+  <si>
+    <t>['10', '45+3', '75', '90+6']</t>
+  </si>
+  <si>
     <t>['25', '61']</t>
   </si>
   <si>
@@ -1320,6 +1332,24 @@
   <si>
     <t>['53', '90+6']</t>
   </si>
+  <si>
+    <t>['17', '45+2']</t>
+  </si>
+  <si>
+    <t>['56', '65']</t>
+  </si>
+  <si>
+    <t>['10', '77']</t>
+  </si>
+  <si>
+    <t>['75', '87']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['4', '50', '80']</t>
+  </si>
 </sst>
 </file>
 
@@ -1680,7 +1710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP361"/>
+  <dimension ref="A1:BP371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2020,7 +2050,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ2">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2226,7 +2256,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2429,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ4">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2557,7 +2587,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2635,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ5">
         <v>0.9399999999999999</v>
@@ -2763,7 +2793,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2841,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2969,7 +2999,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -3047,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ7">
         <v>2.33</v>
@@ -3175,7 +3205,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -3253,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ8">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3381,7 +3411,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3459,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ9">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3665,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3793,7 +3823,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -4077,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
         <v>0.78</v>
@@ -4205,7 +4235,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4283,10 +4313,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ13">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4489,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ14">
         <v>1.11</v>
@@ -4695,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ15">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5110,7 +5140,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ17">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5728,7 +5758,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ20">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5931,10 +5961,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ21">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6059,7 +6089,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -6343,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ23">
         <v>0.9399999999999999</v>
@@ -6471,7 +6501,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6961,10 +6991,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -7167,10 +7197,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ27">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR27">
         <v>1.31</v>
@@ -7295,7 +7325,7 @@
         <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -7373,10 +7403,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ28">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR28">
         <v>1.36</v>
@@ -7785,10 +7815,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ30">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7991,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ31">
         <v>0.17</v>
@@ -8406,7 +8436,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -8609,10 +8639,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ34">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR34">
         <v>0.87</v>
@@ -9149,7 +9179,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -9227,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ37">
         <v>0.89</v>
@@ -9355,7 +9385,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9433,10 +9463,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ38">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -9848,7 +9878,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ40">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR40">
         <v>2.11</v>
@@ -10054,7 +10084,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR41">
         <v>1.59</v>
@@ -10179,7 +10209,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -10257,10 +10287,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ42">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR42">
         <v>1.48</v>
@@ -10385,7 +10415,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10466,7 +10496,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR43">
         <v>1.17</v>
@@ -10669,10 +10699,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ44">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10797,7 +10827,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10875,10 +10905,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ45">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR45">
         <v>1.14</v>
@@ -11081,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ46">
         <v>0.17</v>
@@ -11209,7 +11239,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11415,7 +11445,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11493,10 +11523,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ48">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11699,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ49">
         <v>0.78</v>
@@ -12111,7 +12141,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ51">
         <v>1.06</v>
@@ -12320,7 +12350,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ52">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12445,7 +12475,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12526,7 +12556,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ53">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -12935,7 +12965,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ55">
         <v>1.06</v>
@@ -13063,7 +13093,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13141,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ56">
         <v>0.83</v>
@@ -13347,10 +13377,10 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ57">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR57">
         <v>1.38</v>
@@ -13556,7 +13586,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR58">
         <v>2.01</v>
@@ -13762,7 +13792,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ59">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR59">
         <v>1.14</v>
@@ -14093,7 +14123,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14505,7 +14535,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14789,7 +14819,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ64">
         <v>0.83</v>
@@ -14917,7 +14947,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14995,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ65">
         <v>0.17</v>
@@ -15123,7 +15153,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15204,7 +15234,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ66">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR66">
         <v>2.43</v>
@@ -15410,7 +15440,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -15613,10 +15643,10 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ68">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR68">
         <v>1.97</v>
@@ -15741,7 +15771,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15822,7 +15852,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR69">
         <v>1.13</v>
@@ -15947,7 +15977,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16025,10 +16055,10 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ70">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR70">
         <v>1.36</v>
@@ -16231,7 +16261,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ71">
         <v>1.5</v>
@@ -16359,7 +16389,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16437,7 +16467,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ72">
         <v>1.11</v>
@@ -16646,7 +16676,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ73">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR73">
         <v>1.15</v>
@@ -16852,7 +16882,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR74">
         <v>1.48</v>
@@ -17055,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ75">
         <v>0.78</v>
@@ -17183,7 +17213,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -17261,7 +17291,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ76">
         <v>2.33</v>
@@ -17467,10 +17497,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ77">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR77">
         <v>1.31</v>
@@ -17882,7 +17912,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -18085,10 +18115,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ80">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -18213,7 +18243,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -19115,7 +19145,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ85">
         <v>0.89</v>
@@ -19243,7 +19273,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19321,10 +19351,10 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ86">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR86">
         <v>1.15</v>
@@ -19530,7 +19560,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ87">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR87">
         <v>2.14</v>
@@ -19655,7 +19685,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19736,7 +19766,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ88">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -19861,7 +19891,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -20145,10 +20175,10 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ90">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -20273,7 +20303,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -20351,7 +20381,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -20479,7 +20509,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20766,7 +20796,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ93">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR93">
         <v>1.22</v>
@@ -20891,7 +20921,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20969,10 +20999,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ94">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR94">
         <v>1.49</v>
@@ -21303,7 +21333,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21381,10 +21411,10 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ96">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -21587,10 +21617,10 @@
         <v>1.6</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ97">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21793,10 +21823,10 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ98">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR98">
         <v>1.58</v>
@@ -22002,7 +22032,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ99">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR99">
         <v>1.66</v>
@@ -22205,7 +22235,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ100">
         <v>0.9399999999999999</v>
@@ -22333,7 +22363,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22411,7 +22441,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ101">
         <v>0.83</v>
@@ -22539,7 +22569,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22745,7 +22775,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22823,10 +22853,10 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ103">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR103">
         <v>1.21</v>
@@ -23032,7 +23062,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ104">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR104">
         <v>1.49</v>
@@ -23235,10 +23265,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ105">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR105">
         <v>1.4</v>
@@ -23363,7 +23393,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -24187,7 +24217,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24265,7 +24295,7 @@
         <v>0.5</v>
       </c>
       <c r="AP110">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ110">
         <v>0.83</v>
@@ -24471,10 +24501,10 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ111">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24883,7 +24913,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ113">
         <v>0.17</v>
@@ -25011,7 +25041,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -25092,7 +25122,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR114">
         <v>1.33</v>
@@ -25295,7 +25325,7 @@
         <v>0.6</v>
       </c>
       <c r="AP115">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ115">
         <v>0.83</v>
@@ -25501,10 +25531,10 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ116">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR116">
         <v>1.93</v>
@@ -25629,7 +25659,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25707,7 +25737,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ117">
         <v>1.06</v>
@@ -25916,7 +25946,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ118">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -26119,10 +26149,10 @@
         <v>0.4</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ119">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -26247,7 +26277,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26740,7 +26770,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ122">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR122">
         <v>1.57</v>
@@ -27071,7 +27101,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q124">
         <v>2.6</v>
@@ -27355,7 +27385,7 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ125">
         <v>1.5</v>
@@ -27564,7 +27594,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ126">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27767,10 +27797,10 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ127">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27973,7 +28003,7 @@
         <v>2.57</v>
       </c>
       <c r="AP128">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ128">
         <v>2.33</v>
@@ -28307,7 +28337,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28385,10 +28415,10 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ130">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR130">
         <v>1.31</v>
@@ -28591,10 +28621,10 @@
         <v>0.43</v>
       </c>
       <c r="AP131">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ131">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR131">
         <v>1.72</v>
@@ -28719,7 +28749,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q132">
         <v>3.75</v>
@@ -28797,7 +28827,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ132">
         <v>1.11</v>
@@ -29006,7 +29036,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ133">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -29131,7 +29161,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29209,7 +29239,7 @@
         <v>2.25</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ134">
         <v>2.33</v>
@@ -29337,7 +29367,7 @@
         <v>186</v>
       </c>
       <c r="P135" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q135">
         <v>3.25</v>
@@ -29415,10 +29445,10 @@
         <v>2.17</v>
       </c>
       <c r="AP135">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ135">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR135">
         <v>1.57</v>
@@ -29621,10 +29651,10 @@
         <v>1.33</v>
       </c>
       <c r="AP136">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ136">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR136">
         <v>1.38</v>
@@ -29749,7 +29779,7 @@
         <v>104</v>
       </c>
       <c r="P137" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q137">
         <v>7</v>
@@ -29830,7 +29860,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ137">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR137">
         <v>1.07</v>
@@ -30239,7 +30269,7 @@
         <v>0.33</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ139">
         <v>0.78</v>
@@ -30445,7 +30475,7 @@
         <v>0.86</v>
       </c>
       <c r="AP140">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ140">
         <v>0.83</v>
@@ -30654,7 +30684,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ141">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR141">
         <v>1.08</v>
@@ -30985,7 +31015,7 @@
         <v>104</v>
       </c>
       <c r="P143" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -31063,7 +31093,7 @@
         <v>1.71</v>
       </c>
       <c r="AP143">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ143">
         <v>1.5</v>
@@ -31191,7 +31221,7 @@
         <v>193</v>
       </c>
       <c r="P144" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q144">
         <v>2.4</v>
@@ -31272,7 +31302,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ144">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR144">
         <v>1.51</v>
@@ -31478,7 +31508,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ145">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR145">
         <v>1.86</v>
@@ -31603,7 +31633,7 @@
         <v>195</v>
       </c>
       <c r="P146" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q146">
         <v>3.6</v>
@@ -31684,7 +31714,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ146">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR146">
         <v>1.72</v>
@@ -31887,10 +31917,10 @@
         <v>0.86</v>
       </c>
       <c r="AP147">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ147">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR147">
         <v>1.56</v>
@@ -32093,7 +32123,7 @@
         <v>0.83</v>
       </c>
       <c r="AP148">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ148">
         <v>0.83</v>
@@ -32221,7 +32251,7 @@
         <v>198</v>
       </c>
       <c r="P149" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -32299,7 +32329,7 @@
         <v>2.11</v>
       </c>
       <c r="AP149">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ149">
         <v>2.33</v>
@@ -32427,7 +32457,7 @@
         <v>199</v>
       </c>
       <c r="P150" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32508,7 +32538,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ150">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -32711,7 +32741,7 @@
         <v>1.71</v>
       </c>
       <c r="AP151">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ151">
         <v>1.11</v>
@@ -32917,7 +32947,7 @@
         <v>0.43</v>
       </c>
       <c r="AP152">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ152">
         <v>0.17</v>
@@ -33045,7 +33075,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q153">
         <v>4.5</v>
@@ -33329,10 +33359,10 @@
         <v>1.14</v>
       </c>
       <c r="AP154">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ154">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR154">
         <v>1.29</v>
@@ -33457,7 +33487,7 @@
         <v>104</v>
       </c>
       <c r="P155" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q155">
         <v>4.75</v>
@@ -33538,7 +33568,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR155">
         <v>1.38</v>
@@ -33663,7 +33693,7 @@
         <v>104</v>
       </c>
       <c r="P156" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -33950,7 +33980,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ157">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR157">
         <v>1.3</v>
@@ -34075,7 +34105,7 @@
         <v>204</v>
       </c>
       <c r="P158" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34153,10 +34183,10 @@
         <v>0.38</v>
       </c>
       <c r="AP158">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ158">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR158">
         <v>1.47</v>
@@ -34281,7 +34311,7 @@
         <v>205</v>
       </c>
       <c r="P159" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q159">
         <v>1.91</v>
@@ -34359,7 +34389,7 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ159">
         <v>0.9399999999999999</v>
@@ -34568,7 +34598,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ160">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR160">
         <v>1.3</v>
@@ -34771,7 +34801,7 @@
         <v>0.29</v>
       </c>
       <c r="AP161">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ161">
         <v>0.78</v>
@@ -35183,10 +35213,10 @@
         <v>1.13</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ163">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR163">
         <v>1.23</v>
@@ -35389,7 +35419,7 @@
         <v>0.57</v>
       </c>
       <c r="AP164">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ164">
         <v>0.89</v>
@@ -35517,7 +35547,7 @@
         <v>209</v>
       </c>
       <c r="P165" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35598,7 +35628,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ165">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR165">
         <v>1.64</v>
@@ -35801,10 +35831,10 @@
         <v>0.29</v>
       </c>
       <c r="AP166">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ166">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR166">
         <v>1.77</v>
@@ -36010,7 +36040,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ167">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR167">
         <v>1.17</v>
@@ -36213,7 +36243,7 @@
         <v>1.13</v>
       </c>
       <c r="AP168">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ168">
         <v>0.83</v>
@@ -36341,7 +36371,7 @@
         <v>102</v>
       </c>
       <c r="P169" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36422,7 +36452,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ169">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR169">
         <v>1.46</v>
@@ -36625,10 +36655,10 @@
         <v>0.63</v>
       </c>
       <c r="AP170">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ170">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR170">
         <v>1.98</v>
@@ -36753,7 +36783,7 @@
         <v>95</v>
       </c>
       <c r="P171" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -37040,7 +37070,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ172">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR172">
         <v>1.52</v>
@@ -37655,7 +37685,7 @@
         <v>1.75</v>
       </c>
       <c r="AP175">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ175">
         <v>1.06</v>
@@ -37861,10 +37891,10 @@
         <v>1.5</v>
       </c>
       <c r="AP176">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ176">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR176">
         <v>1.53</v>
@@ -37989,7 +38019,7 @@
         <v>215</v>
       </c>
       <c r="P177" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q177">
         <v>2.4</v>
@@ -38067,7 +38097,7 @@
         <v>1.88</v>
       </c>
       <c r="AP177">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ177">
         <v>1.5</v>
@@ -38195,7 +38225,7 @@
         <v>216</v>
       </c>
       <c r="P178" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38273,10 +38303,10 @@
         <v>0.44</v>
       </c>
       <c r="AP178">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ178">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR178">
         <v>1.38</v>
@@ -38401,7 +38431,7 @@
         <v>217</v>
       </c>
       <c r="P179" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q179">
         <v>1.8</v>
@@ -38607,7 +38637,7 @@
         <v>218</v>
       </c>
       <c r="P180" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q180">
         <v>4.33</v>
@@ -38688,7 +38718,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ180">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR180">
         <v>0.99</v>
@@ -38891,10 +38921,10 @@
         <v>0.13</v>
       </c>
       <c r="AP181">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ181">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR181">
         <v>1.34</v>
@@ -39100,7 +39130,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ182">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR182">
         <v>1.81</v>
@@ -39225,7 +39255,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -39303,10 +39333,10 @@
         <v>1.78</v>
       </c>
       <c r="AP183">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ183">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39637,7 +39667,7 @@
         <v>104</v>
       </c>
       <c r="P185" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39718,7 +39748,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ185">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR185">
         <v>1.15</v>
@@ -39921,10 +39951,10 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ186">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR186">
         <v>1.03</v>
@@ -40130,7 +40160,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ187">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR187">
         <v>1.12</v>
@@ -40333,7 +40363,7 @@
         <v>0.33</v>
       </c>
       <c r="AP188">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ188">
         <v>0.78</v>
@@ -40461,7 +40491,7 @@
         <v>224</v>
       </c>
       <c r="P189" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40539,10 +40569,10 @@
         <v>0.25</v>
       </c>
       <c r="AP189">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ189">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR189">
         <v>1.34</v>
@@ -40745,7 +40775,7 @@
         <v>0.88</v>
       </c>
       <c r="AP190">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ190">
         <v>0.83</v>
@@ -40951,10 +40981,10 @@
         <v>1.89</v>
       </c>
       <c r="AP191">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ191">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR191">
         <v>1.44</v>
@@ -41285,7 +41315,7 @@
         <v>128</v>
       </c>
       <c r="P193" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41697,7 +41727,7 @@
         <v>187</v>
       </c>
       <c r="P195" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q195">
         <v>2.38</v>
@@ -41778,7 +41808,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ195">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR195">
         <v>1.78</v>
@@ -42109,7 +42139,7 @@
         <v>228</v>
       </c>
       <c r="P197" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42187,10 +42217,10 @@
         <v>1.67</v>
       </c>
       <c r="AP197">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ197">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR197">
         <v>1.41</v>
@@ -42315,7 +42345,7 @@
         <v>229</v>
       </c>
       <c r="P198" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q198">
         <v>1.44</v>
@@ -42599,10 +42629,10 @@
         <v>1.3</v>
       </c>
       <c r="AP199">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ199">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR199">
         <v>1.47</v>
@@ -42805,7 +42835,7 @@
         <v>1.56</v>
       </c>
       <c r="AP200">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ200">
         <v>1.06</v>
@@ -43217,7 +43247,7 @@
         <v>0.78</v>
       </c>
       <c r="AP202">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ202">
         <v>0.83</v>
@@ -43345,7 +43375,7 @@
         <v>104</v>
       </c>
       <c r="P203" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q203">
         <v>3.25</v>
@@ -43423,10 +43453,10 @@
         <v>0.9</v>
       </c>
       <c r="AP203">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ203">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR203">
         <v>1.2</v>
@@ -43629,10 +43659,10 @@
         <v>1.7</v>
       </c>
       <c r="AP204">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ204">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR204">
         <v>1.67</v>
@@ -43757,7 +43787,7 @@
         <v>190</v>
       </c>
       <c r="P205" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q205">
         <v>2.38</v>
@@ -43835,10 +43865,10 @@
         <v>0.11</v>
       </c>
       <c r="AP205">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ205">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR205">
         <v>1.35</v>
@@ -43963,7 +43993,7 @@
         <v>104</v>
       </c>
       <c r="P206" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q206">
         <v>8</v>
@@ -44041,10 +44071,10 @@
         <v>1.9</v>
       </c>
       <c r="AP206">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ206">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR206">
         <v>1.01</v>
@@ -44250,7 +44280,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ207">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR207">
         <v>1.57</v>
@@ -44375,7 +44405,7 @@
         <v>104</v>
       </c>
       <c r="P208" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q208">
         <v>2.6</v>
@@ -44453,10 +44483,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP208">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ208">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR208">
         <v>1.41</v>
@@ -44662,7 +44692,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ209">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR209">
         <v>1.31</v>
@@ -44865,7 +44895,7 @@
         <v>0.4</v>
       </c>
       <c r="AP210">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ210">
         <v>0.78</v>
@@ -45199,7 +45229,7 @@
         <v>104</v>
       </c>
       <c r="P212" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q212">
         <v>3.75</v>
@@ -45280,7 +45310,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ212">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR212">
         <v>0.97</v>
@@ -45895,7 +45925,7 @@
         <v>1.5</v>
       </c>
       <c r="AP215">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ215">
         <v>1.11</v>
@@ -46104,7 +46134,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ216">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR216">
         <v>1.18</v>
@@ -46307,10 +46337,10 @@
         <v>0.73</v>
       </c>
       <c r="AP217">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ217">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR217">
         <v>2.09</v>
@@ -46513,7 +46543,7 @@
         <v>0.5</v>
       </c>
       <c r="AP218">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ218">
         <v>0.89</v>
@@ -46719,7 +46749,7 @@
         <v>1.4</v>
       </c>
       <c r="AP219">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ219">
         <v>1.06</v>
@@ -46847,7 +46877,7 @@
         <v>237</v>
       </c>
       <c r="P220" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -46928,7 +46958,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ220">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR220">
         <v>1.72</v>
@@ -47465,7 +47495,7 @@
         <v>240</v>
       </c>
       <c r="P223" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q223">
         <v>3</v>
@@ -47543,10 +47573,10 @@
         <v>1.09</v>
       </c>
       <c r="AP223">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ223">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR223">
         <v>1.34</v>
@@ -47752,7 +47782,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ224">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR224">
         <v>1.44</v>
@@ -47877,7 +47907,7 @@
         <v>158</v>
       </c>
       <c r="P225" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q225">
         <v>4.5</v>
@@ -47955,10 +47985,10 @@
         <v>1.64</v>
       </c>
       <c r="AP225">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ225">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR225">
         <v>1.41</v>
@@ -48370,7 +48400,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ227">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR227">
         <v>1.1</v>
@@ -48573,10 +48603,10 @@
         <v>0.91</v>
       </c>
       <c r="AP228">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ228">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR228">
         <v>1.3</v>
@@ -48779,10 +48809,10 @@
         <v>0.2</v>
       </c>
       <c r="AP229">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ229">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR229">
         <v>1.42</v>
@@ -48907,7 +48937,7 @@
         <v>145</v>
       </c>
       <c r="P230" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -48985,7 +49015,7 @@
         <v>2</v>
       </c>
       <c r="AP230">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ230">
         <v>2.33</v>
@@ -49191,7 +49221,7 @@
         <v>0.8</v>
       </c>
       <c r="AP231">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ231">
         <v>0.83</v>
@@ -49319,7 +49349,7 @@
         <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49400,7 +49430,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ232">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR232">
         <v>1.36</v>
@@ -49525,7 +49555,7 @@
         <v>245</v>
       </c>
       <c r="P233" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49606,7 +49636,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ233">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR233">
         <v>0.95</v>
@@ -49731,7 +49761,7 @@
         <v>221</v>
       </c>
       <c r="P234" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q234">
         <v>5.5</v>
@@ -49809,10 +49839,10 @@
         <v>1.83</v>
       </c>
       <c r="AP234">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ234">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR234">
         <v>1.47</v>
@@ -50015,7 +50045,7 @@
         <v>0.45</v>
       </c>
       <c r="AP235">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ235">
         <v>0.89</v>
@@ -50349,7 +50379,7 @@
         <v>247</v>
       </c>
       <c r="P237" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q237">
         <v>5.5</v>
@@ -50430,7 +50460,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ237">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR237">
         <v>1.14</v>
@@ -50555,7 +50585,7 @@
         <v>104</v>
       </c>
       <c r="P238" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -50633,7 +50663,7 @@
         <v>0.91</v>
       </c>
       <c r="AP238">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ238">
         <v>0.9399999999999999</v>
@@ -50839,7 +50869,7 @@
         <v>0.91</v>
       </c>
       <c r="AP239">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ239">
         <v>0.83</v>
@@ -51251,10 +51281,10 @@
         <v>1.42</v>
       </c>
       <c r="AP241">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ241">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR241">
         <v>2.03</v>
@@ -51457,7 +51487,7 @@
         <v>0.82</v>
       </c>
       <c r="AP242">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ242">
         <v>0.83</v>
@@ -51585,7 +51615,7 @@
         <v>104</v>
       </c>
       <c r="P243" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q243">
         <v>2.6</v>
@@ -51666,7 +51696,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ243">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR243">
         <v>1.16</v>
@@ -51872,7 +51902,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ244">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR244">
         <v>1.68</v>
@@ -51997,7 +52027,7 @@
         <v>104</v>
       </c>
       <c r="P245" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q245">
         <v>4.75</v>
@@ -52075,7 +52105,7 @@
         <v>1.73</v>
       </c>
       <c r="AP245">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ245">
         <v>1.5</v>
@@ -52203,7 +52233,7 @@
         <v>104</v>
       </c>
       <c r="P246" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q246">
         <v>7.5</v>
@@ -52281,7 +52311,7 @@
         <v>2.08</v>
       </c>
       <c r="AP246">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ246">
         <v>2.33</v>
@@ -52409,7 +52439,7 @@
         <v>250</v>
       </c>
       <c r="P247" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q247">
         <v>1.62</v>
@@ -52696,7 +52726,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ248">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR248">
         <v>2.01</v>
@@ -52821,7 +52851,7 @@
         <v>178</v>
       </c>
       <c r="P249" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q249">
         <v>3.5</v>
@@ -52902,7 +52932,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ249">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR249">
         <v>1.32</v>
@@ -53105,10 +53135,10 @@
         <v>0.83</v>
       </c>
       <c r="AP250">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ250">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR250">
         <v>1.44</v>
@@ -53233,7 +53263,7 @@
         <v>253</v>
       </c>
       <c r="P251" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53311,7 +53341,7 @@
         <v>1.36</v>
       </c>
       <c r="AP251">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ251">
         <v>1.11</v>
@@ -53439,7 +53469,7 @@
         <v>254</v>
       </c>
       <c r="P252" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q252">
         <v>3.75</v>
@@ -53517,7 +53547,7 @@
         <v>0.83</v>
       </c>
       <c r="AP252">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ252">
         <v>0.83</v>
@@ -53645,7 +53675,7 @@
         <v>255</v>
       </c>
       <c r="P253" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q253">
         <v>2.75</v>
@@ -54138,7 +54168,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ255">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR255">
         <v>1.79</v>
@@ -54341,10 +54371,10 @@
         <v>1.67</v>
       </c>
       <c r="AP256">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ256">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR256">
         <v>1.71</v>
@@ -54550,7 +54580,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ257">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR257">
         <v>0.96</v>
@@ -54753,7 +54783,7 @@
         <v>1.17</v>
       </c>
       <c r="AP258">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ258">
         <v>1.06</v>
@@ -54959,10 +54989,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP259">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ259">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR259">
         <v>1.28</v>
@@ -55087,7 +55117,7 @@
         <v>259</v>
       </c>
       <c r="P260" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55165,7 +55195,7 @@
         <v>0.42</v>
       </c>
       <c r="AP260">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ260">
         <v>0.78</v>
@@ -55371,10 +55401,10 @@
         <v>0.77</v>
       </c>
       <c r="AP261">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ261">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR261">
         <v>1.39</v>
@@ -55580,7 +55610,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ262">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR262">
         <v>1.2</v>
@@ -55705,7 +55735,7 @@
         <v>262</v>
       </c>
       <c r="P263" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q263">
         <v>1.95</v>
@@ -55783,7 +55813,7 @@
         <v>0.23</v>
       </c>
       <c r="AP263">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ263">
         <v>0.17</v>
@@ -55911,7 +55941,7 @@
         <v>263</v>
       </c>
       <c r="P264" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q264">
         <v>5</v>
@@ -56198,7 +56228,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ265">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR265">
         <v>2.04</v>
@@ -56323,7 +56353,7 @@
         <v>221</v>
       </c>
       <c r="P266" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q266">
         <v>2.25</v>
@@ -56813,7 +56843,7 @@
         <v>1.08</v>
       </c>
       <c r="AP268">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ268">
         <v>0.9399999999999999</v>
@@ -57022,7 +57052,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ269">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR269">
         <v>1.16</v>
@@ -57147,7 +57177,7 @@
         <v>265</v>
       </c>
       <c r="P270" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q270">
         <v>3.75</v>
@@ -57225,10 +57255,10 @@
         <v>0.71</v>
       </c>
       <c r="AP270">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ270">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR270">
         <v>1.38</v>
@@ -57431,7 +57461,7 @@
         <v>0.54</v>
       </c>
       <c r="AP271">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ271">
         <v>0.89</v>
@@ -57637,10 +57667,10 @@
         <v>0.42</v>
       </c>
       <c r="AP272">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ272">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR272">
         <v>1.3</v>
@@ -57765,7 +57795,7 @@
         <v>138</v>
       </c>
       <c r="P273" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q273">
         <v>3.6</v>
@@ -57846,7 +57876,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ273">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR273">
         <v>1.64</v>
@@ -58177,7 +58207,7 @@
         <v>268</v>
       </c>
       <c r="P275" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q275">
         <v>4.33</v>
@@ -58258,7 +58288,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ275">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR275">
         <v>0.95</v>
@@ -58461,10 +58491,10 @@
         <v>1.54</v>
       </c>
       <c r="AP276">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ276">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR276">
         <v>1.47</v>
@@ -58589,7 +58619,7 @@
         <v>269</v>
       </c>
       <c r="P277" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q277">
         <v>3.4</v>
@@ -58795,7 +58825,7 @@
         <v>110</v>
       </c>
       <c r="P278" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q278">
         <v>3.2</v>
@@ -58873,10 +58903,10 @@
         <v>1.08</v>
       </c>
       <c r="AP278">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ278">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR278">
         <v>1.48</v>
@@ -59001,7 +59031,7 @@
         <v>270</v>
       </c>
       <c r="P279" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q279">
         <v>3.4</v>
@@ -59079,7 +59109,7 @@
         <v>2.14</v>
       </c>
       <c r="AP279">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ279">
         <v>2.33</v>
@@ -59285,7 +59315,7 @@
         <v>0.75</v>
       </c>
       <c r="AP280">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ280">
         <v>0.83</v>
@@ -59491,7 +59521,7 @@
         <v>0.21</v>
       </c>
       <c r="AP281">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ281">
         <v>0.17</v>
@@ -59825,7 +59855,7 @@
         <v>104</v>
       </c>
       <c r="P283" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q283">
         <v>3.1</v>
@@ -59906,7 +59936,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ283">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR283">
         <v>1.18</v>
@@ -60031,7 +60061,7 @@
         <v>273</v>
       </c>
       <c r="P284" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q284">
         <v>1.5</v>
@@ -60112,7 +60142,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ284">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR284">
         <v>1.99</v>
@@ -60237,7 +60267,7 @@
         <v>274</v>
       </c>
       <c r="P285" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60318,7 +60348,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ285">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR285">
         <v>1.33</v>
@@ -60521,10 +60551,10 @@
         <v>0.93</v>
       </c>
       <c r="AP286">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ286">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR286">
         <v>2.13</v>
@@ -60727,7 +60757,7 @@
         <v>1.31</v>
       </c>
       <c r="AP287">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ287">
         <v>1.11</v>
@@ -61267,7 +61297,7 @@
         <v>253</v>
       </c>
       <c r="P290" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q290">
         <v>2.1</v>
@@ -61345,7 +61375,7 @@
         <v>0.79</v>
       </c>
       <c r="AP290">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ290">
         <v>0.83</v>
@@ -61473,7 +61503,7 @@
         <v>104</v>
       </c>
       <c r="P291" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q291">
         <v>2.4</v>
@@ -61554,7 +61584,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ291">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR291">
         <v>1.69</v>
@@ -61760,7 +61790,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ292">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR292">
         <v>1.44</v>
@@ -61885,7 +61915,7 @@
         <v>157</v>
       </c>
       <c r="P293" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q293">
         <v>1.73</v>
@@ -62091,7 +62121,7 @@
         <v>277</v>
       </c>
       <c r="P294" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q294">
         <v>3.25</v>
@@ -62169,7 +62199,7 @@
         <v>0.71</v>
       </c>
       <c r="AP294">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ294">
         <v>0.89</v>
@@ -62375,10 +62405,10 @@
         <v>1.29</v>
       </c>
       <c r="AP295">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ295">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR295">
         <v>2.15</v>
@@ -62503,7 +62533,7 @@
         <v>166</v>
       </c>
       <c r="P296" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -62581,7 +62611,7 @@
         <v>1.07</v>
       </c>
       <c r="AP296">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ296">
         <v>1.06</v>
@@ -62709,7 +62739,7 @@
         <v>138</v>
       </c>
       <c r="P297" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -62787,7 +62817,7 @@
         <v>1.64</v>
       </c>
       <c r="AP297">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ297">
         <v>1.5</v>
@@ -62915,7 +62945,7 @@
         <v>104</v>
       </c>
       <c r="P298" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q298">
         <v>5.5</v>
@@ -62993,10 +63023,10 @@
         <v>1.21</v>
       </c>
       <c r="AP298">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ298">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR298">
         <v>1.09</v>
@@ -63202,7 +63232,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ299">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR299">
         <v>1.73</v>
@@ -63611,7 +63641,7 @@
         <v>1.13</v>
       </c>
       <c r="AP301">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ301">
         <v>0.9399999999999999</v>
@@ -63739,7 +63769,7 @@
         <v>104</v>
       </c>
       <c r="P302" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q302">
         <v>2.5</v>
@@ -63817,7 +63847,7 @@
         <v>1.21</v>
       </c>
       <c r="AP302">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ302">
         <v>1.11</v>
@@ -63945,7 +63975,7 @@
         <v>141</v>
       </c>
       <c r="P303" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q303">
         <v>2.35</v>
@@ -64151,7 +64181,7 @@
         <v>104</v>
       </c>
       <c r="P304" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q304">
         <v>2.25</v>
@@ -64229,10 +64259,10 @@
         <v>0.57</v>
       </c>
       <c r="AP304">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ304">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR304">
         <v>1.42</v>
@@ -64357,7 +64387,7 @@
         <v>104</v>
       </c>
       <c r="P305" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64563,7 +64593,7 @@
         <v>279</v>
       </c>
       <c r="P306" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q306">
         <v>3.1</v>
@@ -64641,10 +64671,10 @@
         <v>0.87</v>
       </c>
       <c r="AP306">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ306">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR306">
         <v>1.48</v>
@@ -64850,7 +64880,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ307">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR307">
         <v>1.21</v>
@@ -64975,7 +65005,7 @@
         <v>280</v>
       </c>
       <c r="P308" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q308">
         <v>2.88</v>
@@ -65056,7 +65086,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ308">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR308">
         <v>1.78</v>
@@ -65262,7 +65292,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ309">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR309">
         <v>1.65</v>
@@ -65387,7 +65417,7 @@
         <v>282</v>
       </c>
       <c r="P310" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q310">
         <v>1.5</v>
@@ -65465,7 +65495,7 @@
         <v>0.2</v>
       </c>
       <c r="AP310">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ310">
         <v>0.17</v>
@@ -65674,7 +65704,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ311">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR311">
         <v>1.14</v>
@@ -65799,7 +65829,7 @@
         <v>110</v>
       </c>
       <c r="P312" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q312">
         <v>3</v>
@@ -66005,7 +66035,7 @@
         <v>284</v>
       </c>
       <c r="P313" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q313">
         <v>1.67</v>
@@ -66083,7 +66113,7 @@
         <v>0.87</v>
       </c>
       <c r="AP313">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ313">
         <v>0.89</v>
@@ -66289,10 +66319,10 @@
         <v>0.67</v>
       </c>
       <c r="AP314">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ314">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR314">
         <v>1.31</v>
@@ -66495,7 +66525,7 @@
         <v>1.73</v>
       </c>
       <c r="AP315">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ315">
         <v>1.5</v>
@@ -66623,7 +66653,7 @@
         <v>285</v>
       </c>
       <c r="P316" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q316">
         <v>4.75</v>
@@ -66701,7 +66731,7 @@
         <v>0.73</v>
       </c>
       <c r="AP316">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ316">
         <v>0.83</v>
@@ -66829,7 +66859,7 @@
         <v>286</v>
       </c>
       <c r="P317" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q317">
         <v>2.3</v>
@@ -67113,10 +67143,10 @@
         <v>0.88</v>
       </c>
       <c r="AP318">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ318">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR318">
         <v>1.47</v>
@@ -67322,7 +67352,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ319">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR319">
         <v>2.1</v>
@@ -67447,7 +67477,7 @@
         <v>149</v>
       </c>
       <c r="P320" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q320">
         <v>3.5</v>
@@ -67528,7 +67558,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ320">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR320">
         <v>1.45</v>
@@ -67653,7 +67683,7 @@
         <v>121</v>
       </c>
       <c r="P321" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q321">
         <v>2.38</v>
@@ -67731,10 +67761,10 @@
         <v>0.73</v>
       </c>
       <c r="AP321">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ321">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR321">
         <v>1.39</v>
@@ -67937,7 +67967,7 @@
         <v>1.33</v>
       </c>
       <c r="AP322">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ322">
         <v>1.11</v>
@@ -68349,10 +68379,10 @@
         <v>1.88</v>
       </c>
       <c r="AP324">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ324">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR324">
         <v>1.47</v>
@@ -68764,7 +68794,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ326">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR326">
         <v>1.34</v>
@@ -68970,7 +69000,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ327">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR327">
         <v>1.01</v>
@@ -69173,7 +69203,7 @@
         <v>1.06</v>
       </c>
       <c r="AP328">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ328">
         <v>0.9399999999999999</v>
@@ -69379,10 +69409,10 @@
         <v>1.25</v>
       </c>
       <c r="AP329">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ329">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR329">
         <v>1.71</v>
@@ -69507,7 +69537,7 @@
         <v>291</v>
       </c>
       <c r="P330" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q330">
         <v>1.62</v>
@@ -69794,7 +69824,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ331">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR331">
         <v>1.74</v>
@@ -70000,7 +70030,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ332">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR332">
         <v>1.71</v>
@@ -70331,7 +70361,7 @@
         <v>293</v>
       </c>
       <c r="P334" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q334">
         <v>2.05</v>
@@ -70537,7 +70567,7 @@
         <v>294</v>
       </c>
       <c r="P335" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q335">
         <v>3.2</v>
@@ -70615,7 +70645,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP335">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ335">
         <v>0.78</v>
@@ -70743,7 +70773,7 @@
         <v>91</v>
       </c>
       <c r="P336" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q336">
         <v>11</v>
@@ -70821,7 +70851,7 @@
         <v>2.25</v>
       </c>
       <c r="AP336">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ336">
         <v>2.33</v>
@@ -70949,7 +70979,7 @@
         <v>295</v>
       </c>
       <c r="P337" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q337">
         <v>1.73</v>
@@ -71155,7 +71185,7 @@
         <v>296</v>
       </c>
       <c r="P338" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q338">
         <v>2.5</v>
@@ -71233,10 +71263,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP338">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ338">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR338">
         <v>1.45</v>
@@ -71361,7 +71391,7 @@
         <v>187</v>
       </c>
       <c r="P339" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q339">
         <v>3.75</v>
@@ -71442,7 +71472,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ339">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR339">
         <v>1.15</v>
@@ -71645,10 +71675,10 @@
         <v>1.5</v>
       </c>
       <c r="AP340">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ340">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR340">
         <v>1.43</v>
@@ -72057,10 +72087,10 @@
         <v>1.18</v>
       </c>
       <c r="AP342">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ342">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR342">
         <v>1.44</v>
@@ -72263,10 +72293,10 @@
         <v>1.18</v>
       </c>
       <c r="AP343">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ343">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AR343">
         <v>1.44</v>
@@ -72391,7 +72421,7 @@
         <v>299</v>
       </c>
       <c r="P344" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q344">
         <v>2.4</v>
@@ -72469,7 +72499,7 @@
         <v>1</v>
       </c>
       <c r="AP344">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ344">
         <v>0.9399999999999999</v>
@@ -72597,7 +72627,7 @@
         <v>104</v>
       </c>
       <c r="P345" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q345">
         <v>3.5</v>
@@ -72678,7 +72708,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ345">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AR345">
         <v>1.48</v>
@@ -72881,7 +72911,7 @@
         <v>0.18</v>
       </c>
       <c r="AP346">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ346">
         <v>0.17</v>
@@ -73087,7 +73117,7 @@
         <v>1.12</v>
       </c>
       <c r="AP347">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ347">
         <v>1.06</v>
@@ -73215,7 +73245,7 @@
         <v>302</v>
       </c>
       <c r="P348" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q348">
         <v>3.2</v>
@@ -73296,7 +73326,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ348">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR348">
         <v>0.99</v>
@@ -73421,7 +73451,7 @@
         <v>303</v>
       </c>
       <c r="P349" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q349">
         <v>2.4</v>
@@ -73499,10 +73529,10 @@
         <v>1.88</v>
       </c>
       <c r="AP349">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AQ349">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AR349">
         <v>2.27</v>
@@ -73708,7 +73738,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ350">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR350">
         <v>1.64</v>
@@ -73833,7 +73863,7 @@
         <v>267</v>
       </c>
       <c r="P351" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q351">
         <v>2.1</v>
@@ -74117,10 +74147,10 @@
         <v>0.82</v>
       </c>
       <c r="AP352">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AQ352">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR352">
         <v>1.07</v>
@@ -74323,7 +74353,7 @@
         <v>0.76</v>
       </c>
       <c r="AP353">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ353">
         <v>0.89</v>
@@ -74529,7 +74559,7 @@
         <v>0.88</v>
       </c>
       <c r="AP354">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AQ354">
         <v>0.83</v>
@@ -74944,7 +74974,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ356">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR356">
         <v>1.74</v>
@@ -75353,7 +75383,7 @@
         <v>1.59</v>
       </c>
       <c r="AP358">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AQ358">
         <v>1.5</v>
@@ -75481,7 +75511,7 @@
         <v>307</v>
       </c>
       <c r="P359" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q359">
         <v>3.4</v>
@@ -75562,7 +75592,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ359">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR359">
         <v>1.71</v>
@@ -75687,7 +75717,7 @@
         <v>104</v>
       </c>
       <c r="P360" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q360">
         <v>4</v>
@@ -75768,7 +75798,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ360">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR360">
         <v>1.39</v>
@@ -75893,7 +75923,7 @@
         <v>104</v>
       </c>
       <c r="P361" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q361">
         <v>8</v>
@@ -76049,6 +76079,2066 @@
         <v>2.9</v>
       </c>
       <c r="BP361">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="362" spans="1:68">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>7465349</v>
+      </c>
+      <c r="C362" t="s">
+        <v>68</v>
+      </c>
+      <c r="D362" t="s">
+        <v>69</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F362">
+        <v>37</v>
+      </c>
+      <c r="G362" t="s">
+        <v>75</v>
+      </c>
+      <c r="H362" t="s">
+        <v>70</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>0</v>
+      </c>
+      <c r="M362">
+        <v>1</v>
+      </c>
+      <c r="N362">
+        <v>1</v>
+      </c>
+      <c r="O362" t="s">
+        <v>104</v>
+      </c>
+      <c r="P362" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q362">
+        <v>3.55</v>
+      </c>
+      <c r="R362">
+        <v>2</v>
+      </c>
+      <c r="S362">
+        <v>3</v>
+      </c>
+      <c r="T362">
+        <v>1.45</v>
+      </c>
+      <c r="U362">
+        <v>2.55</v>
+      </c>
+      <c r="V362">
+        <v>3.1</v>
+      </c>
+      <c r="W362">
+        <v>1.33</v>
+      </c>
+      <c r="X362">
+        <v>7.5</v>
+      </c>
+      <c r="Y362">
+        <v>1.06</v>
+      </c>
+      <c r="Z362">
+        <v>2.98</v>
+      </c>
+      <c r="AA362">
+        <v>3.15</v>
+      </c>
+      <c r="AB362">
+        <v>2.4</v>
+      </c>
+      <c r="AC362">
+        <v>1.08</v>
+      </c>
+      <c r="AD362">
+        <v>7.5</v>
+      </c>
+      <c r="AE362">
+        <v>1.4</v>
+      </c>
+      <c r="AF362">
+        <v>2.88</v>
+      </c>
+      <c r="AG362">
+        <v>2.2</v>
+      </c>
+      <c r="AH362">
+        <v>1.65</v>
+      </c>
+      <c r="AI362">
+        <v>1.85</v>
+      </c>
+      <c r="AJ362">
+        <v>1.85</v>
+      </c>
+      <c r="AK362">
+        <v>1.55</v>
+      </c>
+      <c r="AL362">
+        <v>1.3</v>
+      </c>
+      <c r="AM362">
+        <v>1.38</v>
+      </c>
+      <c r="AN362">
+        <v>1.72</v>
+      </c>
+      <c r="AO362">
+        <v>1.56</v>
+      </c>
+      <c r="AP362">
+        <v>1.63</v>
+      </c>
+      <c r="AQ362">
+        <v>1.63</v>
+      </c>
+      <c r="AR362">
+        <v>1.44</v>
+      </c>
+      <c r="AS362">
+        <v>1.3</v>
+      </c>
+      <c r="AT362">
+        <v>2.74</v>
+      </c>
+      <c r="AU362">
+        <v>3</v>
+      </c>
+      <c r="AV362">
+        <v>5</v>
+      </c>
+      <c r="AW362">
+        <v>5</v>
+      </c>
+      <c r="AX362">
+        <v>6</v>
+      </c>
+      <c r="AY362">
+        <v>11</v>
+      </c>
+      <c r="AZ362">
+        <v>16</v>
+      </c>
+      <c r="BA362">
+        <v>5</v>
+      </c>
+      <c r="BB362">
+        <v>3</v>
+      </c>
+      <c r="BC362">
+        <v>8</v>
+      </c>
+      <c r="BD362">
+        <v>2.43</v>
+      </c>
+      <c r="BE362">
+        <v>6.4</v>
+      </c>
+      <c r="BF362">
+        <v>1.68</v>
+      </c>
+      <c r="BG362">
+        <v>1.3</v>
+      </c>
+      <c r="BH362">
+        <v>3.05</v>
+      </c>
+      <c r="BI362">
+        <v>1.54</v>
+      </c>
+      <c r="BJ362">
+        <v>2.3</v>
+      </c>
+      <c r="BK362">
+        <v>1.86</v>
+      </c>
+      <c r="BL362">
+        <v>1.82</v>
+      </c>
+      <c r="BM362">
+        <v>2.33</v>
+      </c>
+      <c r="BN362">
+        <v>1.5</v>
+      </c>
+      <c r="BO362">
+        <v>3.05</v>
+      </c>
+      <c r="BP362">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="363" spans="1:68">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>7465348</v>
+      </c>
+      <c r="C363" t="s">
+        <v>68</v>
+      </c>
+      <c r="D363" t="s">
+        <v>69</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F363">
+        <v>37</v>
+      </c>
+      <c r="G363" t="s">
+        <v>72</v>
+      </c>
+      <c r="H363" t="s">
+        <v>88</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363">
+        <v>2</v>
+      </c>
+      <c r="K363">
+        <v>3</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
+      </c>
+      <c r="M363">
+        <v>2</v>
+      </c>
+      <c r="N363">
+        <v>3</v>
+      </c>
+      <c r="O363" t="s">
+        <v>297</v>
+      </c>
+      <c r="P363" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q363">
+        <v>2.33</v>
+      </c>
+      <c r="R363">
+        <v>2.26</v>
+      </c>
+      <c r="S363">
+        <v>4.65</v>
+      </c>
+      <c r="T363">
+        <v>1.33</v>
+      </c>
+      <c r="U363">
+        <v>3.12</v>
+      </c>
+      <c r="V363">
+        <v>2.56</v>
+      </c>
+      <c r="W363">
+        <v>1.47</v>
+      </c>
+      <c r="X363">
+        <v>6</v>
+      </c>
+      <c r="Y363">
+        <v>1.08</v>
+      </c>
+      <c r="Z363">
+        <v>1.8</v>
+      </c>
+      <c r="AA363">
+        <v>3.88</v>
+      </c>
+      <c r="AB363">
+        <v>4.3</v>
+      </c>
+      <c r="AC363">
+        <v>1</v>
+      </c>
+      <c r="AD363">
+        <v>11</v>
+      </c>
+      <c r="AE363">
+        <v>1.22</v>
+      </c>
+      <c r="AF363">
+        <v>3.92</v>
+      </c>
+      <c r="AG363">
+        <v>1.76</v>
+      </c>
+      <c r="AH363">
+        <v>2.08</v>
+      </c>
+      <c r="AI363">
+        <v>1.67</v>
+      </c>
+      <c r="AJ363">
+        <v>2.08</v>
+      </c>
+      <c r="AK363">
+        <v>1.24</v>
+      </c>
+      <c r="AL363">
+        <v>1.28</v>
+      </c>
+      <c r="AM363">
+        <v>2.05</v>
+      </c>
+      <c r="AN363">
+        <v>2</v>
+      </c>
+      <c r="AO363">
+        <v>1.28</v>
+      </c>
+      <c r="AP363">
+        <v>1.89</v>
+      </c>
+      <c r="AQ363">
+        <v>1.37</v>
+      </c>
+      <c r="AR363">
+        <v>1.51</v>
+      </c>
+      <c r="AS363">
+        <v>1.27</v>
+      </c>
+      <c r="AT363">
+        <v>2.78</v>
+      </c>
+      <c r="AU363">
+        <v>8</v>
+      </c>
+      <c r="AV363">
+        <v>3</v>
+      </c>
+      <c r="AW363">
+        <v>17</v>
+      </c>
+      <c r="AX363">
+        <v>5</v>
+      </c>
+      <c r="AY363">
+        <v>28</v>
+      </c>
+      <c r="AZ363">
+        <v>9</v>
+      </c>
+      <c r="BA363">
+        <v>9</v>
+      </c>
+      <c r="BB363">
+        <v>2</v>
+      </c>
+      <c r="BC363">
+        <v>11</v>
+      </c>
+      <c r="BD363">
+        <v>1.73</v>
+      </c>
+      <c r="BE363">
+        <v>6.25</v>
+      </c>
+      <c r="BF363">
+        <v>2.35</v>
+      </c>
+      <c r="BG363">
+        <v>1.34</v>
+      </c>
+      <c r="BH363">
+        <v>2.9</v>
+      </c>
+      <c r="BI363">
+        <v>1.58</v>
+      </c>
+      <c r="BJ363">
+        <v>2.2</v>
+      </c>
+      <c r="BK363">
+        <v>1.95</v>
+      </c>
+      <c r="BL363">
+        <v>1.75</v>
+      </c>
+      <c r="BM363">
+        <v>2.45</v>
+      </c>
+      <c r="BN363">
+        <v>1.48</v>
+      </c>
+      <c r="BO363">
+        <v>3.2</v>
+      </c>
+      <c r="BP363">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="364" spans="1:68">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>7465350</v>
+      </c>
+      <c r="C364" t="s">
+        <v>68</v>
+      </c>
+      <c r="D364" t="s">
+        <v>69</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F364">
+        <v>37</v>
+      </c>
+      <c r="G364" t="s">
+        <v>77</v>
+      </c>
+      <c r="H364" t="s">
+        <v>83</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>1</v>
+      </c>
+      <c r="M364">
+        <v>2</v>
+      </c>
+      <c r="N364">
+        <v>3</v>
+      </c>
+      <c r="O364" t="s">
+        <v>223</v>
+      </c>
+      <c r="P364" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q364">
+        <v>2.96</v>
+      </c>
+      <c r="R364">
+        <v>1.89</v>
+      </c>
+      <c r="S364">
+        <v>4.55</v>
+      </c>
+      <c r="T364">
+        <v>1.57</v>
+      </c>
+      <c r="U364">
+        <v>2.36</v>
+      </c>
+      <c r="V364">
+        <v>3.8</v>
+      </c>
+      <c r="W364">
+        <v>1.22</v>
+      </c>
+      <c r="X364">
+        <v>9</v>
+      </c>
+      <c r="Y364">
+        <v>1.01</v>
+      </c>
+      <c r="Z364">
+        <v>2.2</v>
+      </c>
+      <c r="AA364">
+        <v>3.15</v>
+      </c>
+      <c r="AB364">
+        <v>3.65</v>
+      </c>
+      <c r="AC364">
+        <v>1.07</v>
+      </c>
+      <c r="AD364">
+        <v>7.2</v>
+      </c>
+      <c r="AE364">
+        <v>1.55</v>
+      </c>
+      <c r="AF364">
+        <v>2.48</v>
+      </c>
+      <c r="AG364">
+        <v>2.63</v>
+      </c>
+      <c r="AH364">
+        <v>1.44</v>
+      </c>
+      <c r="AI364">
+        <v>2.17</v>
+      </c>
+      <c r="AJ364">
+        <v>1.61</v>
+      </c>
+      <c r="AK364">
+        <v>1.3</v>
+      </c>
+      <c r="AL364">
+        <v>1.38</v>
+      </c>
+      <c r="AM364">
+        <v>1.7</v>
+      </c>
+      <c r="AN364">
+        <v>1.5</v>
+      </c>
+      <c r="AO364">
+        <v>1.11</v>
+      </c>
+      <c r="AP364">
+        <v>1.42</v>
+      </c>
+      <c r="AQ364">
+        <v>1.21</v>
+      </c>
+      <c r="AR364">
+        <v>1.31</v>
+      </c>
+      <c r="AS364">
+        <v>1.18</v>
+      </c>
+      <c r="AT364">
+        <v>2.49</v>
+      </c>
+      <c r="AU364">
+        <v>2</v>
+      </c>
+      <c r="AV364">
+        <v>5</v>
+      </c>
+      <c r="AW364">
+        <v>6</v>
+      </c>
+      <c r="AX364">
+        <v>6</v>
+      </c>
+      <c r="AY364">
+        <v>10</v>
+      </c>
+      <c r="AZ364">
+        <v>12</v>
+      </c>
+      <c r="BA364">
+        <v>3</v>
+      </c>
+      <c r="BB364">
+        <v>4</v>
+      </c>
+      <c r="BC364">
+        <v>7</v>
+      </c>
+      <c r="BD364">
+        <v>1.89</v>
+      </c>
+      <c r="BE364">
+        <v>6.4</v>
+      </c>
+      <c r="BF364">
+        <v>2.15</v>
+      </c>
+      <c r="BG364">
+        <v>1.44</v>
+      </c>
+      <c r="BH364">
+        <v>2.55</v>
+      </c>
+      <c r="BI364">
+        <v>1.74</v>
+      </c>
+      <c r="BJ364">
+        <v>1.96</v>
+      </c>
+      <c r="BK364">
+        <v>2.18</v>
+      </c>
+      <c r="BL364">
+        <v>1.58</v>
+      </c>
+      <c r="BM364">
+        <v>2.8</v>
+      </c>
+      <c r="BN364">
+        <v>1.36</v>
+      </c>
+      <c r="BO364">
+        <v>3.8</v>
+      </c>
+      <c r="BP364">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="365" spans="1:68">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>7465351</v>
+      </c>
+      <c r="C365" t="s">
+        <v>68</v>
+      </c>
+      <c r="D365" t="s">
+        <v>69</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F365">
+        <v>37</v>
+      </c>
+      <c r="G365" t="s">
+        <v>76</v>
+      </c>
+      <c r="H365" t="s">
+        <v>89</v>
+      </c>
+      <c r="I365">
+        <v>2</v>
+      </c>
+      <c r="J365">
+        <v>1</v>
+      </c>
+      <c r="K365">
+        <v>3</v>
+      </c>
+      <c r="L365">
+        <v>3</v>
+      </c>
+      <c r="M365">
+        <v>2</v>
+      </c>
+      <c r="N365">
+        <v>5</v>
+      </c>
+      <c r="O365" t="s">
+        <v>308</v>
+      </c>
+      <c r="P365" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q365">
+        <v>2.92</v>
+      </c>
+      <c r="R365">
+        <v>1.9</v>
+      </c>
+      <c r="S365">
+        <v>4.6</v>
+      </c>
+      <c r="T365">
+        <v>1.53</v>
+      </c>
+      <c r="U365">
+        <v>2.39</v>
+      </c>
+      <c r="V365">
+        <v>3.08</v>
+      </c>
+      <c r="W365">
+        <v>1.34</v>
+      </c>
+      <c r="X365">
+        <v>7.4</v>
+      </c>
+      <c r="Y365">
+        <v>1.04</v>
+      </c>
+      <c r="Z365">
+        <v>2.23</v>
+      </c>
+      <c r="AA365">
+        <v>3</v>
+      </c>
+      <c r="AB365">
+        <v>3.8</v>
+      </c>
+      <c r="AC365">
+        <v>1.06</v>
+      </c>
+      <c r="AD365">
+        <v>6.55</v>
+      </c>
+      <c r="AE365">
+        <v>1.36</v>
+      </c>
+      <c r="AF365">
+        <v>2.95</v>
+      </c>
+      <c r="AG365">
+        <v>2.14</v>
+      </c>
+      <c r="AH365">
+        <v>1.72</v>
+      </c>
+      <c r="AI365">
+        <v>1.83</v>
+      </c>
+      <c r="AJ365">
+        <v>1.87</v>
+      </c>
+      <c r="AK365">
+        <v>1.28</v>
+      </c>
+      <c r="AL365">
+        <v>1.41</v>
+      </c>
+      <c r="AM365">
+        <v>1.68</v>
+      </c>
+      <c r="AN365">
+        <v>1.33</v>
+      </c>
+      <c r="AO365">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP365">
+        <v>1.42</v>
+      </c>
+      <c r="AQ365">
+        <v>0.89</v>
+      </c>
+      <c r="AR365">
+        <v>1.45</v>
+      </c>
+      <c r="AS365">
+        <v>1.19</v>
+      </c>
+      <c r="AT365">
+        <v>2.64</v>
+      </c>
+      <c r="AU365">
+        <v>10</v>
+      </c>
+      <c r="AV365">
+        <v>6</v>
+      </c>
+      <c r="AW365">
+        <v>6</v>
+      </c>
+      <c r="AX365">
+        <v>4</v>
+      </c>
+      <c r="AY365">
+        <v>17</v>
+      </c>
+      <c r="AZ365">
+        <v>10</v>
+      </c>
+      <c r="BA365">
+        <v>9</v>
+      </c>
+      <c r="BB365">
+        <v>2</v>
+      </c>
+      <c r="BC365">
+        <v>11</v>
+      </c>
+      <c r="BD365">
+        <v>1.8</v>
+      </c>
+      <c r="BE365">
+        <v>6.5</v>
+      </c>
+      <c r="BF365">
+        <v>2.18</v>
+      </c>
+      <c r="BG365">
+        <v>1.3</v>
+      </c>
+      <c r="BH365">
+        <v>3.05</v>
+      </c>
+      <c r="BI365">
+        <v>1.53</v>
+      </c>
+      <c r="BJ365">
+        <v>2.3</v>
+      </c>
+      <c r="BK365">
+        <v>1.88</v>
+      </c>
+      <c r="BL365">
+        <v>1.81</v>
+      </c>
+      <c r="BM365">
+        <v>2.38</v>
+      </c>
+      <c r="BN365">
+        <v>1.5</v>
+      </c>
+      <c r="BO365">
+        <v>3.05</v>
+      </c>
+      <c r="BP365">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:68">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>7465352</v>
+      </c>
+      <c r="C366" t="s">
+        <v>68</v>
+      </c>
+      <c r="D366" t="s">
+        <v>69</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F366">
+        <v>37</v>
+      </c>
+      <c r="G366" t="s">
+        <v>80</v>
+      </c>
+      <c r="H366" t="s">
+        <v>84</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>0</v>
+      </c>
+      <c r="M366">
+        <v>2</v>
+      </c>
+      <c r="N366">
+        <v>2</v>
+      </c>
+      <c r="O366" t="s">
+        <v>104</v>
+      </c>
+      <c r="P366" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q366">
+        <v>4.5</v>
+      </c>
+      <c r="R366">
+        <v>2.38</v>
+      </c>
+      <c r="S366">
+        <v>2.1</v>
+      </c>
+      <c r="T366">
+        <v>1.25</v>
+      </c>
+      <c r="U366">
+        <v>3.55</v>
+      </c>
+      <c r="V366">
+        <v>2.15</v>
+      </c>
+      <c r="W366">
+        <v>1.62</v>
+      </c>
+      <c r="X366">
+        <v>4.5</v>
+      </c>
+      <c r="Y366">
+        <v>1.17</v>
+      </c>
+      <c r="Z366">
+        <v>4.4</v>
+      </c>
+      <c r="AA366">
+        <v>3.95</v>
+      </c>
+      <c r="AB366">
+        <v>1.69</v>
+      </c>
+      <c r="AC366">
+        <v>1.03</v>
+      </c>
+      <c r="AD366">
+        <v>11</v>
+      </c>
+      <c r="AE366">
+        <v>1.17</v>
+      </c>
+      <c r="AF366">
+        <v>5</v>
+      </c>
+      <c r="AG366">
+        <v>1.5</v>
+      </c>
+      <c r="AH366">
+        <v>2.5</v>
+      </c>
+      <c r="AI366">
+        <v>1.5</v>
+      </c>
+      <c r="AJ366">
+        <v>2.4</v>
+      </c>
+      <c r="AK366">
+        <v>2.1</v>
+      </c>
+      <c r="AL366">
+        <v>1.18</v>
+      </c>
+      <c r="AM366">
+        <v>1.2</v>
+      </c>
+      <c r="AN366">
+        <v>1.33</v>
+      </c>
+      <c r="AO366">
+        <v>1.78</v>
+      </c>
+      <c r="AP366">
+        <v>1.26</v>
+      </c>
+      <c r="AQ366">
+        <v>1.84</v>
+      </c>
+      <c r="AR366">
+        <v>1.51</v>
+      </c>
+      <c r="AS366">
+        <v>1.63</v>
+      </c>
+      <c r="AT366">
+        <v>3.14</v>
+      </c>
+      <c r="AU366">
+        <v>2</v>
+      </c>
+      <c r="AV366">
+        <v>7</v>
+      </c>
+      <c r="AW366">
+        <v>5</v>
+      </c>
+      <c r="AX366">
+        <v>10</v>
+      </c>
+      <c r="AY366">
+        <v>8</v>
+      </c>
+      <c r="AZ366">
+        <v>23</v>
+      </c>
+      <c r="BA366">
+        <v>1</v>
+      </c>
+      <c r="BB366">
+        <v>7</v>
+      </c>
+      <c r="BC366">
+        <v>8</v>
+      </c>
+      <c r="BD366">
+        <v>2.55</v>
+      </c>
+      <c r="BE366">
+        <v>6.5</v>
+      </c>
+      <c r="BF366">
+        <v>1.6</v>
+      </c>
+      <c r="BG366">
+        <v>1.24</v>
+      </c>
+      <c r="BH366">
+        <v>3.55</v>
+      </c>
+      <c r="BI366">
+        <v>1.44</v>
+      </c>
+      <c r="BJ366">
+        <v>2.55</v>
+      </c>
+      <c r="BK366">
+        <v>1.72</v>
+      </c>
+      <c r="BL366">
+        <v>1.98</v>
+      </c>
+      <c r="BM366">
+        <v>2.1</v>
+      </c>
+      <c r="BN366">
+        <v>1.64</v>
+      </c>
+      <c r="BO366">
+        <v>2.65</v>
+      </c>
+      <c r="BP366">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="367" spans="1:68">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>7465353</v>
+      </c>
+      <c r="C367" t="s">
+        <v>68</v>
+      </c>
+      <c r="D367" t="s">
+        <v>69</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F367">
+        <v>37</v>
+      </c>
+      <c r="G367" t="s">
+        <v>78</v>
+      </c>
+      <c r="H367" t="s">
+        <v>86</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>1</v>
+      </c>
+      <c r="K367">
+        <v>1</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+      <c r="M367">
+        <v>1</v>
+      </c>
+      <c r="N367">
+        <v>1</v>
+      </c>
+      <c r="O367" t="s">
+        <v>104</v>
+      </c>
+      <c r="P367" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q367">
+        <v>5.55</v>
+      </c>
+      <c r="R367">
+        <v>2.15</v>
+      </c>
+      <c r="S367">
+        <v>2.27</v>
+      </c>
+      <c r="T367">
+        <v>1.4</v>
+      </c>
+      <c r="U367">
+        <v>2.8</v>
+      </c>
+      <c r="V367">
+        <v>2.97</v>
+      </c>
+      <c r="W367">
+        <v>1.36</v>
+      </c>
+      <c r="X367">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y367">
+        <v>1.03</v>
+      </c>
+      <c r="Z367">
+        <v>5.2</v>
+      </c>
+      <c r="AA367">
+        <v>3.84</v>
+      </c>
+      <c r="AB367">
+        <v>1.69</v>
+      </c>
+      <c r="AC367">
+        <v>1</v>
+      </c>
+      <c r="AD367">
+        <v>10.75</v>
+      </c>
+      <c r="AE367">
+        <v>1.3</v>
+      </c>
+      <c r="AF367">
+        <v>3.28</v>
+      </c>
+      <c r="AG367">
+        <v>2.03</v>
+      </c>
+      <c r="AH367">
+        <v>1.8</v>
+      </c>
+      <c r="AI367">
+        <v>1.93</v>
+      </c>
+      <c r="AJ367">
+        <v>1.78</v>
+      </c>
+      <c r="AK367">
+        <v>2.21</v>
+      </c>
+      <c r="AL367">
+        <v>1.28</v>
+      </c>
+      <c r="AM367">
+        <v>1.17</v>
+      </c>
+      <c r="AN367">
+        <v>0.72</v>
+      </c>
+      <c r="AO367">
+        <v>0.83</v>
+      </c>
+      <c r="AP367">
+        <v>0.68</v>
+      </c>
+      <c r="AQ367">
+        <v>0.95</v>
+      </c>
+      <c r="AR367">
+        <v>1.09</v>
+      </c>
+      <c r="AS367">
+        <v>1.21</v>
+      </c>
+      <c r="AT367">
+        <v>2.3</v>
+      </c>
+      <c r="AU367">
+        <v>2</v>
+      </c>
+      <c r="AV367">
+        <v>5</v>
+      </c>
+      <c r="AW367">
+        <v>6</v>
+      </c>
+      <c r="AX367">
+        <v>10</v>
+      </c>
+      <c r="AY367">
+        <v>11</v>
+      </c>
+      <c r="AZ367">
+        <v>18</v>
+      </c>
+      <c r="BA367">
+        <v>5</v>
+      </c>
+      <c r="BB367">
+        <v>9</v>
+      </c>
+      <c r="BC367">
+        <v>14</v>
+      </c>
+      <c r="BD367">
+        <v>3.05</v>
+      </c>
+      <c r="BE367">
+        <v>6.75</v>
+      </c>
+      <c r="BF367">
+        <v>1.46</v>
+      </c>
+      <c r="BG367">
+        <v>1.36</v>
+      </c>
+      <c r="BH367">
+        <v>2.8</v>
+      </c>
+      <c r="BI367">
+        <v>1.64</v>
+      </c>
+      <c r="BJ367">
+        <v>2.1</v>
+      </c>
+      <c r="BK367">
+        <v>2</v>
+      </c>
+      <c r="BL367">
+        <v>1.71</v>
+      </c>
+      <c r="BM367">
+        <v>2.55</v>
+      </c>
+      <c r="BN367">
+        <v>1.44</v>
+      </c>
+      <c r="BO367">
+        <v>3.3</v>
+      </c>
+      <c r="BP367">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="368" spans="1:68">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>7465354</v>
+      </c>
+      <c r="C368" t="s">
+        <v>68</v>
+      </c>
+      <c r="D368" t="s">
+        <v>69</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F368">
+        <v>37</v>
+      </c>
+      <c r="G368" t="s">
+        <v>73</v>
+      </c>
+      <c r="H368" t="s">
+        <v>85</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>1</v>
+      </c>
+      <c r="K368">
+        <v>1</v>
+      </c>
+      <c r="L368">
+        <v>0</v>
+      </c>
+      <c r="M368">
+        <v>1</v>
+      </c>
+      <c r="N368">
+        <v>1</v>
+      </c>
+      <c r="O368" t="s">
+        <v>104</v>
+      </c>
+      <c r="P368" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q368">
+        <v>3.36</v>
+      </c>
+      <c r="R368">
+        <v>2.13</v>
+      </c>
+      <c r="S368">
+        <v>3.12</v>
+      </c>
+      <c r="T368">
+        <v>1.36</v>
+      </c>
+      <c r="U368">
+        <v>2.97</v>
+      </c>
+      <c r="V368">
+        <v>2.72</v>
+      </c>
+      <c r="W368">
+        <v>1.42</v>
+      </c>
+      <c r="X368">
+        <v>7.1</v>
+      </c>
+      <c r="Y368">
+        <v>1.05</v>
+      </c>
+      <c r="Z368">
+        <v>2.77</v>
+      </c>
+      <c r="AA368">
+        <v>3.41</v>
+      </c>
+      <c r="AB368">
+        <v>2.46</v>
+      </c>
+      <c r="AC368">
+        <v>1.01</v>
+      </c>
+      <c r="AD368">
+        <v>12.8</v>
+      </c>
+      <c r="AE368">
+        <v>1.25</v>
+      </c>
+      <c r="AF368">
+        <v>3.96</v>
+      </c>
+      <c r="AG368">
+        <v>1.83</v>
+      </c>
+      <c r="AH368">
+        <v>2.02</v>
+      </c>
+      <c r="AI368">
+        <v>1.63</v>
+      </c>
+      <c r="AJ368">
+        <v>2.14</v>
+      </c>
+      <c r="AK368">
+        <v>1.54</v>
+      </c>
+      <c r="AL368">
+        <v>1.33</v>
+      </c>
+      <c r="AM368">
+        <v>1.47</v>
+      </c>
+      <c r="AN368">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO368">
+        <v>0.67</v>
+      </c>
+      <c r="AP368">
+        <v>0.89</v>
+      </c>
+      <c r="AQ368">
+        <v>0.79</v>
+      </c>
+      <c r="AR368">
+        <v>1.43</v>
+      </c>
+      <c r="AS368">
+        <v>1.13</v>
+      </c>
+      <c r="AT368">
+        <v>2.56</v>
+      </c>
+      <c r="AU368">
+        <v>4</v>
+      </c>
+      <c r="AV368">
+        <v>5</v>
+      </c>
+      <c r="AW368">
+        <v>6</v>
+      </c>
+      <c r="AX368">
+        <v>4</v>
+      </c>
+      <c r="AY368">
+        <v>13</v>
+      </c>
+      <c r="AZ368">
+        <v>12</v>
+      </c>
+      <c r="BA368">
+        <v>9</v>
+      </c>
+      <c r="BB368">
+        <v>2</v>
+      </c>
+      <c r="BC368">
+        <v>11</v>
+      </c>
+      <c r="BD368">
+        <v>1.67</v>
+      </c>
+      <c r="BE368">
+        <v>6.4</v>
+      </c>
+      <c r="BF368">
+        <v>2.48</v>
+      </c>
+      <c r="BG368">
+        <v>1.33</v>
+      </c>
+      <c r="BH368">
+        <v>2.95</v>
+      </c>
+      <c r="BI368">
+        <v>1.56</v>
+      </c>
+      <c r="BJ368">
+        <v>2.23</v>
+      </c>
+      <c r="BK368">
+        <v>1.92</v>
+      </c>
+      <c r="BL368">
+        <v>1.77</v>
+      </c>
+      <c r="BM368">
+        <v>2.4</v>
+      </c>
+      <c r="BN368">
+        <v>1.49</v>
+      </c>
+      <c r="BO368">
+        <v>3.05</v>
+      </c>
+      <c r="BP368">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:68">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>7469691</v>
+      </c>
+      <c r="C369" t="s">
+        <v>68</v>
+      </c>
+      <c r="D369" t="s">
+        <v>69</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F369">
+        <v>37</v>
+      </c>
+      <c r="G369" t="s">
+        <v>74</v>
+      </c>
+      <c r="H369" t="s">
+        <v>82</v>
+      </c>
+      <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>1</v>
+      </c>
+      <c r="L369">
+        <v>2</v>
+      </c>
+      <c r="M369">
+        <v>0</v>
+      </c>
+      <c r="N369">
+        <v>2</v>
+      </c>
+      <c r="O369" t="s">
+        <v>309</v>
+      </c>
+      <c r="P369" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q369">
+        <v>2.6</v>
+      </c>
+      <c r="R369">
+        <v>2</v>
+      </c>
+      <c r="S369">
+        <v>4.5</v>
+      </c>
+      <c r="T369">
+        <v>1.43</v>
+      </c>
+      <c r="U369">
+        <v>2.82</v>
+      </c>
+      <c r="V369">
+        <v>3.15</v>
+      </c>
+      <c r="W369">
+        <v>1.36</v>
+      </c>
+      <c r="X369">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y369">
+        <v>1.03</v>
+      </c>
+      <c r="Z369">
+        <v>2.02</v>
+      </c>
+      <c r="AA369">
+        <v>3.2</v>
+      </c>
+      <c r="AB369">
+        <v>3.75</v>
+      </c>
+      <c r="AC369">
+        <v>1.05</v>
+      </c>
+      <c r="AD369">
+        <v>8</v>
+      </c>
+      <c r="AE369">
+        <v>1.3</v>
+      </c>
+      <c r="AF369">
+        <v>3.2</v>
+      </c>
+      <c r="AG369">
+        <v>2.1</v>
+      </c>
+      <c r="AH369">
+        <v>1.65</v>
+      </c>
+      <c r="AI369">
+        <v>1.87</v>
+      </c>
+      <c r="AJ369">
+        <v>1.87</v>
+      </c>
+      <c r="AK369">
+        <v>1.28</v>
+      </c>
+      <c r="AL369">
+        <v>1.36</v>
+      </c>
+      <c r="AM369">
+        <v>1.83</v>
+      </c>
+      <c r="AN369">
+        <v>1.83</v>
+      </c>
+      <c r="AO369">
+        <v>0.67</v>
+      </c>
+      <c r="AP369">
+        <v>1.89</v>
+      </c>
+      <c r="AQ369">
+        <v>0.63</v>
+      </c>
+      <c r="AR369">
+        <v>1.46</v>
+      </c>
+      <c r="AS369">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT369">
+        <v>2.4</v>
+      </c>
+      <c r="AU369">
+        <v>4</v>
+      </c>
+      <c r="AV369">
+        <v>7</v>
+      </c>
+      <c r="AW369">
+        <v>13</v>
+      </c>
+      <c r="AX369">
+        <v>10</v>
+      </c>
+      <c r="AY369">
+        <v>20</v>
+      </c>
+      <c r="AZ369">
+        <v>20</v>
+      </c>
+      <c r="BA369">
+        <v>8</v>
+      </c>
+      <c r="BB369">
+        <v>6</v>
+      </c>
+      <c r="BC369">
+        <v>14</v>
+      </c>
+      <c r="BD369">
+        <v>1.49</v>
+      </c>
+      <c r="BE369">
+        <v>6.75</v>
+      </c>
+      <c r="BF369">
+        <v>2.9</v>
+      </c>
+      <c r="BG369">
+        <v>1.36</v>
+      </c>
+      <c r="BH369">
+        <v>2.85</v>
+      </c>
+      <c r="BI369">
+        <v>1.6</v>
+      </c>
+      <c r="BJ369">
+        <v>2.17</v>
+      </c>
+      <c r="BK369">
+        <v>1.96</v>
+      </c>
+      <c r="BL369">
+        <v>1.73</v>
+      </c>
+      <c r="BM369">
+        <v>2.5</v>
+      </c>
+      <c r="BN369">
+        <v>1.46</v>
+      </c>
+      <c r="BO369">
+        <v>3.3</v>
+      </c>
+      <c r="BP369">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="370" spans="1:68">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>7465347</v>
+      </c>
+      <c r="C370" t="s">
+        <v>68</v>
+      </c>
+      <c r="D370" t="s">
+        <v>69</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F370">
+        <v>37</v>
+      </c>
+      <c r="G370" t="s">
+        <v>81</v>
+      </c>
+      <c r="H370" t="s">
+        <v>79</v>
+      </c>
+      <c r="I370">
+        <v>2</v>
+      </c>
+      <c r="J370">
+        <v>1</v>
+      </c>
+      <c r="K370">
+        <v>3</v>
+      </c>
+      <c r="L370">
+        <v>2</v>
+      </c>
+      <c r="M370">
+        <v>3</v>
+      </c>
+      <c r="N370">
+        <v>5</v>
+      </c>
+      <c r="O370" t="s">
+        <v>310</v>
+      </c>
+      <c r="P370" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q370">
+        <v>1.9</v>
+      </c>
+      <c r="R370">
+        <v>2.65</v>
+      </c>
+      <c r="S370">
+        <v>4.75</v>
+      </c>
+      <c r="T370">
+        <v>1.18</v>
+      </c>
+      <c r="U370">
+        <v>4.2</v>
+      </c>
+      <c r="V370">
+        <v>1.93</v>
+      </c>
+      <c r="W370">
+        <v>1.77</v>
+      </c>
+      <c r="X370">
+        <v>3.9</v>
+      </c>
+      <c r="Y370">
+        <v>1.22</v>
+      </c>
+      <c r="Z370">
+        <v>1.51</v>
+      </c>
+      <c r="AA370">
+        <v>4.7</v>
+      </c>
+      <c r="AB370">
+        <v>5.1</v>
+      </c>
+      <c r="AC370">
+        <v>1.01</v>
+      </c>
+      <c r="AD370">
+        <v>23</v>
+      </c>
+      <c r="AE370">
+        <v>1.1</v>
+      </c>
+      <c r="AF370">
+        <v>6.5</v>
+      </c>
+      <c r="AG370">
+        <v>1.38</v>
+      </c>
+      <c r="AH370">
+        <v>3</v>
+      </c>
+      <c r="AI370">
+        <v>1.45</v>
+      </c>
+      <c r="AJ370">
+        <v>2.55</v>
+      </c>
+      <c r="AK370">
+        <v>1.17</v>
+      </c>
+      <c r="AL370">
+        <v>1.13</v>
+      </c>
+      <c r="AM370">
+        <v>2.45</v>
+      </c>
+      <c r="AN370">
+        <v>2.39</v>
+      </c>
+      <c r="AO370">
+        <v>1.83</v>
+      </c>
+      <c r="AP370">
+        <v>2.26</v>
+      </c>
+      <c r="AQ370">
+        <v>1.89</v>
+      </c>
+      <c r="AR370">
+        <v>2.29</v>
+      </c>
+      <c r="AS370">
+        <v>1.45</v>
+      </c>
+      <c r="AT370">
+        <v>3.74</v>
+      </c>
+      <c r="AU370">
+        <v>10</v>
+      </c>
+      <c r="AV370">
+        <v>4</v>
+      </c>
+      <c r="AW370">
+        <v>15</v>
+      </c>
+      <c r="AX370">
+        <v>4</v>
+      </c>
+      <c r="AY370">
+        <v>31</v>
+      </c>
+      <c r="AZ370">
+        <v>8</v>
+      </c>
+      <c r="BA370">
+        <v>11</v>
+      </c>
+      <c r="BB370">
+        <v>3</v>
+      </c>
+      <c r="BC370">
+        <v>14</v>
+      </c>
+      <c r="BD370">
+        <v>1.32</v>
+      </c>
+      <c r="BE370">
+        <v>7.5</v>
+      </c>
+      <c r="BF370">
+        <v>3.7</v>
+      </c>
+      <c r="BG370">
+        <v>1.28</v>
+      </c>
+      <c r="BH370">
+        <v>3.3</v>
+      </c>
+      <c r="BI370">
+        <v>1.48</v>
+      </c>
+      <c r="BJ370">
+        <v>2.43</v>
+      </c>
+      <c r="BK370">
+        <v>1.76</v>
+      </c>
+      <c r="BL370">
+        <v>1.93</v>
+      </c>
+      <c r="BM370">
+        <v>2.18</v>
+      </c>
+      <c r="BN370">
+        <v>1.58</v>
+      </c>
+      <c r="BO370">
+        <v>2.75</v>
+      </c>
+      <c r="BP370">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="371" spans="1:68">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>7465346</v>
+      </c>
+      <c r="C371" t="s">
+        <v>68</v>
+      </c>
+      <c r="D371" t="s">
+        <v>69</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F371">
+        <v>37</v>
+      </c>
+      <c r="G371" t="s">
+        <v>87</v>
+      </c>
+      <c r="H371" t="s">
+        <v>71</v>
+      </c>
+      <c r="I371">
+        <v>2</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>2</v>
+      </c>
+      <c r="L371">
+        <v>4</v>
+      </c>
+      <c r="M371">
+        <v>1</v>
+      </c>
+      <c r="N371">
+        <v>5</v>
+      </c>
+      <c r="O371" t="s">
+        <v>311</v>
+      </c>
+      <c r="P371" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q371">
+        <v>2.3</v>
+      </c>
+      <c r="R371">
+        <v>2.2</v>
+      </c>
+      <c r="S371">
+        <v>4.33</v>
+      </c>
+      <c r="T371">
+        <v>1.33</v>
+      </c>
+      <c r="U371">
+        <v>3</v>
+      </c>
+      <c r="V371">
+        <v>2.45</v>
+      </c>
+      <c r="W371">
+        <v>1.48</v>
+      </c>
+      <c r="X371">
+        <v>5.5</v>
+      </c>
+      <c r="Y371">
+        <v>1.11</v>
+      </c>
+      <c r="Z371">
+        <v>1.83</v>
+      </c>
+      <c r="AA371">
+        <v>3.65</v>
+      </c>
+      <c r="AB371">
+        <v>4</v>
+      </c>
+      <c r="AC371">
+        <v>1.05</v>
+      </c>
+      <c r="AD371">
+        <v>9.5</v>
+      </c>
+      <c r="AE371">
+        <v>1.25</v>
+      </c>
+      <c r="AF371">
+        <v>3.85</v>
+      </c>
+      <c r="AG371">
+        <v>1.75</v>
+      </c>
+      <c r="AH371">
+        <v>2.05</v>
+      </c>
+      <c r="AI371">
+        <v>1.65</v>
+      </c>
+      <c r="AJ371">
+        <v>2.1</v>
+      </c>
+      <c r="AK371">
+        <v>1.22</v>
+      </c>
+      <c r="AL371">
+        <v>1.22</v>
+      </c>
+      <c r="AM371">
+        <v>1.93</v>
+      </c>
+      <c r="AN371">
+        <v>2.39</v>
+      </c>
+      <c r="AO371">
+        <v>1.44</v>
+      </c>
+      <c r="AP371">
+        <v>2.42</v>
+      </c>
+      <c r="AQ371">
+        <v>1.37</v>
+      </c>
+      <c r="AR371">
+        <v>1.69</v>
+      </c>
+      <c r="AS371">
+        <v>1.41</v>
+      </c>
+      <c r="AT371">
+        <v>3.1</v>
+      </c>
+      <c r="AU371">
+        <v>12</v>
+      </c>
+      <c r="AV371">
+        <v>8</v>
+      </c>
+      <c r="AW371">
+        <v>9</v>
+      </c>
+      <c r="AX371">
+        <v>5</v>
+      </c>
+      <c r="AY371">
+        <v>22</v>
+      </c>
+      <c r="AZ371">
+        <v>14</v>
+      </c>
+      <c r="BA371">
+        <v>7</v>
+      </c>
+      <c r="BB371">
+        <v>4</v>
+      </c>
+      <c r="BC371">
+        <v>11</v>
+      </c>
+      <c r="BD371">
+        <v>1.68</v>
+      </c>
+      <c r="BE371">
+        <v>6.75</v>
+      </c>
+      <c r="BF371">
+        <v>2.4</v>
+      </c>
+      <c r="BG371">
+        <v>1.28</v>
+      </c>
+      <c r="BH371">
+        <v>3.3</v>
+      </c>
+      <c r="BI371">
+        <v>1.49</v>
+      </c>
+      <c r="BJ371">
+        <v>2.4</v>
+      </c>
+      <c r="BK371">
+        <v>1.79</v>
+      </c>
+      <c r="BL371">
+        <v>1.9</v>
+      </c>
+      <c r="BM371">
+        <v>2.23</v>
+      </c>
+      <c r="BN371">
+        <v>1.56</v>
+      </c>
+      <c r="BO371">
+        <v>2.9</v>
+      </c>
+      <c r="BP371">
         <v>1.35</v>
       </c>
     </row>
